--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA29C3-A8AC-482B-87B8-28793DB6EE84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDABAF-E206-476F-9939-16390735B569}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -2115,65 +2115,105 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2221,18 +2261,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2242,34 +2270,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -3510,7 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
@@ -3523,71 +3523,71 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="105"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="137"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="117" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="135" t="s">
+      <c r="C11" s="117"/>
+      <c r="D11" s="92" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="140" t="str">
+      <c r="C12" s="116"/>
+      <c r="D12" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
 MASVS_VERSION,
@@ -3596,11 +3596,11 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="97" t="s">
@@ -3610,10 +3610,10 @@
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
@@ -3654,9 +3654,9 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
@@ -3701,9 +3701,9 @@
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
@@ -3748,9 +3748,9 @@
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
@@ -3760,98 +3760,97 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="120"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="99" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="93"/>
+      <c r="C38" s="121"/>
       <c r="D38" s="56"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="93"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="56"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="93"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="56"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="93"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="57"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="93"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="56"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="96"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="120"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="99" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="93"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="56"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="C45" s="93"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="56"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="93"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="56"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="93"/>
+      <c r="C47" s="121"/>
       <c r="D47" s="57"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="93"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B37:D37"/>
@@ -3866,16 +3865,17 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3921,11 +3921,11 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
@@ -3940,16 +3940,16 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
-      <c r="V6" s="125" t="s">
+      <c r="H6" s="137"/>
+      <c r="I6" s="138"/>
+      <c r="V6" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="W6" s="126"/>
-      <c r="X6" s="127"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="141"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
@@ -3964,18 +3964,18 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="113">
+      <c r="G8" s="127">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
-      <c r="V8" s="113">
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
+      <c r="V8" s="127">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="114"/>
-      <c r="X8" s="115"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="129"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="22"/>
@@ -3983,12 +3983,12 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="118"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="132"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
@@ -3996,12 +3996,12 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="118"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="132"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
@@ -4009,19 +4009,19 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="121"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="135"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="135"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
@@ -4045,11 +4045,11 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
@@ -4102,18 +4102,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="129" t="s">
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="131"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="125"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="18" t="s">
@@ -4439,6 +4439,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -4446,8 +4448,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4502,15 +4502,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="142" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="H6" s="66"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="144" t="str">
+      <c r="G16" s="96" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
@@ -4797,7 +4797,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="34"/>
-      <c r="G17" s="144" t="str">
+      <c r="G17" s="96" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
@@ -4820,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="34"/>
-      <c r="G18" s="144" t="str">
+      <c r="G18" s="96" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
@@ -4829,7 +4829,7 @@
       </c>
       <c r="H18" s="66"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="50" t="s">
         <v>8</v>
       </c>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="H24" s="66"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="50" t="s">
         <v>42</v>
       </c>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="H31" s="66"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="50" t="s">
         <v>18</v>
       </c>
@@ -8397,8 +8397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8408,10 +8408,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
     </row>
@@ -8576,7 +8576,9 @@
       <c r="B13" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="81">
+        <v>43641</v>
+      </c>
       <c r="D13" s="82" t="s">
         <v>305</v>
       </c>

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDABAF-E206-476F-9939-16390735B569}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09882FC4-5417-4BB7-A497-1C6F0BDC1B2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -23,8 +23,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Security Requirements - Android'!$B$3:$H$72</definedName>
-    <definedName name="BASE_URL">Dashboard!$D$12</definedName>
+    <definedName name="BASE_URL">Dashboard!$D$14</definedName>
     <definedName name="MASVS_VERSION">Dashboard!$D$11</definedName>
+    <definedName name="MSTG_VERSION">Dashboard!$D$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="312">
   <si>
     <t>ID</t>
   </si>
@@ -1038,7 +1039,19 @@
     <t>Abderrahmane Aftahi</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>Versión online del MASVS</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>Corrigiendo el enlace al repositorio MSTG y agregando un enlace al repositorio MASVS</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1061,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1298,23 +1311,32 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1397,7 +1419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1811,6 +1833,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1877,7 +1910,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2115,9 +2148,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2129,13 +2159,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2170,12 +2218,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2188,20 +2230,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2216,33 +2279,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2252,15 +2288,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2269,6 +2296,27 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -3508,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D48"/>
+  <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3523,359 +3571,383 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="106" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="143"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="147" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="147"/>
+      <c r="D11" s="145" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="146"/>
+      <c r="D12" s="148" t="str">
+        <f>HYPERLINK(CONCATENATE(
+"https://github.com/OWASP/owasp-masvs/blob/",
+MASVS_VERSION,
+"/Document/"))</f>
+        <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="147" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="147"/>
+      <c r="D13" s="144" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="116" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="119" t="s">
         <v>301</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="95" t="str">
+      <c r="C14" s="119"/>
+      <c r="D14" s="94" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
-MASVS_VERSION,
+MSTG_VERSION,
 "/Document/"))</f>
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.2/Document/</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="113" t="s">
+    <row r="15" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="97" t="s">
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="99" t="s">
+      <c r="C16" s="102"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="97" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="101" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="97" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="101" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="97" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="97" t="s">
+      <c r="C20" s="102"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="101" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="97" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="13" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="97" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="97" t="s">
+      <c r="C26" s="102"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="101" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="97" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="102"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="102"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="68" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="97" t="s">
+      <c r="C32" s="69"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="97" t="s">
+      <c r="C33" s="102"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="101" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="97" t="s">
+      <c r="C34" s="102"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="97" t="s">
+      <c r="C35" s="102"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="102"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="118"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="120"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="99" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="56"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="99" t="s">
+      <c r="C40" s="97"/>
+      <c r="D40" s="56"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="56"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="99" t="s">
+      <c r="C41" s="97"/>
+      <c r="D41" s="56"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="56"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="99" t="s">
+      <c r="C42" s="97"/>
+      <c r="D42" s="56"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="57"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="99" t="s">
+      <c r="C43" s="97"/>
+      <c r="D43" s="57"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="56"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="118"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="120"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="99" t="s">
+      <c r="C44" s="97"/>
+      <c r="D44" s="56"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="100"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="56"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="99" t="s">
+      <c r="C46" s="97"/>
+      <c r="D46" s="56"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="56"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="99" t="s">
+      <c r="C47" s="97"/>
+      <c r="D47" s="56"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="121"/>
-      <c r="D46" s="56"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="99" t="s">
+      <c r="C48" s="97"/>
+      <c r="D48" s="56"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="57"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="99" t="s">
+      <c r="C49" s="97"/>
+      <c r="D49" s="57"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="56"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+  <mergeCells count="37">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3921,11 +3993,11 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
@@ -3940,16 +4012,16 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
-      <c r="V6" s="139" t="s">
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+      <c r="V6" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="W6" s="140"/>
-      <c r="X6" s="141"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="122"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
@@ -3964,18 +4036,18 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="127">
+      <c r="G8" s="123">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
-      <c r="V8" s="127">
+      <c r="H8" s="124"/>
+      <c r="I8" s="125"/>
+      <c r="V8" s="123">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="128"/>
-      <c r="X8" s="129"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="125"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="22"/>
@@ -3983,12 +4055,12 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="132"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="128"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
@@ -3996,12 +4068,12 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="132"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="128"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
@@ -4009,19 +4081,19 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="135"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="135"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="131"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
@@ -4045,11 +4117,11 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
@@ -4102,18 +4174,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="123" t="s">
+      <c r="D41" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="123" t="s">
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="125"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="135"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="18" t="s">
@@ -4439,15 +4511,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4502,15 +4574,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -4774,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="96" t="str">
+      <c r="G16" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
@@ -4797,7 +4869,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="34"/>
-      <c r="G17" s="96" t="str">
+      <c r="G17" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
@@ -4820,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="34"/>
-      <c r="G18" s="96" t="str">
+      <c r="G18" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
@@ -5070,7 +5142,7 @@
       </c>
       <c r="H31" s="66"/>
     </row>
-    <row r="32" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="50" t="s">
         <v>18</v>
       </c>
@@ -8395,10 +8467,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8408,10 +8480,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="142"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
     </row>
@@ -8569,18 +8641,32 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="83" t="s">
         <v>306</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C13" s="81">
         <v>43641</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="81">
+        <v>43642</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pec1be7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pec1be7\git\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="19416" windowHeight="10416" tabRatio="765" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="495" windowWidth="19410" windowHeight="10410" tabRatio="765" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="271">
   <si>
     <t>ID</t>
   </si>
@@ -286,174 +286,9 @@
     <t>Bernhard Mueller</t>
   </si>
   <si>
-    <t>Testing For Sensitive Data in Local Data Storage</t>
-  </si>
-  <si>
-    <t>Testing For Sensitive Data in Logs</t>
-  </si>
-  <si>
-    <t>Testing Whether Sensitive Data Is Sent To Third Parties</t>
-  </si>
-  <si>
-    <t>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Testing for Sensitive Data in the Clipboard</t>
-  </si>
-  <si>
-    <t>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</t>
-  </si>
-  <si>
-    <t>Testing for Sensitive Data in Backups</t>
-  </si>
-  <si>
-    <t>Testing for Sensitive Information in Auto-Generated Screenshots</t>
-  </si>
-  <si>
-    <t>Testing for Sensitive Data in Memory</t>
-  </si>
-  <si>
-    <t>Testing the Device-Access-Security Policy</t>
-  </si>
-  <si>
-    <t>Verifying User Education Controls</t>
-  </si>
-  <si>
-    <t>Verifying Key Management</t>
-  </si>
-  <si>
-    <t>Testing for Custom Implementations of Cryptography</t>
-  </si>
-  <si>
-    <t>Verifying the Configuration of Cryptographic Standard Algorithms</t>
-  </si>
-  <si>
-    <t>Testing for Insecure and/or Deprecated Cryptographic Algorithms</t>
-  </si>
-  <si>
-    <t>Testing Random Number Generation</t>
-  </si>
-  <si>
-    <t>Verifying that Users Are Properly Authenticated</t>
-  </si>
-  <si>
-    <t>Testing Session Management</t>
-  </si>
-  <si>
-    <t>Testing the Password Policy</t>
-  </si>
-  <si>
-    <t>Testing the Logout Functionality</t>
-  </si>
-  <si>
-    <t>Testing Excessive Login Attempts</t>
-  </si>
-  <si>
-    <t>Testing Biometric Authentication</t>
-  </si>
-  <si>
-    <t>Testing the Session Timeout</t>
-  </si>
-  <si>
-    <t>Testing 2-Factor Authentication</t>
-  </si>
-  <si>
-    <t>Testing Step-up Authentication</t>
-  </si>
-  <si>
-    <t>Testing User Device Management</t>
-  </si>
-  <si>
-    <t>Testing for Unencrypted Sensitive Data on the Network</t>
-  </si>
-  <si>
-    <t>Verifying the TLS Settings</t>
-  </si>
-  <si>
-    <t>Testing Endpoint Identify Verification</t>
-  </si>
-  <si>
-    <t>Testing Custom Certificate Stores and SSL Pinning</t>
-  </si>
-  <si>
-    <t>Verifying that Critical Operations Use Secure Communication Channels</t>
-  </si>
-  <si>
-    <t>Testing App Permissions</t>
-  </si>
-  <si>
-    <t>Testing Input Validation and Sanitization</t>
-  </si>
-  <si>
-    <t>Testing Custom URL Schemes</t>
-  </si>
-  <si>
-    <t>Testing For Sensitive Functionality Exposure Through IPC</t>
-  </si>
-  <si>
-    <t>Testing JavaScript Execution in WebViews</t>
-  </si>
-  <si>
-    <t>Testing WebView Protocol Handlers</t>
-  </si>
-  <si>
-    <t>Testing Whether Java Objects Are Exposed Through WebViews</t>
-  </si>
-  <si>
-    <t>Testing Object (De-)Serialization</t>
-  </si>
-  <si>
-    <t>Verifying That the App is Properly Signed</t>
-  </si>
-  <si>
-    <t>Testing If the App is Debuggable</t>
-  </si>
-  <si>
-    <t>Testing for Debugging Symbols</t>
-  </si>
-  <si>
-    <t>Testing for Debugging Code and Verbose Error Logging</t>
-  </si>
-  <si>
-    <t>Verifying Compiler Settings</t>
-  </si>
-  <si>
-    <t>Testing Exception Handling</t>
-  </si>
-  <si>
-    <t>Testing  Error Handling in Security Controls</t>
-  </si>
-  <si>
-    <t>Testing for Memory Management Bugs</t>
-  </si>
-  <si>
-    <t>Testing Advanced Root Detection</t>
-  </si>
-  <si>
-    <t>Testing Debugging Defenses</t>
-  </si>
-  <si>
-    <t>Testing File Integrity Checks</t>
-  </si>
-  <si>
-    <t>Testing Detection of Reverse Engineering Tools</t>
-  </si>
-  <si>
-    <t>Testing Simple Emulator Detection</t>
-  </si>
-  <si>
-    <t>Testing Simple Obfuscation</t>
-  </si>
-  <si>
-    <t>Testing Device Binding</t>
-  </si>
-  <si>
-    <t>Testing for Sensitive Data Disclosure Through the User Interface</t>
-  </si>
-  <si>
     <t>0.8.1</t>
   </si>
   <si>
@@ -487,12 +322,6 @@
     <t>Sync with MASVS (merge 7.9 into 7.8)</t>
   </si>
   <si>
-    <t>Verifying the Security Provider</t>
-  </si>
-  <si>
-    <t>Verifying usage of Free Security Features</t>
-  </si>
-  <si>
     <t>4.11</t>
   </si>
   <si>
@@ -500,9 +329,6 @@
   </si>
   <si>
     <t>7.9</t>
-  </si>
-  <si>
-    <t>Testing 3rd party libraries</t>
   </si>
   <si>
     <t>Sync with MASVS (update requirements of domain 1, 4 and 6)</t>
@@ -974,12 +800,6 @@
     <t>1.0.1</t>
   </si>
   <si>
-    <t>Testing Root Detection</t>
-  </si>
-  <si>
-    <t>Testing Run-Time Integrity Checks</t>
-  </si>
-  <si>
     <t>Versión online del MSTG</t>
   </si>
   <si>
@@ -1117,7 +937,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1376,14 +1196,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1393,6 +1205,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1966,7 +1788,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2080,9 +1902,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2185,22 +2004,13 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2210,7 +2020,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2223,8 +2032,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2232,8 +2059,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2268,12 +2098,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2292,17 +2116,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2350,18 +2174,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2371,8 +2183,23 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -2440,7 +2267,91 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="62"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3618,80 +3529,80 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.296875" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.95" customHeight="1"/>
+    <row r="1" spans="2:4" ht="7.9" customHeight="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="104" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
+      <c r="B2" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="107"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
     </row>
     <row r="8" spans="2:4" hidden="1">
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="112"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.2">
-      <c r="B9" s="113" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+    </row>
+    <row r="9" spans="2:4" ht="18">
+      <c r="B9" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="120" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="C11" s="120"/>
-      <c r="D11" s="97" t="s">
-        <v>294</v>
+      <c r="D11" s="92" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="121" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="C12" s="121"/>
-      <c r="D12" s="98" t="str">
+      <c r="D12" s="93" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
 MASVS_VERSION,
@@ -3701,19 +3612,19 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="120" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="C13" s="120"/>
-      <c r="D13" s="96" t="s">
-        <v>290</v>
+      <c r="D13" s="91" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="119" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="C14" s="119"/>
-      <c r="D14" s="93" t="str">
+      <c r="D14" s="89" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
 MSTG_VERSION,
@@ -3721,115 +3632,115 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.2/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="2:4" ht="40.15" customHeight="1">
       <c r="B15" s="116" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="C15" s="117"/>
       <c r="D15" s="118"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" s="101"/>
+      <c r="B16" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="102"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="103"/>
+      <c r="B17" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="105"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="101"/>
+      <c r="B18" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="102"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="101"/>
+      <c r="B19" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="102"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="101"/>
+      <c r="B20" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="102"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="101"/>
+      <c r="B21" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="102"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1">
-      <c r="B22" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="101"/>
+      <c r="B22" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="102"/>
       <c r="D22" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="16.2">
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18">
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="100" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="101"/>
+      <c r="B26" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="102"/>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="101"/>
+      <c r="B27" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="102"/>
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="101"/>
+      <c r="B28" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="102"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="C29" s="101"/>
+      <c r="B29" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="102"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="2:4" ht="16.2">
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="115"/>
+    <row r="30" spans="2:4" ht="18">
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
@@ -3839,144 +3750,147 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="68"/>
+      <c r="B32" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="67"/>
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="100" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="101"/>
+      <c r="B33" s="101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="102"/>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="101"/>
+      <c r="B34" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="102"/>
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" s="101"/>
+      <c r="B35" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="102"/>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="101"/>
+      <c r="B36" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="102"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="2:4" ht="16.2">
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="115"/>
+    <row r="37" spans="2:4" ht="18">
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4" ht="16.2">
-      <c r="B39" s="122"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="124"/>
+    <row r="39" spans="2:4" ht="18">
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="102" t="s">
-        <v>267</v>
-      </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="55"/>
+      <c r="B40" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="97"/>
+      <c r="D40" s="54"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="102" t="s">
-        <v>268</v>
-      </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="55"/>
+      <c r="B41" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="97"/>
+      <c r="D41" s="54"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="55"/>
+      <c r="B42" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="97"/>
+      <c r="D42" s="54"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="102" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="97"/>
+      <c r="D43" s="55"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="102" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="55"/>
-    </row>
-    <row r="45" spans="2:4" ht="16.2">
-      <c r="B45" s="122"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
+      <c r="B44" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="97"/>
+      <c r="D44" s="54"/>
+    </row>
+    <row r="45" spans="2:4" ht="18">
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="100"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="102" t="s">
-        <v>267</v>
-      </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="55"/>
+      <c r="B46" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="97"/>
+      <c r="D46" s="54"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="102" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" s="125"/>
-      <c r="D47" s="55"/>
+      <c r="B47" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="97"/>
+      <c r="D47" s="54"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="125"/>
-      <c r="D48" s="55"/>
+      <c r="B48" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="97"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="102" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="125"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="97"/>
+      <c r="D49" s="55"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="102" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="125"/>
-      <c r="D50" s="55"/>
+      <c r="B50" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="97"/>
+      <c r="D50" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -3991,19 +3905,16 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4019,20 +3930,20 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="1.796875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="54.796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="54.75" style="6" customWidth="1"/>
     <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.69921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="6"/>
+    <col min="5" max="5" width="4.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.4" thickBot="1"/>
-    <row r="2" spans="2:24" ht="15.6" thickBot="1">
+    <row r="1" spans="2:24" ht="15" thickBot="1"/>
+    <row r="2" spans="2:24" ht="16.5" thickBot="1">
       <c r="B2" s="8"/>
       <c r="C2" s="23" t="s">
         <v>68</v>
@@ -4041,52 +3952,52 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:24" ht="15">
+    <row r="3" spans="2:24" ht="15.75">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:24" ht="15">
+    <row r="4" spans="2:24" ht="15.75">
       <c r="B4" s="126"/>
       <c r="C4" s="126"/>
       <c r="D4" s="126"/>
       <c r="E4" s="126"/>
       <c r="F4" s="126"/>
     </row>
-    <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1">
+    <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="2:24" ht="19.05" customHeight="1" thickBot="1">
+    <row r="6" spans="2:24" ht="19.149999999999999" customHeight="1" thickBot="1">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="136" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="H6" s="137"/>
       <c r="I6" s="138"/>
       <c r="V6" s="139" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="W6" s="140"/>
       <c r="X6" s="141"/>
     </row>
-    <row r="7" spans="2:24" ht="15.6" thickBot="1">
+    <row r="7" spans="2:24" ht="16.5" thickBot="1">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="2:24" ht="16.05" customHeight="1">
+    <row r="8" spans="2:24" ht="16.149999999999999" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -4105,7 +4016,7 @@
       <c r="W8" s="128"/>
       <c r="X8" s="129"/>
     </row>
-    <row r="9" spans="2:24" ht="91.05" customHeight="1">
+    <row r="9" spans="2:24" ht="91.15" customHeight="1">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4144,49 +4055,49 @@
       <c r="W11" s="134"/>
       <c r="X11" s="135"/>
     </row>
-    <row r="12" spans="2:24" ht="16.05" customHeight="1">
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-    </row>
-    <row r="13" spans="2:24" ht="14.4">
+    <row r="12" spans="2:24" ht="16.149999999999999" customHeight="1">
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+    </row>
+    <row r="13" spans="2:24" ht="15">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="2:24" ht="14.4">
+    <row r="14" spans="2:24" ht="15">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="2:24" ht="15">
+    <row r="15" spans="2:24" ht="15.75">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="2:24" ht="16.05" customHeight="1">
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-    </row>
-    <row r="17" spans="2:6" ht="14.4">
+    <row r="16" spans="2:24" ht="16.149999999999999" customHeight="1">
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+    </row>
+    <row r="17" spans="2:6" ht="15">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6" ht="14.4">
+    <row r="18" spans="2:6" ht="15">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4229,19 +4140,19 @@
       <c r="C32" s="19"/>
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
-    <row r="41" spans="3:11" ht="14.4">
-      <c r="D41" s="143" t="s">
+    <row r="41" spans="3:11" ht="16.5">
+      <c r="D41" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="143" t="s">
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="145"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="125"/>
     </row>
     <row r="42" spans="3:11">
       <c r="D42" s="18" t="s">
@@ -4269,9 +4180,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="14.4">
+    <row r="43" spans="3:11" ht="16.5">
       <c r="C43" s="12" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="D43" s="10">
         <f>COUNTIFS('Security Requirements - Android'!F5:F14,'Security Requirements - Android'!B79)</f>
@@ -4306,9 +4217,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="14.4">
+    <row r="44" spans="3:11" ht="16.5">
       <c r="C44" s="12" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="D44" s="10">
         <f>COUNTIFS('Security Requirements - Android'!F16:F27,'Security Requirements - Android'!B79)</f>
@@ -4343,9 +4254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="14.4">
+    <row r="45" spans="3:11" ht="16.5">
       <c r="C45" s="12" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="D45" s="10">
         <f>COUNTIFS('Security Requirements - Android'!F29:F34,'Security Requirements - Android'!B79)</f>
@@ -4380,9 +4291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="14.4">
+    <row r="46" spans="3:11" ht="16.5">
       <c r="C46" s="12" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="D46" s="10">
         <f>COUNTIFS('Security Requirements - Android'!F36:F46,'Security Requirements - Android'!B79)</f>
@@ -4417,9 +4328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="14.4">
+    <row r="47" spans="3:11" ht="16.5">
       <c r="C47" s="12" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="D47" s="10">
         <f>COUNTIFS('Security Requirements - Android'!F48:F53,'Security Requirements - Android'!B79)</f>
@@ -4454,9 +4365,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="14.4">
+    <row r="48" spans="3:11" ht="16.5">
       <c r="C48" s="12" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="D48" s="10">
         <f>COUNTIFS('Security Requirements - Android'!F55:F62,'Security Requirements - Android'!B79)</f>
@@ -4491,9 +4402,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="14.4">
+    <row r="49" spans="3:11" ht="16.5">
       <c r="C49" s="12" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="D49" s="10">
         <f>COUNTIFS('Security Requirements - Android'!F64:F72,'Security Requirements - Android'!B79)</f>
@@ -4528,9 +4439,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="14.4">
+    <row r="50" spans="3:11" ht="16.5">
       <c r="C50" s="12" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="D50" s="10">
         <f>COUNTIFS('Anti-RE - Android'!E4:E18,'Security Requirements - Android'!B79)</f>
@@ -4567,6 +4478,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -4574,8 +4487,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4587,7 +4498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4601,7 +4512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4616,33 +4527,33 @@
   <dimension ref="B1:J85"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C72" sqref="B4:C72"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.796875" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="96.69921875" style="54" customWidth="1"/>
-    <col min="7" max="7" width="53.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.796875" customWidth="1"/>
-    <col min="10" max="11" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="96.75" style="53" customWidth="1"/>
+    <col min="7" max="7" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="10" max="11" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18">
-      <c r="B1" s="146" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+    <row r="1" spans="2:8" ht="18.75">
+      <c r="B1" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="44"/>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -4653,31 +4564,31 @@
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>283</v>
+      <c r="C3" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70" t="s">
-        <v>170</v>
+      <c r="C4" s="69" t="s">
+        <v>112</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
@@ -4686,11 +4597,11 @@
       <c r="H4" s="31"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>3</v>
@@ -4699,17 +4610,17 @@
         <v>3</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="G5" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="65"/>
+      <c r="G5" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1">
-      <c r="B6" s="64" t="s">
-        <v>321</v>
+      <c r="B6" s="63" t="s">
+        <v>261</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>3</v>
@@ -4718,17 +4629,17 @@
         <v>3</v>
       </c>
       <c r="F6" s="33"/>
-      <c r="G6" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="65"/>
+      <c r="G6" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="2:8" ht="30.6" customHeight="1">
-      <c r="B7" s="64" t="s">
-        <v>322</v>
+      <c r="B7" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>3</v>
@@ -4737,17 +4648,17 @@
         <v>3</v>
       </c>
       <c r="F7" s="33"/>
-      <c r="G7" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="65"/>
+      <c r="G7" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="64" t="s">
-        <v>323</v>
+      <c r="B8" s="63" t="s">
+        <v>263</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>3</v>
@@ -4756,17 +4667,17 @@
         <v>3</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="G8" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="65"/>
-    </row>
-    <row r="9" spans="2:8" ht="28.8">
-      <c r="B9" s="64" t="s">
-        <v>324</v>
+      <c r="G8" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="2:8" ht="30">
+      <c r="B9" s="63" t="s">
+        <v>264</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="45" t="s">
@@ -4775,17 +4686,17 @@
       <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="2:8" ht="28.8">
-      <c r="B10" s="64" t="s">
-        <v>325</v>
+      <c r="G9" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="2:8" ht="30">
+      <c r="B10" s="63" t="s">
+        <v>265</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="45" t="s">
@@ -4794,36 +4705,36 @@
       <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="65"/>
+      <c r="G10" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="47"/>
+        <v>126</v>
+      </c>
+      <c r="D11" s="46"/>
       <c r="E11" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="65"/>
-    </row>
-    <row r="12" spans="2:8" ht="28.8">
-      <c r="B12" s="64" t="s">
-        <v>326</v>
+      <c r="G11" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="2:8" ht="30">
+      <c r="B12" s="63" t="s">
+        <v>266</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="45" t="s">
@@ -4832,17 +4743,17 @@
       <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="65"/>
+      <c r="G12" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="64" t="s">
-        <v>327</v>
+      <c r="B13" s="63" t="s">
+        <v>267</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="45" t="s">
@@ -4851,17 +4762,17 @@
       <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="65"/>
+      <c r="G13" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="45" t="s">
@@ -4870,30 +4781,30 @@
       <c r="F14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="65"/>
+      <c r="G14" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>171</v>
+      <c r="C15" s="70" t="s">
+        <v>113</v>
       </c>
       <c r="D15" s="35"/>
-      <c r="E15" s="48"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="36"/>
     </row>
-    <row r="16" spans="2:8" ht="28.8">
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="2:8" ht="30">
+      <c r="B16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>300</v>
+      <c r="C16" s="49" t="s">
+        <v>240</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>3</v>
@@ -4902,21 +4813,21 @@
         <v>3</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="94" t="str">
+      <c r="G16" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
-      </c>
-      <c r="H16" s="65"/>
-    </row>
-    <row r="17" spans="2:8" ht="28.8">
-      <c r="B17" s="49" t="s">
+"Testing Local Storage for Sensitive Data")</f>
+        <v>Testing Local Storage for Sensitive Data</v>
+      </c>
+      <c r="H16" s="64"/>
+    </row>
+    <row r="17" spans="2:8" ht="30">
+      <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>301</v>
+      <c r="C17" s="49" t="s">
+        <v>241</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>3</v>
@@ -4925,21 +4836,21 @@
         <v>3</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="94" t="str">
+      <c r="G17" s="148" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
-      </c>
-      <c r="H17" s="65"/>
+"Testing Local Storage for Sensitive Data")</f>
+        <v>Testing Local Storage for Sensitive Data</v>
+      </c>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>188</v>
+      <c r="C18" s="49" t="s">
+        <v>130</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>3</v>
@@ -4948,40 +4859,44 @@
         <v>3</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="94" t="str">
+      <c r="G18" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),
+"Testing Logs for Sensitive Data")</f>
+        <v>Testing Logs for Sensitive Data</v>
+      </c>
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="147" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
-"Testing Whether Sensitive Data Is Sent To Third Parties")</f>
-        <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
-      </c>
-      <c r="H18" s="65"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="65"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="49" t="s">
+"Determining Whether Sensitive Data is Sent to Third Parties")</f>
+        <v>Determining Whether Sensitive Data is Sent to Third Parties</v>
+      </c>
+      <c r="H19" s="64"/>
+    </row>
+    <row r="20" spans="2:8" ht="31.5">
+      <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="50" t="s">
-        <v>190</v>
+      <c r="C20" s="49" t="s">
+        <v>132</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>3</v>
@@ -4990,17 +4905,21 @@
         <v>3</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="65"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="49" t="s">
+      <c r="G20" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),
+"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
+        <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
+      </c>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="2:8" ht="31.5">
+      <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>191</v>
+      <c r="C21" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>3</v>
@@ -5009,17 +4928,21 @@
         <v>3</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="65"/>
-    </row>
-    <row r="22" spans="2:8" ht="28.8">
-      <c r="B22" s="49" t="s">
+      <c r="G21" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),
+"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms")</f>
+        <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms</v>
+      </c>
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22" spans="2:8" ht="31.5">
+      <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="50" t="s">
-        <v>192</v>
+      <c r="C22" s="49" t="s">
+        <v>134</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>3</v>
@@ -5028,125 +4951,149 @@
         <v>3</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="65"/>
+      <c r="G22" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),
+"Checking for Sensitive Data Disclosure Through the User Interface")</f>
+        <v>Checking for Sensitive Data Disclosure Through the User Interface</v>
+      </c>
+      <c r="H22" s="64"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="50"/>
+      <c r="C23" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="49"/>
       <c r="E23" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="65"/>
+      <c r="G23" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
+"Testing Backups for Sensitive Data")</f>
+        <v>Testing Backups for Sensitive Data</v>
+      </c>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="50"/>
+      <c r="C24" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="49"/>
       <c r="E24" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="65"/>
+      <c r="G24" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),
+"Finding Sensitive Information in Auto-Generated Screenshots")</f>
+        <v>Finding Sensitive Information in Auto-Generated Screenshots</v>
+      </c>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" spans="2:8" ht="33" customHeight="1">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="50"/>
+      <c r="C25" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="49"/>
       <c r="E25" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="65"/>
-    </row>
-    <row r="26" spans="2:8" ht="28.8">
-      <c r="B26" s="49" t="s">
+      <c r="G25" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),
+"Checking Memory for Sensitive Data")</f>
+        <v>Checking Memory for Sensitive Data</v>
+      </c>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="2:8" ht="30">
+      <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="50"/>
+      <c r="C26" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="49"/>
       <c r="E26" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="65"/>
-    </row>
-    <row r="27" spans="2:8" ht="28.8">
-      <c r="B27" s="49" t="s">
+      <c r="G26" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy"),
+"Testing the Device-Access-Security Policy")</f>
+        <v>Testing the Device-Access-Security Policy</v>
+      </c>
+      <c r="H26" s="64"/>
+    </row>
+    <row r="27" spans="2:8" ht="30">
+      <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="50"/>
+      <c r="C27" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="49"/>
       <c r="E27" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="65"/>
+      <c r="G27" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04i-Testing-user-interaction.md#testing-user-education"),
+"Testing User Education")</f>
+        <v>Testing User Education</v>
+      </c>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="71" t="s">
-        <v>172</v>
+      <c r="C28" s="70" t="s">
+        <v>114</v>
       </c>
       <c r="D28" s="35"/>
-      <c r="E28" s="48"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="36"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="50" t="s">
-        <v>303</v>
+      <c r="C29" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>3</v>
@@ -5155,17 +5102,21 @@
         <v>3</v>
       </c>
       <c r="F29" s="33"/>
-      <c r="G29" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="65"/>
+      <c r="G29" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05e-Testing-Cryptography.md#testing-key-management"),
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
+      </c>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="50" t="s">
-        <v>197</v>
+      <c r="C30" s="49" t="s">
+        <v>139</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>3</v>
@@ -5174,17 +5125,21 @@
         <v>3</v>
       </c>
       <c r="F30" s="33"/>
-      <c r="G30" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="2:8" ht="28.8">
-      <c r="B31" s="49" t="s">
+      <c r="G30" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),
+"Cryptography for Mobile Apps")</f>
+        <v>Cryptography for Mobile Apps</v>
+      </c>
+      <c r="H30" s="64"/>
+    </row>
+    <row r="31" spans="2:8" ht="31.5">
+      <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>198</v>
+      <c r="C31" s="49" t="s">
+        <v>140</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>3</v>
@@ -5193,17 +5148,21 @@
         <v>3</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="65"/>
-    </row>
-    <row r="32" spans="2:8" ht="28.8" customHeight="1">
-      <c r="B32" s="49" t="s">
+      <c r="G31" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
+"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
+      </c>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="2:8" ht="28.9" customHeight="1">
+      <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>199</v>
+      <c r="C32" s="49" t="s">
+        <v>141</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>3</v>
@@ -5212,17 +5171,21 @@
         <v>3</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="65"/>
+      <c r="G32" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
+"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
+      </c>
+      <c r="H32" s="64"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>200</v>
+      <c r="C33" s="49" t="s">
+        <v>142</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>3</v>
@@ -5231,17 +5194,21 @@
         <v>3</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="65"/>
+      <c r="G33" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05e-Testing-Cryptography.md#testing-key-management"),
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
+      </c>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="50" t="s">
-        <v>201</v>
+      <c r="C34" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>3</v>
@@ -5250,30 +5217,34 @@
         <v>3</v>
       </c>
       <c r="F34" s="33"/>
-      <c r="G34" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="65"/>
+      <c r="G34" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05e-Testing-Cryptography.md#testing-random-number-generation"),
+"Testing Random Number Generation")</f>
+        <v>Testing Random Number Generation</v>
+      </c>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>173</v>
+      <c r="C35" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="D35" s="35"/>
-      <c r="E35" s="48"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
+      <c r="G35" s="146"/>
       <c r="H35" s="36"/>
     </row>
-    <row r="36" spans="2:10" ht="28.8">
-      <c r="B36" s="149" t="s">
+    <row r="36" spans="2:10" ht="30">
+      <c r="B36" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="50" t="s">
-        <v>202</v>
+      <c r="C36" s="49" t="s">
+        <v>144</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>3</v>
@@ -5282,17 +5253,21 @@
         <v>3</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="65"/>
-    </row>
-    <row r="37" spans="2:10" ht="28.8">
-      <c r="B37" s="149" t="s">
+      <c r="G36" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
+"Testing Authentication")</f>
+        <v>Testing Authentication</v>
+      </c>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="2:10" ht="30">
+      <c r="B37" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>203</v>
+      <c r="C37" s="49" t="s">
+        <v>145</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>3</v>
@@ -5301,17 +5276,21 @@
         <v>3</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="65"/>
-    </row>
-    <row r="38" spans="2:10" ht="28.8">
-      <c r="B38" s="149" t="s">
+      <c r="G37" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
+"Testing Stateful Session Management")</f>
+        <v>Testing Stateful Session Management</v>
+      </c>
+      <c r="H37" s="64"/>
+    </row>
+    <row r="38" spans="2:10" ht="30">
+      <c r="B38" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="50" t="s">
-        <v>204</v>
+      <c r="C38" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>3</v>
@@ -5320,34 +5299,42 @@
         <v>3</v>
       </c>
       <c r="F38" s="33"/>
-      <c r="G38" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="65"/>
-      <c r="J38" s="51"/>
+      <c r="G38" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
+"Testing Stateless (Token-Based) Authentication")</f>
+        <v>Testing Stateless (Token-Based) Authentication</v>
+      </c>
+      <c r="H38" s="64"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="50" t="s">
-        <v>205</v>
+      <c r="C39" s="49" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="45"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="65"/>
-      <c r="J39" s="51"/>
+      <c r="G39" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
+"User Logout and Session Timeouts")</f>
+        <v>User Logout and Session Timeouts</v>
+      </c>
+      <c r="H39" s="64"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="149" t="s">
+      <c r="B40" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>206</v>
+      <c r="C40" s="49" t="s">
+        <v>148</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>3</v>
@@ -5356,17 +5343,21 @@
         <v>3</v>
       </c>
       <c r="F40" s="33"/>
-      <c r="G40" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="65"/>
-    </row>
-    <row r="41" spans="2:10" ht="31.8" customHeight="1">
-      <c r="B41" s="149" t="s">
+      <c r="G40" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
+"Best Practices for Passwords")</f>
+        <v>Best Practices for Passwords</v>
+      </c>
+      <c r="H40" s="64"/>
+    </row>
+    <row r="41" spans="2:10" ht="31.9" customHeight="1">
+      <c r="B41" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="50" t="s">
-        <v>207</v>
+      <c r="C41" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>3</v>
@@ -5375,125 +5366,150 @@
         <v>3</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="65"/>
+      <c r="G41" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
+"Running a Password Dictionary Attack")</f>
+        <v>Running a Password Dictionary Attack</v>
+      </c>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="149" t="s">
+      <c r="B42" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="50"/>
+      <c r="C42" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="49"/>
       <c r="E42" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="65"/>
-    </row>
-    <row r="43" spans="2:10" ht="28.8">
-      <c r="B43" s="149" t="s">
+      <c r="G42" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
+"Session Timeout")</f>
+        <v>Session Timeout</v>
+      </c>
+      <c r="H42" s="64"/>
+    </row>
+    <row r="43" spans="2:10" ht="30">
+      <c r="B43" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="50"/>
+      <c r="C43" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="49"/>
       <c r="E43" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="65"/>
+      <c r="G43" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication"),
+"Testing Biometric Authentication")</f>
+        <v>Testing Biometric Authentication</v>
+      </c>
+      <c r="H43" s="64"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="149" t="s">
+      <c r="B44" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" s="50"/>
+      <c r="C44" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="49"/>
       <c r="E44" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="65"/>
+      <c r="G44" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
+"Verifying that 2FA is Enforced")</f>
+        <v>Verifying that 2FA is Enforced</v>
+      </c>
+      <c r="H44" s="64"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="149" t="s">
+      <c r="B45" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="50"/>
+      <c r="C45" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="49"/>
       <c r="E45" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="65"/>
-    </row>
-    <row r="46" spans="2:10" ht="28.8">
-      <c r="B46" s="149" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="D46" s="50"/>
+      <c r="G45" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
+"2-Factor Authentication and Step-up Authentication")</f>
+        <v>2-Factor Authentication and Step-up Authentication</v>
+      </c>
+      <c r="H45" s="64"/>
+    </row>
+    <row r="46" spans="2:10" ht="30">
+      <c r="B46" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="49"/>
       <c r="E46" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="65"/>
+      <c r="G46" s="147" t="str">
+        <f>HYPERLINK(
+CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
+"Login Activity and Device Blocking")</f>
+        <v>Login Activity and Device Blocking</v>
+      </c>
+      <c r="H46" s="64"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="71" t="s">
-        <v>174</v>
+      <c r="C47" s="70" t="s">
+        <v>116</v>
       </c>
       <c r="D47" s="35"/>
-      <c r="E47" s="48"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
+      <c r="G47" s="146"/>
       <c r="H47" s="36"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="149" t="s">
+      <c r="B48" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="50" t="s">
-        <v>212</v>
+      <c r="C48" s="49" t="s">
+        <v>154</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>3</v>
@@ -5502,17 +5518,21 @@
         <v>3</v>
       </c>
       <c r="F48" s="33"/>
-      <c r="G48" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="65"/>
-    </row>
-    <row r="49" spans="2:8" ht="28.8">
-      <c r="B49" s="149" t="s">
+      <c r="G48" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
+"Verifying Data Encryption on the Network")</f>
+        <v>Verifying Data Encryption on the Network</v>
+      </c>
+      <c r="H48" s="64"/>
+    </row>
+    <row r="49" spans="2:8" ht="30">
+      <c r="B49" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="50" t="s">
-        <v>213</v>
+      <c r="C49" s="49" t="s">
+        <v>155</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>3</v>
@@ -5521,17 +5541,21 @@
         <v>3</v>
       </c>
       <c r="F49" s="33"/>
-      <c r="G49" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="65"/>
-    </row>
-    <row r="50" spans="2:8" ht="28.8">
-      <c r="B50" s="149" t="s">
+      <c r="G49" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
+"Recommended TLS Settings")</f>
+        <v>Recommended TLS Settings</v>
+      </c>
+      <c r="H49" s="64"/>
+    </row>
+    <row r="50" spans="2:8" ht="30">
+      <c r="B50" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="50" t="s">
-        <v>214</v>
+      <c r="C50" s="49" t="s">
+        <v>156</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>3</v>
@@ -5540,87 +5564,103 @@
         <v>3</v>
       </c>
       <c r="F50" s="33"/>
-      <c r="G50" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="H50" s="65"/>
-    </row>
-    <row r="51" spans="2:8" ht="43.2">
-      <c r="B51" s="149" t="s">
+      <c r="G50" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification"),
+"Testing Endpoint Identify Verification")</f>
+        <v>Testing Endpoint Identify Verification</v>
+      </c>
+      <c r="H50" s="64"/>
+    </row>
+    <row r="51" spans="2:8" ht="45">
+      <c r="B51" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="50"/>
+      <c r="C51" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="49"/>
       <c r="E51" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" s="65"/>
-    </row>
-    <row r="52" spans="2:8" ht="28.8">
-      <c r="B52" s="149" t="s">
+      <c r="G51" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
+      </c>
+      <c r="H51" s="64"/>
+    </row>
+    <row r="52" spans="2:8" ht="31.5">
+      <c r="B52" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="D52" s="50"/>
+      <c r="C52" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="49"/>
       <c r="E52" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="65"/>
+      <c r="G52" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
+"Making Sure that Critical Operations Use Secure Communication Channels")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
+      </c>
+      <c r="H52" s="64"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="149" t="s">
-        <v>328</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" s="50"/>
+      <c r="B53" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="49"/>
       <c r="E53" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="H53" s="65"/>
+      <c r="G53" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05g-Testing-Network-Communication.md#testing-the-security-provider"),
+"Testing the Security Provider")</f>
+        <v>Testing the Security Provider</v>
+      </c>
+      <c r="H53" s="64"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="71" t="s">
-        <v>175</v>
+      <c r="C54" s="70" t="s">
+        <v>117</v>
       </c>
       <c r="D54" s="35"/>
-      <c r="E54" s="48"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
+      <c r="G54" s="146"/>
       <c r="H54" s="36"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="149" t="s">
+      <c r="B55" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="50" t="s">
-        <v>218</v>
+      <c r="C55" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>3</v>
@@ -5629,17 +5669,21 @@
         <v>3</v>
       </c>
       <c r="F55" s="33"/>
-      <c r="G55" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="H55" s="65"/>
-    </row>
-    <row r="56" spans="2:8" ht="28.8">
-      <c r="B56" s="149" t="s">
+      <c r="G55" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-app-permissions"),
+"Testing App Permissions")</f>
+        <v>Testing App Permissions</v>
+      </c>
+      <c r="H55" s="64"/>
+    </row>
+    <row r="56" spans="2:8" ht="30">
+      <c r="B56" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="50" t="s">
-        <v>219</v>
+      <c r="C56" s="49" t="s">
+        <v>161</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>3</v>
@@ -5648,17 +5692,21 @@
         <v>3</v>
       </c>
       <c r="F56" s="33"/>
-      <c r="G56" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" spans="2:8" ht="28.8">
-      <c r="B57" s="149" t="s">
+      <c r="G56" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04h-Testing-Code-Quality.md#injection-flaws"),
+"Injection Flaws")</f>
+        <v>Injection Flaws</v>
+      </c>
+      <c r="H56" s="64"/>
+    </row>
+    <row r="57" spans="2:8" ht="30">
+      <c r="B57" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="50" t="s">
-        <v>220</v>
+      <c r="C57" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>3</v>
@@ -5667,17 +5715,21 @@
         <v>3</v>
       </c>
       <c r="F57" s="33"/>
-      <c r="G57" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="H57" s="65"/>
-    </row>
-    <row r="58" spans="2:8" ht="28.8">
-      <c r="B58" s="149" t="s">
+      <c r="G57" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
+"Testing Custom URL Schemes")</f>
+        <v>Testing Custom URL Schemes</v>
+      </c>
+      <c r="H57" s="64"/>
+    </row>
+    <row r="58" spans="2:8" ht="30">
+      <c r="B58" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="50" t="s">
-        <v>221</v>
+      <c r="C58" s="49" t="s">
+        <v>163</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>3</v>
@@ -5686,17 +5738,21 @@
         <v>3</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="65"/>
+      <c r="G58" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
+"Testing for Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
+      </c>
+      <c r="H58" s="64"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="149" t="s">
+      <c r="B59" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="50" t="s">
-        <v>222</v>
+      <c r="C59" s="49" t="s">
+        <v>164</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>3</v>
@@ -5705,17 +5761,21 @@
         <v>3</v>
       </c>
       <c r="F59" s="33"/>
-      <c r="G59" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="H59" s="65"/>
-    </row>
-    <row r="60" spans="2:8" ht="28.8">
-      <c r="B60" s="149" t="s">
+      <c r="G59" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews"),
+"Testing JavaScript Execution in WebViews")</f>
+        <v>Testing JavaScript Execution in WebViews</v>
+      </c>
+      <c r="H59" s="64"/>
+    </row>
+    <row r="60" spans="2:8" ht="30">
+      <c r="B60" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="50" t="s">
-        <v>305</v>
+      <c r="C60" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>3</v>
@@ -5724,17 +5784,21 @@
         <v>3</v>
       </c>
       <c r="F60" s="33"/>
-      <c r="G60" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="65"/>
-    </row>
-    <row r="61" spans="2:8" ht="31.8" customHeight="1">
-      <c r="B61" s="149" t="s">
-        <v>329</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>223</v>
+      <c r="G60" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
+"Testing WebView Protocol Handlers")</f>
+        <v>Testing WebView Protocol Handlers</v>
+      </c>
+      <c r="H60" s="64"/>
+    </row>
+    <row r="61" spans="2:8" ht="31.9" customHeight="1">
+      <c r="B61" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>3</v>
@@ -5743,17 +5807,21 @@
         <v>3</v>
       </c>
       <c r="F61" s="33"/>
-      <c r="G61" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" s="65"/>
+      <c r="G61" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),
+"Determining Whether Java Objects Are Exposed Through WebViews")</f>
+        <v>Determining Whether Java Objects Are Exposed Through WebViews</v>
+      </c>
+      <c r="H61" s="64"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="149" t="s">
-        <v>330</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>224</v>
+      <c r="B62" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>166</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>3</v>
@@ -5762,30 +5830,34 @@
         <v>3</v>
       </c>
       <c r="F62" s="33"/>
-      <c r="G62" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="65"/>
+      <c r="G62" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),
+"Testing Object Persistence")</f>
+        <v>Testing Object Persistence</v>
+      </c>
+      <c r="H62" s="64"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="71" t="s">
-        <v>176</v>
+      <c r="C63" s="70" t="s">
+        <v>118</v>
       </c>
       <c r="D63" s="35"/>
-      <c r="E63" s="48"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
+      <c r="G63" s="146"/>
       <c r="H63" s="36"/>
     </row>
     <row r="64" spans="2:8" ht="30.6" customHeight="1">
-      <c r="B64" s="149" t="s">
+      <c r="B64" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="50" t="s">
-        <v>306</v>
+      <c r="C64" s="49" t="s">
+        <v>246</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>3</v>
@@ -5794,17 +5866,21 @@
         <v>3</v>
       </c>
       <c r="F64" s="33"/>
-      <c r="G64" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H64" s="65"/>
+      <c r="G64" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
+"Making Sure That the App is Properly Signed")</f>
+        <v>Making Sure That the App is Properly Signed</v>
+      </c>
+      <c r="H64" s="64"/>
     </row>
     <row r="65" spans="2:8" ht="30.6" customHeight="1">
-      <c r="B65" s="149" t="s">
+      <c r="B65" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="50" t="s">
-        <v>225</v>
+      <c r="C65" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>3</v>
@@ -5813,17 +5889,21 @@
         <v>3</v>
       </c>
       <c r="F65" s="33"/>
-      <c r="G65" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="H65" s="65"/>
+      <c r="G65" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
+"Determining Whether the App is Debuggable")</f>
+        <v>Determining Whether the App is Debuggable</v>
+      </c>
+      <c r="H65" s="64"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="149" t="s">
+      <c r="B66" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="50" t="s">
-        <v>226</v>
+      <c r="C66" s="49" t="s">
+        <v>168</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>3</v>
@@ -5832,17 +5912,21 @@
         <v>3</v>
       </c>
       <c r="F66" s="33"/>
-      <c r="G66" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="H66" s="65"/>
+      <c r="G66" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
+"Finding Debugging Symbols")</f>
+        <v>Finding Debugging Symbols</v>
+      </c>
+      <c r="H66" s="64"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="149" t="s">
+      <c r="B67" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="50" t="s">
-        <v>227</v>
+      <c r="C67" s="49" t="s">
+        <v>169</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>3</v>
@@ -5851,17 +5935,21 @@
         <v>3</v>
       </c>
       <c r="F67" s="33"/>
-      <c r="G67" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="H67" s="65"/>
+      <c r="G67" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
+"Finding Debugging Code and Verbose Error Logging")</f>
+        <v>Finding Debugging Code and Verbose Error Logging</v>
+      </c>
+      <c r="H67" s="64"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="50" t="s">
-        <v>228</v>
+      <c r="C68" s="49" t="s">
+        <v>170</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>3</v>
@@ -5870,17 +5958,21 @@
         <v>3</v>
       </c>
       <c r="F68" s="33"/>
-      <c r="G68" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="H68" s="65"/>
+      <c r="G68" s="149" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
+"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
+      </c>
+      <c r="H68" s="64"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="149" t="s">
+      <c r="B69" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="50" t="s">
-        <v>229</v>
+      <c r="C69" s="49" t="s">
+        <v>171</v>
       </c>
       <c r="D69" s="26" t="s">
         <v>3</v>
@@ -5889,17 +5981,21 @@
         <v>3</v>
       </c>
       <c r="F69" s="33"/>
-      <c r="G69" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H69" s="65"/>
+      <c r="G69" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
+      </c>
+      <c r="H69" s="64"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="149" t="s">
+      <c r="B70" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="50" t="s">
-        <v>230</v>
+      <c r="C70" s="49" t="s">
+        <v>172</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>3</v>
@@ -5908,17 +6004,21 @@
         <v>3</v>
       </c>
       <c r="F70" s="33"/>
-      <c r="G70" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="H70" s="65"/>
+      <c r="G70" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
+      </c>
+      <c r="H70" s="64"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="149" t="s">
+      <c r="B71" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="50" t="s">
-        <v>231</v>
+      <c r="C71" s="49" t="s">
+        <v>173</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>3</v>
@@ -5927,17 +6027,21 @@
         <v>3</v>
       </c>
       <c r="F71" s="33"/>
-      <c r="G71" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="65"/>
-    </row>
-    <row r="72" spans="2:8" ht="28.8">
-      <c r="B72" s="149" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="50" t="s">
-        <v>307</v>
+      <c r="G71" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),
+"Memory Corruption Bugs")</f>
+        <v>Memory Corruption Bugs</v>
+      </c>
+      <c r="H71" s="64"/>
+    </row>
+    <row r="72" spans="2:8" ht="30">
+      <c r="B72" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>247</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>3</v>
@@ -5946,10 +6050,14 @@
         <v>3</v>
       </c>
       <c r="F72" s="33"/>
-      <c r="G72" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="H72" s="65"/>
+      <c r="G72" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
+"Make Sure That Free Security Features Are Activated")</f>
+        <v>Make Sure That Free Security Features Are Activated</v>
+      </c>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="37"/>
@@ -5971,7 +6079,7 @@
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="41"/>
-      <c r="C75" s="50"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
@@ -5988,8 +6096,8 @@
       <c r="H76" s="41"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="74" t="s">
-        <v>273</v>
+      <c r="B77" s="73" t="s">
+        <v>215</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="41"/>
@@ -5999,11 +6107,11 @@
       <c r="H77" s="41"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="C78" s="75" t="s">
-        <v>274</v>
+      <c r="B78" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="74" t="s">
+        <v>216</v>
       </c>
       <c r="D78" s="41"/>
       <c r="E78" s="41"/>
@@ -6015,8 +6123,8 @@
       <c r="B79" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="76" t="s">
-        <v>275</v>
+      <c r="C79" s="75" t="s">
+        <v>217</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
@@ -6028,8 +6136,8 @@
       <c r="B80" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="76" t="s">
-        <v>276</v>
+      <c r="C80" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
@@ -6041,8 +6149,8 @@
       <c r="B81" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="76" t="s">
-        <v>277</v>
+      <c r="C81" s="75" t="s">
+        <v>219</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -6079,7 +6187,7 @@
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="24"/>
-      <c r="C85" s="53"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -6098,56 +6206,6 @@
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" location="testing-whether-the-keyboard-cache-is-disabled-for-text-input-fields"/>
-    <hyperlink ref="G20" r:id="rId2" location="testing-for-sensitive-data-in-the-clipboard"/>
-    <hyperlink ref="G21" r:id="rId3" location="testing-whether-sensitive-data-is-exposed-via-ipc-mechanisms"/>
-    <hyperlink ref="G23" r:id="rId4" location="testing-for-sensitive-data-in-backups"/>
-    <hyperlink ref="G24" r:id="rId5" location="testing-for-sensitive-information-in-auto-generated-screenshots"/>
-    <hyperlink ref="G25" r:id="rId6" location="testing-for-sensitive-data-in-memory"/>
-    <hyperlink ref="G26" r:id="rId7" location="testing-the-device-access-security-policy"/>
-    <hyperlink ref="G27" r:id="rId8" location="verifying-user-education-controls"/>
-    <hyperlink ref="G29" r:id="rId9" location="verifying-key-management"/>
-    <hyperlink ref="G30" r:id="rId10" location="testing-for-custom-implementations-of-cryptography"/>
-    <hyperlink ref="G31" r:id="rId11" location="verifying-the-configuration-of-cryptographic-standard-algorithms"/>
-    <hyperlink ref="G32" r:id="rId12" location="testing-for-insecure-andor-deprecated-cryptographic-algorithms"/>
-    <hyperlink ref="G33" r:id="rId13" location="testing-random-number-generation"/>
-    <hyperlink ref="G34" r:id="rId14" location="verifying-key-management"/>
-    <hyperlink ref="G41" r:id="rId15"/>
-    <hyperlink ref="G42" r:id="rId16" location="testing-biometric-authentication"/>
-    <hyperlink ref="G43" r:id="rId17"/>
-    <hyperlink ref="G44" r:id="rId18"/>
-    <hyperlink ref="G45" r:id="rId19"/>
-    <hyperlink ref="G46" r:id="rId20"/>
-    <hyperlink ref="G48" r:id="rId21" location="testing-for-unencrypted-sensitive-data-on-the-network"/>
-    <hyperlink ref="G49" r:id="rId22" location="verifying-the-tls-settings"/>
-    <hyperlink ref="G50" r:id="rId23" location="testing-endpoint-identify-verification"/>
-    <hyperlink ref="G51" r:id="rId24" location="testing-custom-certificate-stores-and-ssl-pinning"/>
-    <hyperlink ref="G55" r:id="rId25" location="testing-app-permissions"/>
-    <hyperlink ref="G56" r:id="rId26" location="testing-input-validation-and-sanitization"/>
-    <hyperlink ref="G57" r:id="rId27" location="testing-custom-url-schemes"/>
-    <hyperlink ref="G58" r:id="rId28" location="testing-for-sensitive-functionality-exposure-through-ipc"/>
-    <hyperlink ref="G59" r:id="rId29" location="testing-javascript-execution-in-webviews"/>
-    <hyperlink ref="G60" r:id="rId30" location="testing-webview-protocol-handlers"/>
-    <hyperlink ref="G61" r:id="rId31" location="testing-whether-java-objects-are-exposed-through-webviews"/>
-    <hyperlink ref="G62" r:id="rId32" location="testing-object-de-serialization"/>
-    <hyperlink ref="G64" r:id="rId33" location="verifying-that-the-app-is-properly-signed"/>
-    <hyperlink ref="G65" r:id="rId34" location="testing-if-the-app-is-debuggable"/>
-    <hyperlink ref="G66" r:id="rId35" location="testing-for-debugging-symbols"/>
-    <hyperlink ref="G67" r:id="rId36" location="testing-for-debugging-code-and-verbose-error-logging"/>
-    <hyperlink ref="G70" r:id="rId37" location="testing-exception-handling"/>
-    <hyperlink ref="G71" r:id="rId38" location="testing-for-memory-management-bugs"/>
-    <hyperlink ref="G72" r:id="rId39" location="verifying-compiler-settings"/>
-    <hyperlink ref="G36" r:id="rId40"/>
-    <hyperlink ref="G37" r:id="rId41"/>
-    <hyperlink ref="G22" r:id="rId42"/>
-    <hyperlink ref="G40" r:id="rId43"/>
-    <hyperlink ref="G52" r:id="rId44" location="verifying-that-critical-operations-use-secure-communication-channels"/>
-    <hyperlink ref="G53" r:id="rId45"/>
-    <hyperlink ref="G39" r:id="rId46"/>
-    <hyperlink ref="G38" r:id="rId47"/>
-    <hyperlink ref="G69" r:id="rId48" location="testing-exception-handling"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6158,26 +6216,26 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C18"/>
+      <selection activeCell="F5" sqref="F5:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="2" width="7.296875" customWidth="1"/>
-    <col min="3" max="3" width="93.296875" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="93.25" customWidth="1"/>
     <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18">
+    <row r="1" spans="2:7" ht="18.75">
       <c r="B1" s="7" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
-      <c r="F1" s="83"/>
+      <c r="F1" s="82"/>
       <c r="G1" s="24"/>
     </row>
     <row r="2" spans="2:7">
@@ -6185,45 +6243,45 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="83"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>177</v>
+      <c r="B3" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>283</v>
+      <c r="E3" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="34"/>
-      <c r="C4" s="71" t="s">
-        <v>243</v>
+      <c r="C4" s="70" t="s">
+        <v>185</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="89"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:7" ht="28.8">
-      <c r="B5" s="64" t="s">
-        <v>311</v>
+    <row r="5" spans="2:7" ht="30">
+      <c r="B5" s="63" t="s">
+        <v>251</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
@@ -6231,17 +6289,21 @@
       <c r="E5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" spans="2:7" ht="31.8" customHeight="1">
-      <c r="B6" s="64" t="s">
-        <v>312</v>
+      <c r="F5" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection"),
+"Testing Root Detection")</f>
+        <v>Testing Root Detection</v>
+      </c>
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="2:7" ht="31.9" customHeight="1">
+      <c r="B6" s="63" t="s">
+        <v>252</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>3</v>
@@ -6249,17 +6311,22 @@
       <c r="E6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="65"/>
+      <c r="F6" s="147" t="str">
+        <f>HYPERLINK(
+CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging"),
+"Testing Anti-Debugging")</f>
+        <v>Testing Anti-Debugging</v>
+      </c>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="64" t="s">
-        <v>313</v>
+      <c r="B7" s="63" t="s">
+        <v>253</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
@@ -6267,17 +6334,21 @@
       <c r="E7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="64" t="s">
-        <v>314</v>
+      <c r="F7" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks"),
+"Testing File Integrity Checks")</f>
+        <v>Testing File Integrity Checks</v>
+      </c>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="2:7" ht="31.5">
+      <c r="B8" s="63" t="s">
+        <v>254</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -6285,17 +6356,21 @@
       <c r="E8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="65"/>
+      <c r="F8" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),
+"Testing The Detection of Reverse Engineering Tools")</f>
+        <v>Testing The Detection of Reverse Engineering Tools</v>
+      </c>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="64" t="s">
-        <v>315</v>
+      <c r="B9" s="63" t="s">
+        <v>255</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>3</v>
@@ -6303,17 +6378,21 @@
       <c r="E9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="65"/>
+      <c r="F9" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),
+"Testing Emulator Detection")</f>
+        <v>Testing Emulator Detection</v>
+      </c>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="64" t="s">
-        <v>316</v>
+      <c r="B10" s="63" t="s">
+        <v>256</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>3</v>
@@ -6321,17 +6400,21 @@
       <c r="E10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="90" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="2:7" ht="28.8">
-      <c r="B11" s="64" t="s">
-        <v>317</v>
+      <c r="F10" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),
+"Testing Run Time Integrity Checks")</f>
+        <v>Testing Run Time Integrity Checks</v>
+      </c>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="2:7" ht="30">
+      <c r="B11" s="63" t="s">
+        <v>257</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>3</v>
@@ -6339,15 +6422,17 @@
       <c r="E11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" spans="2:7" ht="31.8" customHeight="1">
-      <c r="B12" s="64" t="s">
-        <v>318</v>
+      <c r="F11" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="2:7" ht="31.9" customHeight="1">
+      <c r="B12" s="63" t="s">
+        <v>258</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>3</v>
@@ -6355,15 +6440,17 @@
       <c r="E12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="65"/>
-    </row>
-    <row r="13" spans="2:7" ht="28.8">
-      <c r="B13" s="64" t="s">
-        <v>155</v>
+      <c r="F12" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="64"/>
+    </row>
+    <row r="13" spans="2:7" ht="30">
+      <c r="B13" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>3</v>
@@ -6371,27 +6458,31 @@
       <c r="E13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="65"/>
+      <c r="F13" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
+"Testing Obfuscation")</f>
+        <v>Testing Obfuscation</v>
+      </c>
+      <c r="G13" s="64"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="34"/>
-      <c r="C14" s="71" t="s">
-        <v>241</v>
+      <c r="C14" s="70" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="89"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:7" ht="28.8">
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="2:7" ht="30">
+      <c r="B15" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>3</v>
@@ -6399,27 +6490,31 @@
       <c r="E15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="65"/>
+      <c r="F15" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding"),
+"Testing Device Binding")</f>
+        <v>Testing Device Binding</v>
+      </c>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="34"/>
-      <c r="C16" s="71" t="s">
-        <v>242</v>
+      <c r="C16" s="70" t="s">
+        <v>184</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="89"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" ht="43.2">
-      <c r="B17" s="64" t="s">
-        <v>319</v>
+    <row r="17" spans="2:7" ht="45">
+      <c r="B17" s="63" t="s">
+        <v>259</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>3</v>
@@ -6427,15 +6522,21 @@
       <c r="E17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="2:7" ht="72">
-      <c r="B18" s="64" t="s">
-        <v>320</v>
+      <c r="F17" s="149" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
+"Testing Obfuscation")</f>
+        <v>Testing Obfuscation</v>
+      </c>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="2:7" ht="75">
+      <c r="B18" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>3</v>
@@ -6443,15 +6544,17 @@
       <c r="E18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="65"/>
+      <c r="F18" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="88"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="2:7">
@@ -6459,7 +6562,7 @@
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="87"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7">
@@ -6467,65 +6570,65 @@
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="87"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="41"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="74" t="s">
-        <v>273</v>
+      <c r="B22" s="73" t="s">
+        <v>215</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="87"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="41"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>274</v>
+      <c r="B23" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>216</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="87"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="41"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="76" t="s">
-        <v>275</v>
+      <c r="C24" s="75" t="s">
+        <v>217</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="87"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="76" t="s">
-        <v>276</v>
+      <c r="C25" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="87"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="41"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="76" t="s">
-        <v>277</v>
+      <c r="C26" s="75" t="s">
+        <v>219</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="87"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="41"/>
     </row>
     <row r="27" spans="2:7">
@@ -6533,7 +6636,7 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="83"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
@@ -6541,7 +6644,7 @@
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="83"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
@@ -6549,7 +6652,7 @@
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="83"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="24"/>
     </row>
   </sheetData>
@@ -6558,16 +6661,6 @@
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" location="testing-root-detection"/>
-    <hyperlink ref="F6" r:id="rId2" location="testing-anti-debugging"/>
-    <hyperlink ref="F7" r:id="rId3" location="testing-file-integrity-checks"/>
-    <hyperlink ref="F8" r:id="rId4" location="testing-the-detection-of-reverse-engineering-tools"/>
-    <hyperlink ref="F9" r:id="rId5" location="testing-emulator-detection"/>
-    <hyperlink ref="F10" r:id="rId6" location="testing-run-time-integrity-checks"/>
-    <hyperlink ref="F15" r:id="rId7" location="testing-device-binding"/>
-    <hyperlink ref="F13" r:id="rId8" location="testing-obfuscation"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6577,23 +6670,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C72"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.796875" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="97.296875" customWidth="1"/>
-    <col min="7" max="7" width="51.296875" customWidth="1"/>
-    <col min="8" max="8" width="30.796875" customWidth="1"/>
-    <col min="10" max="11" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="97.25" customWidth="1"/>
+    <col min="7" max="7" width="51.25" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="10" max="11" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18">
-      <c r="B1" s="73" t="s">
-        <v>246</v>
+    <row r="1" spans="2:8" ht="18.75">
+      <c r="B1" s="72" t="s">
+        <v>188</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -6615,31 +6708,31 @@
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>283</v>
+      <c r="C3" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70" t="s">
-        <v>170</v>
+      <c r="C4" s="69" t="s">
+        <v>112</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
@@ -6648,11 +6741,11 @@
       <c r="H4" s="31"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>3</v>
@@ -6661,17 +6754,17 @@
         <v>3</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="G5" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="65"/>
+      <c r="G5" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="64" t="s">
-        <v>321</v>
+      <c r="B6" s="63" t="s">
+        <v>261</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>3</v>
@@ -6680,17 +6773,17 @@
         <v>3</v>
       </c>
       <c r="F6" s="33"/>
-      <c r="G6" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="64" t="s">
-        <v>322</v>
+      <c r="G6" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="64"/>
+    </row>
+    <row r="7" spans="2:8" ht="30">
+      <c r="B7" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>3</v>
@@ -6699,17 +6792,17 @@
         <v>3</v>
       </c>
       <c r="F7" s="33"/>
-      <c r="G7" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="65"/>
+      <c r="G7" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="64" t="s">
-        <v>323</v>
+      <c r="B8" s="63" t="s">
+        <v>263</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>3</v>
@@ -6718,17 +6811,17 @@
         <v>3</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="G8" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="65"/>
-    </row>
-    <row r="9" spans="2:8" ht="28.8">
-      <c r="B9" s="64" t="s">
-        <v>324</v>
+      <c r="G8" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="2:8" ht="30">
+      <c r="B9" s="63" t="s">
+        <v>264</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="45" t="s">
@@ -6737,17 +6830,17 @@
       <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="2:8" ht="28.8">
-      <c r="B10" s="64" t="s">
-        <v>325</v>
+      <c r="G9" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="2:8" ht="30">
+      <c r="B10" s="63" t="s">
+        <v>265</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="45" t="s">
@@ -6756,36 +6849,36 @@
       <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="65"/>
+      <c r="G10" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="47"/>
+        <v>126</v>
+      </c>
+      <c r="D11" s="46"/>
       <c r="E11" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="65"/>
-    </row>
-    <row r="12" spans="2:8" ht="28.8">
-      <c r="B12" s="64" t="s">
-        <v>326</v>
+      <c r="G11" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="2:8" ht="30">
+      <c r="B12" s="63" t="s">
+        <v>266</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="45" t="s">
@@ -6794,17 +6887,17 @@
       <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="65"/>
+      <c r="G12" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="64" t="s">
-        <v>327</v>
+      <c r="B13" s="63" t="s">
+        <v>267</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="45" t="s">
@@ -6813,17 +6906,17 @@
       <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="65"/>
+      <c r="G13" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="45" t="s">
@@ -6832,30 +6925,30 @@
       <c r="F14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="65"/>
+      <c r="G14" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>171</v>
+      <c r="C15" s="70" t="s">
+        <v>113</v>
       </c>
       <c r="D15" s="35"/>
-      <c r="E15" s="48"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="36"/>
     </row>
-    <row r="16" spans="2:8" ht="28.8">
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="2:8" ht="30">
+      <c r="B16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>300</v>
+      <c r="C16" s="49" t="s">
+        <v>240</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>3</v>
@@ -6864,17 +6957,21 @@
         <v>3</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="65"/>
-    </row>
-    <row r="17" spans="2:8" ht="28.8">
-      <c r="B17" s="49" t="s">
+      <c r="G16" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
+"Testing Local Data Storage")</f>
+        <v>Testing Local Data Storage</v>
+      </c>
+      <c r="H16" s="64"/>
+    </row>
+    <row r="17" spans="2:8" ht="30">
+      <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>301</v>
+      <c r="C17" s="49" t="s">
+        <v>241</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>3</v>
@@ -6883,17 +6980,21 @@
         <v>3</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="65"/>
+      <c r="G17" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
+"Testing Local Data Storage")</f>
+        <v>Testing Local Data Storage</v>
+      </c>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>188</v>
+      <c r="C18" s="49" t="s">
+        <v>130</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>3</v>
@@ -6902,17 +7003,21 @@
         <v>3</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="65"/>
-    </row>
-    <row r="19" spans="2:8" ht="28.8">
-      <c r="B19" s="49" t="s">
+      <c r="G18" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),
+"Checking Logs for Sensitive Data")</f>
+        <v>Checking Logs for Sensitive Data</v>
+      </c>
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="50" t="s">
-        <v>189</v>
+      <c r="C19" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>3</v>
@@ -6921,17 +7026,21 @@
         <v>3</v>
       </c>
       <c r="F19" s="33"/>
-      <c r="G19" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="65"/>
+      <c r="G19" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
+"Determining Whether Sensitive Data Is Sent to Third Parties")</f>
+        <v>Determining Whether Sensitive Data Is Sent to Third Parties</v>
+      </c>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="50" t="s">
-        <v>190</v>
+      <c r="C20" s="49" t="s">
+        <v>132</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>3</v>
@@ -6940,17 +7049,21 @@
         <v>3</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="65"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="49" t="s">
+      <c r="G20" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),
+"Finding Sensitive Data in the Keyboard Cache")</f>
+        <v>Finding Sensitive Data in the Keyboard Cache</v>
+      </c>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="2:8" ht="31.5">
+      <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>191</v>
+      <c r="C21" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>3</v>
@@ -6959,17 +7072,21 @@
         <v>3</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="65"/>
-    </row>
-    <row r="22" spans="2:8" ht="28.8">
-      <c r="B22" s="49" t="s">
+      <c r="G21" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),
+"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
+        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
+      </c>
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22" spans="2:8" ht="31.5">
+      <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="50" t="s">
-        <v>192</v>
+      <c r="C22" s="49" t="s">
+        <v>134</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>3</v>
@@ -6978,125 +7095,149 @@
         <v>3</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="65"/>
+      <c r="G22" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),
+"Checking for Sensitive Data Disclosed Through the User Interface")</f>
+        <v>Checking for Sensitive Data Disclosed Through the User Interface</v>
+      </c>
+      <c r="H22" s="64"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="50"/>
+      <c r="C23" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="49"/>
       <c r="E23" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="65"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="49" t="s">
+      <c r="G23" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
+"Testing Backups for Sensitive Data")</f>
+        <v>Testing Backups for Sensitive Data</v>
+      </c>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24" spans="2:8" ht="31.5">
+      <c r="B24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="50"/>
+      <c r="C24" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="49"/>
       <c r="E24" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="65"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="49" t="s">
+      <c r="G24" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),
+"Testing Auto-Generated Screenshots for Sensitive Information")</f>
+        <v>Testing Auto-Generated Screenshots for Sensitive Information</v>
+      </c>
+      <c r="H24" s="64"/>
+    </row>
+    <row r="25" spans="2:8" ht="30">
+      <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="50"/>
+      <c r="C25" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="49"/>
       <c r="E25" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="65"/>
-    </row>
-    <row r="26" spans="2:8" ht="28.8">
-      <c r="B26" s="49" t="s">
+      <c r="G25" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),
+"Testing Memory for Sensitive Data")</f>
+        <v>Testing Memory for Sensitive Data</v>
+      </c>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="2:8" ht="30">
+      <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="50"/>
+      <c r="C26" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="49"/>
       <c r="E26" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="65"/>
-    </row>
-    <row r="27" spans="2:8" ht="28.8">
-      <c r="B27" s="49" t="s">
+      <c r="G26" s="149" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),
+"Local Authentication on iOS")</f>
+        <v>Local Authentication on iOS</v>
+      </c>
+      <c r="H26" s="64"/>
+    </row>
+    <row r="27" spans="2:8" ht="30">
+      <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="50"/>
+      <c r="C27" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="49"/>
       <c r="E27" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="65"/>
+      <c r="G27" s="150" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04i-Testing-user-interaction.md#testing-user-education"),
+"Testing User Education")</f>
+        <v>Testing User Education</v>
+      </c>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="71" t="s">
-        <v>172</v>
+      <c r="C28" s="70" t="s">
+        <v>114</v>
       </c>
       <c r="D28" s="35"/>
-      <c r="E28" s="48"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="36"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="50" t="s">
-        <v>303</v>
+      <c r="C29" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>3</v>
@@ -7105,17 +7246,21 @@
         <v>3</v>
       </c>
       <c r="F29" s="33"/>
-      <c r="G29" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="65"/>
+      <c r="G29" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#testing-key-management"),
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
+      </c>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="50" t="s">
-        <v>197</v>
+      <c r="C30" s="49" t="s">
+        <v>139</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>3</v>
@@ -7124,17 +7269,21 @@
         <v>3</v>
       </c>
       <c r="F30" s="33"/>
-      <c r="G30" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="2:8" ht="28.8">
-      <c r="B31" s="49" t="s">
+      <c r="G30" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),
+"Custom Implementations of Cryptography")</f>
+        <v>Custom Implementations of Cryptography</v>
+      </c>
+      <c r="H30" s="64"/>
+    </row>
+    <row r="31" spans="2:8" ht="31.5">
+      <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>198</v>
+      <c r="C31" s="49" t="s">
+        <v>140</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>3</v>
@@ -7143,17 +7292,21 @@
         <v>3</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="65"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="49" t="s">
+      <c r="G31" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
+"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
+      </c>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="2:8" ht="31.5">
+      <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>199</v>
+      <c r="C32" s="49" t="s">
+        <v>141</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>3</v>
@@ -7162,17 +7315,21 @@
         <v>3</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="65"/>
+      <c r="G32" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
+"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
+      </c>
+      <c r="H32" s="64"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>200</v>
+      <c r="C33" s="49" t="s">
+        <v>142</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>3</v>
@@ -7181,17 +7338,21 @@
         <v>3</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="65"/>
+      <c r="G33" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#testing-key-management"),
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
+      </c>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="50" t="s">
-        <v>201</v>
+      <c r="C34" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>3</v>
@@ -7200,30 +7361,34 @@
         <v>3</v>
       </c>
       <c r="F34" s="33"/>
-      <c r="G34" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="65"/>
+      <c r="G34" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#testing-random-number-generation"),
+"Testing Random Number Generation")</f>
+        <v>Testing Random Number Generation</v>
+      </c>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>173</v>
+      <c r="C35" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="D35" s="35"/>
-      <c r="E35" s="48"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
+      <c r="G35" s="146"/>
       <c r="H35" s="36"/>
     </row>
-    <row r="36" spans="2:10" ht="28.8">
-      <c r="B36" s="149" t="s">
+    <row r="36" spans="2:10" ht="30">
+      <c r="B36" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="50" t="s">
-        <v>202</v>
+      <c r="C36" s="49" t="s">
+        <v>144</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>3</v>
@@ -7232,17 +7397,21 @@
         <v>3</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="65"/>
-    </row>
-    <row r="37" spans="2:10" ht="28.8">
-      <c r="B37" s="149" t="s">
+      <c r="G36" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
+"Testing Authentication")</f>
+        <v>Testing Authentication</v>
+      </c>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="2:10" ht="30">
+      <c r="B37" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>203</v>
+      <c r="C37" s="49" t="s">
+        <v>145</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>3</v>
@@ -7251,17 +7420,21 @@
         <v>3</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="65"/>
-    </row>
-    <row r="38" spans="2:10" ht="28.8">
-      <c r="B38" s="149" t="s">
+      <c r="G37" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
+"Testing Stateful Session Management")</f>
+        <v>Testing Stateful Session Management</v>
+      </c>
+      <c r="H37" s="64"/>
+    </row>
+    <row r="38" spans="2:10" ht="30">
+      <c r="B38" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="50" t="s">
-        <v>204</v>
+      <c r="C38" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>3</v>
@@ -7270,17 +7443,21 @@
         <v>3</v>
       </c>
       <c r="F38" s="33"/>
-      <c r="G38" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="65"/>
+      <c r="G38" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
+"Testing Stateless (Token-Based) Authentication")</f>
+        <v>Testing Stateless (Token-Based) Authentication</v>
+      </c>
+      <c r="H38" s="64"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="50" t="s">
-        <v>205</v>
+      <c r="C39" s="49" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>3</v>
@@ -7289,34 +7466,43 @@
         <v>3</v>
       </c>
       <c r="F39" s="33"/>
-      <c r="G39" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="65"/>
-      <c r="J39" s="51"/>
+      <c r="G39" s="147" t="str">
+        <f>HYPERLINK(
+CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
+"User Logout and Session Timeouts")</f>
+        <v>User Logout and Session Timeouts</v>
+      </c>
+      <c r="H39" s="64"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="149" t="s">
+      <c r="B40" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>206</v>
+      <c r="C40" s="49" t="s">
+        <v>148</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="45"/>
       <c r="F40" s="33"/>
-      <c r="G40" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="65"/>
-      <c r="J40" s="51"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="149" t="s">
+      <c r="G40" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
+"Best Practices for Passwords")</f>
+        <v>Best Practices for Passwords</v>
+      </c>
+      <c r="H40" s="64"/>
+      <c r="J40" s="50"/>
+    </row>
+    <row r="41" spans="2:10" ht="30">
+      <c r="B41" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="50" t="s">
-        <v>207</v>
+      <c r="C41" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>3</v>
@@ -7325,125 +7511,149 @@
         <v>3</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="65"/>
+      <c r="G41" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
+"Running a Password Dictionary Attack")</f>
+        <v>Running a Password Dictionary Attack</v>
+      </c>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="149" t="s">
+      <c r="B42" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="50"/>
+      <c r="C42" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="49"/>
       <c r="E42" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="65"/>
-    </row>
-    <row r="43" spans="2:10" ht="28.8">
-      <c r="B43" s="149" t="s">
+      <c r="G42" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
+"Session Timeout")</f>
+        <v>Session Timeout</v>
+      </c>
+      <c r="H42" s="64"/>
+    </row>
+    <row r="43" spans="2:10" ht="30">
+      <c r="B43" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="50"/>
+      <c r="C43" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="49"/>
       <c r="E43" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="65"/>
+      <c r="G43" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06f-Testing-Local-Authentication.md#testing-local-authentication"),
+"Testing Local Authentication")</f>
+        <v>Testing Local Authentication</v>
+      </c>
+      <c r="H43" s="64"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="149" t="s">
+      <c r="B44" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" s="50"/>
+      <c r="C44" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="49"/>
       <c r="E44" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="65"/>
+      <c r="G44" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
+"Verifying that 2FA is Enforced")</f>
+        <v>Verifying that 2FA is Enforced</v>
+      </c>
+      <c r="H44" s="64"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="149" t="s">
+      <c r="B45" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="50"/>
+      <c r="C45" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="49"/>
       <c r="E45" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="65"/>
-    </row>
-    <row r="46" spans="2:10" ht="28.8">
-      <c r="B46" s="149" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="D46" s="50"/>
+      <c r="G45" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
+"2-Factor Authentication and Step-up Authentication")</f>
+        <v>2-Factor Authentication and Step-up Authentication</v>
+      </c>
+      <c r="H45" s="64"/>
+    </row>
+    <row r="46" spans="2:10" ht="30">
+      <c r="B46" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="49"/>
       <c r="E46" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="65"/>
+      <c r="G46" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
+"Login Activity and Device Blocking")</f>
+        <v>Login Activity and Device Blocking</v>
+      </c>
+      <c r="H46" s="64"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="71" t="s">
-        <v>174</v>
+      <c r="C47" s="70" t="s">
+        <v>116</v>
       </c>
       <c r="D47" s="35"/>
-      <c r="E47" s="48"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
+      <c r="G47" s="146"/>
       <c r="H47" s="36"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="149" t="s">
+      <c r="B48" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="50" t="s">
-        <v>212</v>
+      <c r="C48" s="49" t="s">
+        <v>154</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>3</v>
@@ -7452,17 +7662,21 @@
         <v>3</v>
       </c>
       <c r="F48" s="33"/>
-      <c r="G48" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="65"/>
-    </row>
-    <row r="49" spans="2:8" ht="28.8">
-      <c r="B49" s="149" t="s">
+      <c r="G48" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
+"Verifying Data Encryption on the Network")</f>
+        <v>Verifying Data Encryption on the Network</v>
+      </c>
+      <c r="H48" s="64"/>
+    </row>
+    <row r="49" spans="2:8" ht="30">
+      <c r="B49" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="50" t="s">
-        <v>213</v>
+      <c r="C49" s="49" t="s">
+        <v>155</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>3</v>
@@ -7471,17 +7685,21 @@
         <v>3</v>
       </c>
       <c r="F49" s="33"/>
-      <c r="G49" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="65"/>
-    </row>
-    <row r="50" spans="2:8" ht="28.8">
-      <c r="B50" s="149" t="s">
+      <c r="G49" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
+"Recommended TLS Settings")</f>
+        <v>Recommended TLS Settings</v>
+      </c>
+      <c r="H49" s="64"/>
+    </row>
+    <row r="50" spans="2:8" ht="30">
+      <c r="B50" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="50" t="s">
-        <v>214</v>
+      <c r="C50" s="49" t="s">
+        <v>156</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>3</v>
@@ -7490,87 +7708,103 @@
         <v>3</v>
       </c>
       <c r="F50" s="33"/>
-      <c r="G50" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="H50" s="65"/>
-    </row>
-    <row r="51" spans="2:8" ht="28.8">
-      <c r="B51" s="149" t="s">
+      <c r="G50" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
+      </c>
+      <c r="H50" s="64"/>
+    </row>
+    <row r="51" spans="2:8" ht="45">
+      <c r="B51" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="50"/>
+      <c r="C51" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="49"/>
       <c r="E51" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" s="65"/>
-    </row>
-    <row r="52" spans="2:8" ht="28.8">
-      <c r="B52" s="149" t="s">
+      <c r="G51" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
+      </c>
+      <c r="H51" s="64"/>
+    </row>
+    <row r="52" spans="2:8" ht="31.5">
+      <c r="B52" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="D52" s="50"/>
+      <c r="C52" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="49"/>
       <c r="E52" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="65"/>
+      <c r="G52" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
+"Making Sure that Critical Operations Use Secure Communication Channels")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
+      </c>
+      <c r="H52" s="64"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="149" t="s">
-        <v>328</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" s="50"/>
+      <c r="B53" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="49"/>
       <c r="E53" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="H53" s="65"/>
+      <c r="G53" s="149" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
+"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
+      </c>
+      <c r="H53" s="64"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="71" t="s">
-        <v>175</v>
+      <c r="C54" s="70" t="s">
+        <v>117</v>
       </c>
       <c r="D54" s="35"/>
-      <c r="E54" s="48"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
+      <c r="G54" s="146"/>
       <c r="H54" s="36"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="149" t="s">
+      <c r="B55" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="50" t="s">
-        <v>218</v>
+      <c r="C55" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>3</v>
@@ -7579,17 +7813,21 @@
         <v>3</v>
       </c>
       <c r="F55" s="33"/>
-      <c r="G55" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="H55" s="65"/>
-    </row>
-    <row r="56" spans="2:8" ht="28.8">
-      <c r="B56" s="149" t="s">
+      <c r="G55" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-app-permissions"),
+"Testing App Permissions")</f>
+        <v>Testing App Permissions</v>
+      </c>
+      <c r="H55" s="64"/>
+    </row>
+    <row r="56" spans="2:8" ht="30">
+      <c r="B56" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="50" t="s">
-        <v>219</v>
+      <c r="C56" s="49" t="s">
+        <v>161</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>3</v>
@@ -7598,17 +7836,21 @@
         <v>3</v>
       </c>
       <c r="F56" s="33"/>
-      <c r="G56" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" spans="2:8" ht="28.8">
-      <c r="B57" s="149" t="s">
+      <c r="G56" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04h-Testing-Code-Quality.md#injection-flaws"),
+"Injection Flaws")</f>
+        <v>Injection Flaws</v>
+      </c>
+      <c r="H56" s="64"/>
+    </row>
+    <row r="57" spans="2:8" ht="30">
+      <c r="B57" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="50" t="s">
-        <v>220</v>
+      <c r="C57" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>3</v>
@@ -7617,17 +7859,21 @@
         <v>3</v>
       </c>
       <c r="F57" s="33"/>
-      <c r="G57" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="H57" s="65"/>
-    </row>
-    <row r="58" spans="2:8" ht="28.8">
-      <c r="B58" s="149" t="s">
+      <c r="G57" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
+"Testing Custom URL Schemes")</f>
+        <v>Testing Custom URL Schemes</v>
+      </c>
+      <c r="H57" s="64"/>
+    </row>
+    <row r="58" spans="2:8" ht="30">
+      <c r="B58" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="50" t="s">
-        <v>221</v>
+      <c r="C58" s="49" t="s">
+        <v>163</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>3</v>
@@ -7636,17 +7882,21 @@
         <v>3</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="65"/>
+      <c r="G58" s="149" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
+"Testing for Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
+      </c>
+      <c r="H58" s="64"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="149" t="s">
+      <c r="B59" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="50" t="s">
-        <v>222</v>
+      <c r="C59" s="49" t="s">
+        <v>164</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>3</v>
@@ -7655,17 +7905,21 @@
         <v>3</v>
       </c>
       <c r="F59" s="33"/>
-      <c r="G59" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="H59" s="65"/>
-    </row>
-    <row r="60" spans="2:8" ht="28.8">
-      <c r="B60" s="149" t="s">
+      <c r="G59" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),
+"Testing iOS WebViews")</f>
+        <v>Testing iOS WebViews</v>
+      </c>
+      <c r="H59" s="64"/>
+    </row>
+    <row r="60" spans="2:8" ht="30">
+      <c r="B60" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="50" t="s">
-        <v>305</v>
+      <c r="C60" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>3</v>
@@ -7674,17 +7928,21 @@
         <v>3</v>
       </c>
       <c r="F60" s="33"/>
-      <c r="G60" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="65"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="149" t="s">
-        <v>329</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>223</v>
+      <c r="G60" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
+"Testing WebView Protocol Handlers")</f>
+        <v>Testing WebView Protocol Handlers</v>
+      </c>
+      <c r="H60" s="64"/>
+    </row>
+    <row r="61" spans="2:8" ht="31.5">
+      <c r="B61" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>3</v>
@@ -7693,17 +7951,21 @@
         <v>3</v>
       </c>
       <c r="F61" s="33"/>
-      <c r="G61" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" s="65"/>
+      <c r="G61" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),
+"Determining Whether Native Methods Are Exposed Through WebViews")</f>
+        <v>Determining Whether Native Methods Are Exposed Through WebViews</v>
+      </c>
+      <c r="H61" s="64"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="149" t="s">
-        <v>330</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>224</v>
+      <c r="B62" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>166</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>3</v>
@@ -7712,30 +7974,34 @@
         <v>3</v>
       </c>
       <c r="F62" s="33"/>
-      <c r="G62" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="65"/>
+      <c r="G62" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),
+"Testing Object Persistence")</f>
+        <v>Testing Object Persistence</v>
+      </c>
+      <c r="H62" s="64"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="71" t="s">
-        <v>176</v>
+      <c r="C63" s="70" t="s">
+        <v>118</v>
       </c>
       <c r="D63" s="35"/>
-      <c r="E63" s="48"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
+      <c r="G63" s="146"/>
       <c r="H63" s="36"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="149" t="s">
+      <c r="B64" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="50" t="s">
-        <v>306</v>
+      <c r="C64" s="49" t="s">
+        <v>246</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>3</v>
@@ -7744,17 +8010,21 @@
         <v>3</v>
       </c>
       <c r="F64" s="33"/>
-      <c r="G64" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H64" s="65"/>
+      <c r="G64" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
+"Making Sure that the App Is Properly Signed")</f>
+        <v>Making Sure that the App Is Properly Signed</v>
+      </c>
+      <c r="H64" s="64"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="149" t="s">
+      <c r="B65" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="50" t="s">
-        <v>225</v>
+      <c r="C65" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>3</v>
@@ -7763,17 +8033,21 @@
         <v>3</v>
       </c>
       <c r="F65" s="33"/>
-      <c r="G65" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="H65" s="65"/>
+      <c r="G65" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
+"Determining Whether the App is Debuggable")</f>
+        <v>Determining Whether the App is Debuggable</v>
+      </c>
+      <c r="H65" s="64"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="149" t="s">
+      <c r="B66" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="50" t="s">
-        <v>226</v>
+      <c r="C66" s="49" t="s">
+        <v>168</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>3</v>
@@ -7782,17 +8056,21 @@
         <v>3</v>
       </c>
       <c r="F66" s="33"/>
-      <c r="G66" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="H66" s="65"/>
+      <c r="G66" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
+"Finding Debugging Symbols")</f>
+        <v>Finding Debugging Symbols</v>
+      </c>
+      <c r="H66" s="64"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="149" t="s">
+      <c r="B67" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="50" t="s">
-        <v>227</v>
+      <c r="C67" s="49" t="s">
+        <v>169</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>3</v>
@@ -7801,17 +8079,21 @@
         <v>3</v>
       </c>
       <c r="F67" s="33"/>
-      <c r="G67" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="H67" s="65"/>
+      <c r="G67" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
+"Finding Debugging Code and Verbose Error Logging")</f>
+        <v>Finding Debugging Code and Verbose Error Logging</v>
+      </c>
+      <c r="H67" s="64"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="50" t="s">
-        <v>228</v>
+      <c r="C68" s="49" t="s">
+        <v>170</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>3</v>
@@ -7820,17 +8102,21 @@
         <v>3</v>
       </c>
       <c r="F68" s="33"/>
-      <c r="G68" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="H68" s="65"/>
+      <c r="G68" s="149" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
+"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
+      </c>
+      <c r="H68" s="64"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="149" t="s">
+      <c r="B69" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="50" t="s">
-        <v>229</v>
+      <c r="C69" s="49" t="s">
+        <v>171</v>
       </c>
       <c r="D69" s="26" t="s">
         <v>3</v>
@@ -7839,17 +8125,21 @@
         <v>3</v>
       </c>
       <c r="F69" s="33"/>
-      <c r="G69" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H69" s="65"/>
+      <c r="G69" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
+      </c>
+      <c r="H69" s="64"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="149" t="s">
+      <c r="B70" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="50" t="s">
-        <v>230</v>
+      <c r="C70" s="49" t="s">
+        <v>172</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>3</v>
@@ -7858,17 +8148,21 @@
         <v>3</v>
       </c>
       <c r="F70" s="33"/>
-      <c r="G70" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="H70" s="65"/>
+      <c r="G70" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
+      </c>
+      <c r="H70" s="64"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="149" t="s">
+      <c r="B71" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="50" t="s">
-        <v>231</v>
+      <c r="C71" s="49" t="s">
+        <v>173</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>3</v>
@@ -7877,17 +8171,21 @@
         <v>3</v>
       </c>
       <c r="F71" s="33"/>
-      <c r="G71" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="65"/>
-    </row>
-    <row r="72" spans="2:8" ht="28.8">
-      <c r="B72" s="149" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="50" t="s">
-        <v>307</v>
+      <c r="G71" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),
+"Memory Corruption Bugs")</f>
+        <v>Memory Corruption Bugs</v>
+      </c>
+      <c r="H71" s="64"/>
+    </row>
+    <row r="72" spans="2:8" ht="30">
+      <c r="B72" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>247</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>3</v>
@@ -7896,10 +8194,14 @@
         <v>3</v>
       </c>
       <c r="F72" s="33"/>
-      <c r="G72" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H72" s="65"/>
+      <c r="G72" s="147" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
+"Make Sure That Free Security Features Are Activated")</f>
+        <v>Make Sure That Free Security Features Are Activated</v>
+      </c>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="37"/>
@@ -7925,7 +8227,7 @@
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
-      <c r="G75" s="51"/>
+      <c r="G75" s="50"/>
       <c r="H75" s="41"/>
     </row>
     <row r="76" spans="2:8">
@@ -7938,8 +8240,8 @@
       <c r="H76" s="41"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="74" t="s">
-        <v>273</v>
+      <c r="B77" s="73" t="s">
+        <v>215</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="41"/>
@@ -7949,11 +8251,11 @@
       <c r="H77" s="41"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="C78" s="75" t="s">
-        <v>274</v>
+      <c r="B78" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="74" t="s">
+        <v>216</v>
       </c>
       <c r="D78" s="41"/>
       <c r="E78" s="41"/>
@@ -7965,8 +8267,8 @@
       <c r="B79" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="76" t="s">
-        <v>275</v>
+      <c r="C79" s="75" t="s">
+        <v>217</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
@@ -7978,8 +8280,8 @@
       <c r="B80" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="76" t="s">
-        <v>276</v>
+      <c r="C80" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
@@ -7991,8 +8293,8 @@
       <c r="B81" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="76" t="s">
-        <v>277</v>
+      <c r="C81" s="75" t="s">
+        <v>219</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -8037,6 +8339,11 @@
       <c r="H85" s="24"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G5:G26 G28:G72">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F74:F1048576 H74:H1048576">
       <formula1>"Yes,No,N/A"</formula1>
@@ -8045,61 +8352,8 @@
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" location="testing-for-sensitive-data-disclosure-in-local-storage"/>
-    <hyperlink ref="G17" r:id="rId2" location="testing-for-sensitive-data-in-logs"/>
-    <hyperlink ref="G18" r:id="rId3" location="testing-whether-sensitive-data-is-sent-to-third-parties"/>
-    <hyperlink ref="G19" r:id="rId4" location="testing-for-sensitive-data-in-the-keyboard-cache"/>
-    <hyperlink ref="G20" r:id="rId5" location="testing-for-sensitive-data-in-the-clipboard"/>
-    <hyperlink ref="G21" r:id="rId6" location="testing-whether-sensitive-data-is-exposed-via-ipc-mechanisms"/>
-    <hyperlink ref="G22" r:id="rId7" location="testing-for-sensitive-data-disclosure-through-the-user-interface"/>
-    <hyperlink ref="G23" r:id="rId8" location="testing-for-sensitive-data-in-backups"/>
-    <hyperlink ref="G29" r:id="rId9" location="verifying-cryptographic-key-management"/>
-    <hyperlink ref="G30" r:id="rId10" location="testing-for-custom-implementations-of-cryptography"/>
-    <hyperlink ref="G31" r:id="rId11" location="verifying-the-configuration-of-cryptographic-standard-algorithms"/>
-    <hyperlink ref="G32" r:id="rId12" location="testing-for-insecure-andor-deprecated-cryptographic-primitives"/>
-    <hyperlink ref="G33" r:id="rId13" location="testing-random-number-generation"/>
-    <hyperlink ref="G34" r:id="rId14" location="verifying-cryptographic-key-management"/>
-    <hyperlink ref="G36" r:id="rId15"/>
-    <hyperlink ref="G37" r:id="rId16"/>
-    <hyperlink ref="G41" r:id="rId17"/>
-    <hyperlink ref="G42" r:id="rId18"/>
-    <hyperlink ref="G43" r:id="rId19"/>
-    <hyperlink ref="G44" r:id="rId20"/>
-    <hyperlink ref="G45" r:id="rId21"/>
-    <hyperlink ref="G48" r:id="rId22" location="testing-for-unencrypted-sensitive-data-on-the-network"/>
-    <hyperlink ref="G49" r:id="rId23" location="verifying-the-tls-settings"/>
-    <hyperlink ref="G50" r:id="rId24" location="testing-endpoint-identity-verification"/>
-    <hyperlink ref="G55" r:id="rId25" location="testing-app-permissions"/>
-    <hyperlink ref="G56" r:id="rId26" location="testing-input-validation-and-sanitization"/>
-    <hyperlink ref="G57" r:id="rId27" location="testing-custom-url-schemes"/>
-    <hyperlink ref="G58" r:id="rId28" location="testing-for-sensitive-functionality-exposed-through-ipc"/>
-    <hyperlink ref="G59" r:id="rId29" location="testing-javascript-execution-in-webviews"/>
-    <hyperlink ref="G60" r:id="rId30" location="testing-webview-protocol-handlers"/>
-    <hyperlink ref="G61" r:id="rId31" location="testing-whether-java-objects-are-exposed-through-webviews"/>
-    <hyperlink ref="G62" r:id="rId32" location="testing-object-serialization"/>
-    <hyperlink ref="G64" r:id="rId33" location="verifying-that-the-app-is-properly-signed"/>
-    <hyperlink ref="G65" r:id="rId34" location="testing-whether-the-app-is-debuggable"/>
-    <hyperlink ref="G66" r:id="rId35" location="verifying-that-debugging-symbols-have-been-removed"/>
-    <hyperlink ref="G67" r:id="rId36" location="testing-for-debugging-code-and-verbose-error-logging"/>
-    <hyperlink ref="G70" r:id="rId37" location="verifying-that-the-app-fails-securely"/>
-    <hyperlink ref="G72" r:id="rId38" location="testing-compiler-settings"/>
-    <hyperlink ref="G24" r:id="rId39" location="testing-for-sensitive-information-in-auto-generated-screenshots"/>
-    <hyperlink ref="G25" r:id="rId40"/>
-    <hyperlink ref="G26" r:id="rId41" location="testing-the-device-access-security-policy"/>
-    <hyperlink ref="G27" r:id="rId42" location="verifying-user-education-controls"/>
-    <hyperlink ref="G71" r:id="rId43" location="testing-for-memory-management-bugs"/>
-    <hyperlink ref="G38" r:id="rId44"/>
-    <hyperlink ref="G40" r:id="rId45"/>
-    <hyperlink ref="G39" r:id="rId46"/>
-    <hyperlink ref="G51" r:id="rId47" location="verifying-that-critical-operations-use-secure-communication-channels" display="Verifying that Critical Operations Use Secure Communication Channels"/>
-    <hyperlink ref="G52" r:id="rId48" location="testing-app-permissions"/>
-    <hyperlink ref="G53" r:id="rId49" location="testing-app-permissions"/>
-    <hyperlink ref="G69" r:id="rId50" location="testing-exception-handling"/>
-    <hyperlink ref="G46" r:id="rId51"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8108,21 +8362,21 @@
   <dimension ref="B1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="2" width="7.296875" customWidth="1"/>
-    <col min="3" max="3" width="99.69921875" customWidth="1"/>
-    <col min="6" max="6" width="42.19921875" style="83" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="99.75" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="82" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18">
+    <row r="1" spans="2:7" ht="18.75">
       <c r="B1" s="7" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="G1" s="24"/>
     </row>
@@ -8131,38 +8385,38 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27"/>
-      <c r="C3" s="69" t="s">
-        <v>177</v>
+      <c r="C3" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>283</v>
+      <c r="E3" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="34"/>
-      <c r="C4" s="71" t="s">
-        <v>243</v>
+      <c r="C4" s="70" t="s">
+        <v>185</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="84"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:7" ht="28.8">
-      <c r="B5" s="64" t="s">
-        <v>311</v>
+    <row r="5" spans="2:7" ht="30">
+      <c r="B5" s="63" t="s">
+        <v>251</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
@@ -8170,17 +8424,21 @@
       <c r="E5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="65"/>
+      <c r="F5" s="148" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),
+"Jailbreak Detection")</f>
+        <v>Jailbreak Detection</v>
+      </c>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="64" t="s">
-        <v>312</v>
+      <c r="B6" s="63" t="s">
+        <v>252</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>3</v>
@@ -8188,17 +8446,21 @@
       <c r="E6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="65"/>
+      <c r="F6" s="148" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),
+"Anti-Debugging Checks")</f>
+        <v>Anti-Debugging Checks</v>
+      </c>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="64" t="s">
-        <v>313</v>
+      <c r="B7" s="63" t="s">
+        <v>253</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
@@ -8206,17 +8468,21 @@
       <c r="E7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="65"/>
+      <c r="F7" s="148" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),
+"File Integrity Checks")</f>
+        <v>File Integrity Checks</v>
+      </c>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="64" t="s">
-        <v>314</v>
+      <c r="B8" s="63" t="s">
+        <v>254</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -8224,15 +8490,17 @@
       <c r="E8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="65"/>
+      <c r="F8" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="64" t="s">
-        <v>315</v>
+      <c r="B9" s="63" t="s">
+        <v>255</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>3</v>
@@ -8240,15 +8508,17 @@
       <c r="E9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="65"/>
+      <c r="F9" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="64" t="s">
-        <v>316</v>
+      <c r="B10" s="63" t="s">
+        <v>256</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>3</v>
@@ -8256,15 +8526,17 @@
       <c r="E10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="2:7" ht="28.8">
-      <c r="B11" s="64" t="s">
-        <v>317</v>
+      <c r="F10" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="2:7" ht="30">
+      <c r="B11" s="63" t="s">
+        <v>257</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>3</v>
@@ -8272,15 +8544,17 @@
       <c r="E11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="65"/>
+      <c r="F11" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="64" t="s">
-        <v>318</v>
+      <c r="B12" s="63" t="s">
+        <v>258</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>3</v>
@@ -8288,15 +8562,17 @@
       <c r="E12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="65"/>
+      <c r="F12" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="64"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="64" t="s">
-        <v>155</v>
+      <c r="B13" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>3</v>
@@ -8304,25 +8580,27 @@
       <c r="E13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="64"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="34"/>
-      <c r="C14" s="71" t="s">
-        <v>241</v>
+      <c r="C14" s="70" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="84"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:7" ht="28.8">
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="2:7" ht="30">
+      <c r="B15" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>3</v>
@@ -8330,27 +8608,31 @@
       <c r="E15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="65"/>
+      <c r="F15" s="148" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),
+"Device Binding")</f>
+        <v>Device Binding</v>
+      </c>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="34"/>
-      <c r="C16" s="71" t="s">
-        <v>242</v>
+      <c r="C16" s="70" t="s">
+        <v>184</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="84"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" ht="43.2">
-      <c r="B17" s="64" t="s">
-        <v>319</v>
+    <row r="17" spans="2:7" ht="45">
+      <c r="B17" s="63" t="s">
+        <v>259</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>3</v>
@@ -8358,15 +8640,17 @@
       <c r="E17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="2:7" ht="57.6">
-      <c r="B18" s="64" t="s">
-        <v>320</v>
+      <c r="F17" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="2:7" ht="75">
+      <c r="B18" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>3</v>
@@ -8374,15 +8658,17 @@
       <c r="E18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="65"/>
+      <c r="F18" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="86"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="2:7">
@@ -8390,7 +8676,7 @@
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="87"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7">
@@ -8398,65 +8684,65 @@
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="87"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="41"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="74" t="s">
-        <v>273</v>
+      <c r="B22" s="73" t="s">
+        <v>215</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="87"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="41"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>274</v>
+      <c r="B23" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>216</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="87"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="41"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="76" t="s">
-        <v>275</v>
+      <c r="C24" s="75" t="s">
+        <v>217</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="87"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="41"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="76" t="s">
-        <v>276</v>
+      <c r="C25" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="87"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="41"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="76" t="s">
-        <v>277</v>
+      <c r="C26" s="75" t="s">
+        <v>219</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="87"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="41"/>
     </row>
     <row r="27" spans="2:7">
@@ -8464,7 +8750,7 @@
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="87"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
@@ -8472,7 +8758,7 @@
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="87"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
@@ -8480,7 +8766,7 @@
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="87"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
@@ -8488,34 +8774,68 @@
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="87"/>
+      <c r="F30" s="85"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="87"/>
+      <c r="F31" s="85"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="87"/>
+      <c r="F32" s="85"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E17:E18 E5:E13">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" location="jailbreak-detection"/>
-    <hyperlink ref="F6" r:id="rId2" location="anti-debugging-checks"/>
-    <hyperlink ref="F7" r:id="rId3" location="file-integrity-checks"/>
-    <hyperlink ref="F15" r:id="rId4" location="device-binding"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8529,200 +8849,200 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="30.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.69921875" customWidth="1"/>
+    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="148"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="60" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="61">
         <v>0.1</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="58">
         <v>42765</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>140</v>
+      <c r="D3" s="56" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="61">
         <v>0.2</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="58">
         <v>42766</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>141</v>
+      <c r="D4" s="56" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="61">
         <v>0.3</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="58">
         <v>42778</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>142</v>
+      <c r="D5" s="56" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="59">
+      <c r="B6" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="58">
         <v>42780</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>143</v>
+      <c r="D6" s="56" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="59">
+      <c r="B7" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="58">
         <v>42781</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>145</v>
+      <c r="D7" s="56" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="59">
+      <c r="B8" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="58">
         <v>42829</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>147</v>
+      <c r="D8" s="56" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="59">
+      <c r="B9" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="58">
         <v>42919</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>151</v>
+      <c r="D9" s="56" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="59">
+      <c r="B10" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="58">
         <v>42963</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>154</v>
+      <c r="D10" s="56" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="59">
+      <c r="B11" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="58">
         <v>43113</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="59">
+      <c r="D11" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="58">
         <v>43266</v>
       </c>
-      <c r="D12" s="81" t="s">
-        <v>284</v>
+      <c r="D12" s="80" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="82" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="80">
+      <c r="A13" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="79">
         <v>43641</v>
       </c>
-      <c r="D13" s="81" t="s">
-        <v>292</v>
+      <c r="D13" s="80" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="80">
+      <c r="A14" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="79">
         <v>43642</v>
       </c>
-      <c r="D14" s="99" t="s">
-        <v>298</v>
+      <c r="D14" s="94" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pec1be7\git\owasp-mstg\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E995B9-01E8-4343-B737-A62F79975CD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="19410" windowHeight="10410" tabRatio="765" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -21,12 +22,12 @@
     <sheet name="Version history" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Security Requirements - Android'!$B$3:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Security Requirements - Android'!$B$3:$I$72</definedName>
     <definedName name="BASE_URL">Dashboard!$D$14</definedName>
     <definedName name="MASVS_VERSION">Dashboard!$D$11</definedName>
     <definedName name="MSTG_VERSION">Dashboard!$D$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="347">
   <si>
     <t>ID</t>
   </si>
@@ -929,15 +930,245 @@
   <si>
     <t>6.8</t>
   </si>
+  <si>
+    <t>MSTG-ID</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-1</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-2</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-4</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-5</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-6</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-7</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-8</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-9</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-10</t>
+  </si>
+  <si>
+    <t>MSTG-ARCH-3</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-1</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-2</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-3</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-4</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-5</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-6</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-7</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-8</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-9</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-10</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-11</t>
+  </si>
+  <si>
+    <t>MSTG-STORAGE-12</t>
+  </si>
+  <si>
+    <t>MSTG-CRYPTO-1</t>
+  </si>
+  <si>
+    <t>MSTG-CRYPTO-2</t>
+  </si>
+  <si>
+    <t>MSTG-CRYPTO-3</t>
+  </si>
+  <si>
+    <t>MSTG-CRYPTO-4</t>
+  </si>
+  <si>
+    <t>MSTG-CRYPTO-5</t>
+  </si>
+  <si>
+    <t>MSTG-CRYPTO-6</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-1</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-2</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-3</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-4</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-5</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-6</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-7</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-8</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-9</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-10</t>
+  </si>
+  <si>
+    <t>MSTG-AUTH-11</t>
+  </si>
+  <si>
+    <t>MSTG-NETWORK-1</t>
+  </si>
+  <si>
+    <t>MSTG-NETWORK-2</t>
+  </si>
+  <si>
+    <t>MSTG-NETWORK-3</t>
+  </si>
+  <si>
+    <t>MSTG-NETWORK-4</t>
+  </si>
+  <si>
+    <t>MSTG-NETWORK-5</t>
+  </si>
+  <si>
+    <t>MSTG-NETWORK-6</t>
+  </si>
+  <si>
+    <t>MSTG-PLATFORM-1</t>
+  </si>
+  <si>
+    <t>MSTG-PLATFORM-2</t>
+  </si>
+  <si>
+    <t>MSTG-PLATFORM-3</t>
+  </si>
+  <si>
+    <t>MSTG-PLATFORM-4</t>
+  </si>
+  <si>
+    <t>MSTG-PLATFORM-5</t>
+  </si>
+  <si>
+    <t>MSTG-PLATFORM-6</t>
+  </si>
+  <si>
+    <t>MSTG-PLATFORM-7</t>
+  </si>
+  <si>
+    <t>MSTG-PLATFORM-8</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-1</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-2</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-3</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-4</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-5</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-6</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-7</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-8</t>
+  </si>
+  <si>
+    <t>MSTG-CODE-9</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-1</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-3</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-4</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-5</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-6</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-7</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-8</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-9</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-10</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-11</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-12</t>
+  </si>
+  <si>
+    <t>MSTG-RESILIENCE-2</t>
+  </si>
+  <si>
+    <t>Updates:
+- Adding the MSTG-IDs
+- Covering the V1 MSTG links</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1297,7 +1528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1722,6 +1953,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1788,7 +2047,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2038,6 +2297,39 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2116,6 +2408,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2129,33 +2457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2165,130 +2466,113 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="62"/>
+    <cellStyle name="Normal 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -2382,7 +2666,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2584,7 +2868,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918959216"/>
@@ -2637,7 +2921,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918956896"/>
@@ -2684,7 +2968,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2714,7 +2998,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2728,7 +3012,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2924,7 +3208,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920829984"/>
@@ -2977,7 +3261,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920827664"/>
@@ -3024,7 +3308,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3054,7 +3338,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3522,86 +3806,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.9" customHeight="1"/>
-    <row r="2" spans="2:4">
-      <c r="B2" s="106" t="s">
+    <row r="1" spans="2:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-    </row>
-    <row r="8" spans="2:4" hidden="1">
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-    </row>
-    <row r="9" spans="2:4" ht="18">
-      <c r="B9" s="115" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="120"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="122"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="122"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+    </row>
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="123"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="125"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="87" t="s">
         <v>191</v>
       </c>
       <c r="C10" s="88"/>
       <c r="D10" s="90"/>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="120" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="120"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="92" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="121" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="121"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="93" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -3610,20 +3894,20 @@
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="120" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="91" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="119" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="119"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="89" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
@@ -3632,248 +3916,248 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.2/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="40.15" customHeight="1">
-      <c r="B15" s="116" t="s">
+    <row r="15" spans="2:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="127" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="101" t="s">
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="96" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="101" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="102"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="101" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="102"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="101" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="102"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="101" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="2:4" ht="70.5" customHeight="1">
-      <c r="B22" s="101" t="s">
+    <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="102"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18">
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-    </row>
-    <row r="24" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="101" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="102"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="101" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="102"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="101" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="102"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="101" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="102"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="2:4" ht="18">
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-    </row>
-    <row r="31" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="115"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="66" t="s">
         <v>201</v>
       </c>
       <c r="C32" s="67"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="101" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="102"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="101" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="102"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="101" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="102"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="101" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="2:4" ht="18">
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-    </row>
-    <row r="38" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4" ht="18">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="100"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="96" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="109"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="111"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="97"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="54"/>
     </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="96" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="97"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="54"/>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="96" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="97"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="54"/>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="96" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="97"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="55"/>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="96" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="97"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="54"/>
     </row>
-    <row r="45" spans="2:4" ht="18">
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="100"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="96" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="111"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="97"/>
+      <c r="C46" s="108"/>
       <c r="D46" s="54"/>
     </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="96" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="97"/>
+      <c r="C47" s="108"/>
       <c r="D47" s="54"/>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="96" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="97"/>
+      <c r="C48" s="108"/>
       <c r="D48" s="54"/>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="96" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="97"/>
+      <c r="C49" s="108"/>
       <c r="D49" s="55"/>
     </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="96" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="97"/>
+      <c r="C50" s="108"/>
       <c r="D50" s="54"/>
     </row>
   </sheetData>
@@ -3923,14 +4207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:X50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A27" zoomScale="88" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="6" customWidth="1"/>
@@ -3942,8 +4226,8 @@
     <col min="8" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" thickBot="1"/>
-    <row r="2" spans="2:24" ht="16.5" thickBot="1">
+    <row r="1" spans="2:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="8"/>
       <c r="C2" s="23" t="s">
         <v>68</v>
@@ -3952,209 +4236,209 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:24" ht="15.75">
+    <row r="3" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:24" ht="15.75">
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-    </row>
-    <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="2:24" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="6" spans="2:24" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
-      <c r="V6" s="139" t="s">
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="V6" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="140"/>
-      <c r="X6" s="141"/>
-    </row>
-    <row r="7" spans="2:24" ht="16.5" thickBot="1">
+      <c r="W6" s="134"/>
+      <c r="X6" s="135"/>
+    </row>
+    <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="2:24" ht="16.149999999999999" customHeight="1">
+    <row r="8" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="127">
+      <c r="G8" s="136">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
-      <c r="V8" s="127">
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="V8" s="136">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="128"/>
-      <c r="X8" s="129"/>
-    </row>
-    <row r="9" spans="2:24" ht="91.15" customHeight="1">
+      <c r="W8" s="137"/>
+      <c r="X8" s="138"/>
+    </row>
+    <row r="9" spans="2:24" ht="91.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="132"/>
-    </row>
-    <row r="10" spans="2:24" ht="16.5" customHeight="1">
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="141"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="141"/>
+    </row>
+    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="132"/>
-    </row>
-    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="141"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="141"/>
+    </row>
+    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="135"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="135"/>
-    </row>
-    <row r="12" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-    </row>
-    <row r="13" spans="2:24" ht="15">
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="144"/>
+    </row>
+    <row r="12" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="2:24" ht="15">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="2:24" ht="15.75">
+    <row r="15" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="2:24" ht="16.149999999999999" customHeight="1">
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-    </row>
-    <row r="17" spans="2:6" ht="15">
+    <row r="16" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6" ht="15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" s="19"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="19"/>
     </row>
-    <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
-    <row r="41" spans="3:11" ht="16.5">
-      <c r="D41" s="123" t="s">
+    <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D41" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="123" t="s">
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="125"/>
-    </row>
-    <row r="42" spans="3:11">
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="148"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="18" t="s">
         <v>73</v>
       </c>
@@ -4180,20 +4464,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="16.5">
+    <row r="43" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C43" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D43" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F5:F14,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G5:G14,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F5:F14,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G5:G14,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <f>COUNTIFS('Security Requirements - Android'!F5:F14,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G5:G14,'Security Requirements - Android'!B81)</f>
         <v>6</v>
       </c>
       <c r="G43" s="20">
@@ -4201,15 +4485,15 @@
         <v>0</v>
       </c>
       <c r="H43" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F5:F14,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G5:G14,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I43" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F5:F14,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G5:G14,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J43" s="11">
-        <f>COUNTIFS('Security Requirements - iOS'!F5:F14,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G5:G14,'Security Requirements - Android'!B81)</f>
         <v>6</v>
       </c>
       <c r="K43" s="20">
@@ -4217,20 +4501,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="16.5">
+    <row r="44" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C44" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D44" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F16:F27,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G16:G27,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E44" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F16:F27,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G16:G27,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F44" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F16:F27,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G16:G27,'Security Requirements - Android'!B81)</f>
         <v>5</v>
       </c>
       <c r="G44" s="20">
@@ -4238,15 +4522,15 @@
         <v>0</v>
       </c>
       <c r="H44" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F16:F27,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G16:G27,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I44" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F16:F27,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G16:G27,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J44" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F16:F27,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G16:G27,'Security Requirements - Android'!B81)</f>
         <v>5</v>
       </c>
       <c r="K44" s="20">
@@ -4254,20 +4538,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="16.5">
+    <row r="45" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C45" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D45" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F29:F34,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G29:G34,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E45" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F29:F34,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G29:G34,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F45" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F29:F34,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G29:G34,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="G45" s="20">
@@ -4275,15 +4559,15 @@
         <v>0</v>
       </c>
       <c r="H45" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F29:F34,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G29:G34,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I45" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F29:F34,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G29:G34,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J45" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F29:F34,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G29:G34,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="K45" s="20">
@@ -4291,20 +4575,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="16.5">
+    <row r="46" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C46" s="12" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F36:F46,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G36:G46,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E46" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F36:F46,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G36:G46,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F46" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F36:F46,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G36:G46,'Security Requirements - Android'!B81)</f>
         <v>5</v>
       </c>
       <c r="G46" s="20">
@@ -4312,15 +4596,15 @@
         <v>0</v>
       </c>
       <c r="H46" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F36:F46,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G36:G46,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I46" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F36:F46,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G36:G46,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J46" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F36:F46,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G36:G46,'Security Requirements - Android'!B81)</f>
         <v>5</v>
       </c>
       <c r="K46" s="20">
@@ -4328,20 +4612,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="16.5">
+    <row r="47" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C47" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D47" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F48:F53,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G48:G53,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E47" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F48:F53,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G48:G53,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F47" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F48:F53,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G48:G53,'Security Requirements - Android'!B81)</f>
         <v>3</v>
       </c>
       <c r="G47" s="20">
@@ -4349,15 +4633,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F48:F53,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G48:G53,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I47" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F48:F53,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G48:G53,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J47" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F48:F53,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G48:G53,'Security Requirements - Android'!B81)</f>
         <v>3</v>
       </c>
       <c r="K47" s="20">
@@ -4365,20 +4649,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="16.5">
+    <row r="48" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C48" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D48" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F55:F62,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G55:G62,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E48" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F55:F62,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G55:G62,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F48" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F55:F62,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G55:G62,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="G48" s="20">
@@ -4386,15 +4670,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F55:F62,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G55:G62,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I48" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F55:F62,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G55:G62,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J48" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F55:F62,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G55:G62,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="K48" s="20">
@@ -4402,20 +4686,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="16.5">
+    <row r="49" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C49" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D49" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F64:F72,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G64:G72,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E49" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F64:F72,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G64:G72,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F49" s="10">
-        <f>COUNTIFS('Security Requirements - Android'!F64:F72,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - Android'!G64:G72,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="G49" s="20">
@@ -4423,15 +4707,15 @@
         <v>0</v>
       </c>
       <c r="H49" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F64:F72,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G64:G72,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I49" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F64:F72,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G64:G72,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J49" s="10">
-        <f>COUNTIFS('Security Requirements - iOS'!F64:F72,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Security Requirements - iOS'!G64:G72,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
       <c r="K49" s="20">
@@ -4439,20 +4723,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="16.5">
+    <row r="50" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C50" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="10">
-        <f>COUNTIFS('Anti-RE - Android'!E4:E18,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Anti-RE - Android'!F4:F18,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="E50" s="10">
-        <f>COUNTIFS('Anti-RE - Android'!E4:E18,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Anti-RE - Android'!F4:F18,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="F50" s="10">
-        <f>COUNTIFS('Anti-RE - Android'!E4:E18,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Anti-RE - Android'!F4:F18,'Security Requirements - Android'!B81)</f>
         <v>12</v>
       </c>
       <c r="G50" s="20">
@@ -4460,15 +4744,15 @@
         <v>0</v>
       </c>
       <c r="H50" s="10">
-        <f>COUNTIFS('Anti-RE - iOS'!E4:E18,'Security Requirements - Android'!B79)</f>
+        <f>COUNTIFS('Anti-RE - iOS'!F4:F18,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
       <c r="I50" s="10">
-        <f>COUNTIFS('Anti-RE - iOS'!E4:E18,'Security Requirements - Android'!B80)</f>
+        <f>COUNTIFS('Anti-RE - iOS'!F4:F18,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
       <c r="J50" s="10">
-        <f>COUNTIFS('Anti-RE - iOS'!E4:E18,'Security Requirements - Android'!B81)</f>
+        <f>COUNTIFS('Anti-RE - iOS'!F4:F18,'Security Requirements - Android'!B81)</f>
         <v>12</v>
       </c>
       <c r="K50" s="20">
@@ -4478,15 +4762,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4498,7 +4782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4512,7 +4796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4523,965 +4807,1189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="D1" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="96.75" style="53" customWidth="1"/>
-    <col min="7" max="7" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="10" max="11" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="96.75" style="53" customWidth="1"/>
+    <col min="8" max="8" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.58203125" customWidth="1"/>
+    <col min="10" max="10" width="30.75" customWidth="1"/>
+    <col min="11" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.75">
-      <c r="B1" s="142" t="s">
+    <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="C1" s="153"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="E3" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="H3" s="155" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="I3" s="156"/>
+      <c r="J3" s="77" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1">
+      <c r="E5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#architectural-information"),
+"Architectural Information")</f>
+        <v>Architectural Information</v>
+      </c>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="64"/>
-    </row>
-    <row r="7" spans="2:8" ht="30.6" customHeight="1">
+      <c r="E6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04h-Testing-Code-Quality.md#injection-flaws"),
+"Injection Flaws")</f>
+        <v>Injection Flaws</v>
+      </c>
+      <c r="I6" s="106" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws"),
+"Cross-Site Scripting Flaws")</f>
+        <v>Cross-Site Scripting Flaws</v>
+      </c>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="2:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="64"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="E7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#architectural-information"),
+"Architectural Information")</f>
+        <v>Architectural Information</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="64"/>
-    </row>
-    <row r="9" spans="2:8" ht="30">
+      <c r="E8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
+"Identifying Sensitive Data")</f>
+        <v>Identifying Sensitive Data</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="64"/>
-    </row>
-    <row r="10" spans="2:8" ht="30">
+      <c r="H9" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#environmental-information"),
+"Environmental Information")</f>
+        <v>Environmental Information</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="64"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
+"Mapping the Application")</f>
+        <v>Mapping the Application</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="64"/>
-    </row>
-    <row r="12" spans="2:8" ht="30">
+      <c r="H11" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
+"Principles of Testing")</f>
+        <v>Principles of Testing</v>
+      </c>
+      <c r="I11" s="106" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
+"Penetration Testing (a.k.a. Pentesting)")</f>
+        <v>Penetration Testing (a.k.a. Pentesting)</v>
+      </c>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="33" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="64"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="H12" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04g-Testing-Cryptography.md#cryptographic-policy"),
+"Cryptographic policy")</f>
+        <v>Cryptographic policy</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="33" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="64"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="H13" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-enforced-updating"),
+"Testing enforced updating")</f>
+        <v>Testing enforced updating</v>
+      </c>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="64"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="H14" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
+"Security Testing and the SDLC")</f>
+        <v>Security Testing and the SDLC</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="2:8" ht="30">
+      <c r="E15" s="35"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="147" t="str">
+      <c r="E16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
 "Testing Local Storage for Sensitive Data")</f>
         <v>Testing Local Storage for Sensitive Data</v>
       </c>
-      <c r="H16" s="64"/>
-    </row>
-    <row r="17" spans="2:8" ht="30">
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+    </row>
+    <row r="17" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="148" t="str">
+      <c r="E17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="99" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
 "Testing Local Storage for Sensitive Data")</f>
         <v>Testing Local Storage for Sensitive Data</v>
       </c>
-      <c r="H17" s="64"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="103" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="147" t="str">
+      <c r="E18" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),
 "Testing Logs for Sensitive Data")</f>
         <v>Testing Logs for Sensitive Data</v>
       </c>
-      <c r="H18" s="64"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="147" t="str">
+      <c r="E19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
 "Determining Whether Sensitive Data is Sent to Third Parties")</f>
         <v>Determining Whether Sensitive Data is Sent to Third Parties</v>
       </c>
-      <c r="H19" s="64"/>
-    </row>
-    <row r="20" spans="2:8" ht="31.5">
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+    </row>
+    <row r="20" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="103" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="147" t="str">
+      <c r="E20" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),
 "Determining Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
         <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
       </c>
-      <c r="H20" s="64"/>
-    </row>
-    <row r="21" spans="2:8" ht="31.5">
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+    </row>
+    <row r="21" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="103" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="147" t="str">
+      <c r="E21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),
 "Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms")</f>
         <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms</v>
       </c>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="2:8" ht="31.5">
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+    </row>
+    <row r="22" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="103" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="147" t="str">
+      <c r="E22" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),
 "Checking for Sensitive Data Disclosure Through the User Interface")</f>
         <v>Checking for Sensitive Data Disclosure Through the User Interface</v>
       </c>
-      <c r="H22" s="64"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="33" t="s">
+      <c r="E23" s="49"/>
+      <c r="F23" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="147" t="str">
+      <c r="H23" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
 "Testing Backups for Sensitive Data")</f>
         <v>Testing Backups for Sensitive Data</v>
       </c>
-      <c r="H23" s="64"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="33" t="s">
+      <c r="E24" s="49"/>
+      <c r="F24" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="147" t="str">
+      <c r="H24" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),
 "Finding Sensitive Information in Auto-Generated Screenshots")</f>
         <v>Finding Sensitive Information in Auto-Generated Screenshots</v>
       </c>
-      <c r="H24" s="64"/>
-    </row>
-    <row r="25" spans="2:8" ht="33" customHeight="1">
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+    </row>
+    <row r="25" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="E25" s="49"/>
+      <c r="F25" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="147" t="str">
+      <c r="H25" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),
 "Checking Memory for Sensitive Data")</f>
         <v>Checking Memory for Sensitive Data</v>
       </c>
-      <c r="H25" s="64"/>
-    </row>
-    <row r="26" spans="2:8" ht="30">
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+    </row>
+    <row r="26" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="33" t="s">
+      <c r="E26" s="49"/>
+      <c r="F26" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="147" t="str">
+      <c r="H26" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy"),
 "Testing the Device-Access-Security Policy")</f>
         <v>Testing the Device-Access-Security Policy</v>
       </c>
-      <c r="H26" s="64"/>
-    </row>
-    <row r="27" spans="2:8" ht="30">
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+    </row>
+    <row r="27" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="33" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="147" t="str">
+      <c r="H27" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04i-Testing-user-interaction.md#testing-user-education"),
 "Testing User Education")</f>
         <v>Testing User Education</v>
       </c>
-      <c r="H27" s="64"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="E28" s="35"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="103" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="147" t="str">
+      <c r="E29" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#testing-key-management"),
 "Testing Key Management")</f>
         <v>Testing Key Management</v>
       </c>
-      <c r="H29" s="64"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="103" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="147" t="str">
+      <c r="E30" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),
 "Cryptography for Mobile Apps")</f>
         <v>Cryptography for Mobile Apps</v>
       </c>
-      <c r="H30" s="64"/>
-    </row>
-    <row r="31" spans="2:8" ht="31.5">
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+    </row>
+    <row r="31" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="147" t="str">
+      <c r="E31" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
 "Verifying the Configuration of Cryptographic Standard Algorithms")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
       </c>
-      <c r="H31" s="64"/>
-    </row>
-    <row r="32" spans="2:8" ht="28.9" customHeight="1">
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+    </row>
+    <row r="32" spans="2:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="147" t="str">
+      <c r="E32" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
 "Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
-      <c r="H32" s="64"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="147" t="str">
+      <c r="E33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#testing-key-management"),
 "Testing Key Management")</f>
         <v>Testing Key Management</v>
       </c>
-      <c r="H33" s="64"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="103" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="147" t="str">
+      <c r="E34" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#testing-random-number-generation"),
 "Testing Random Number Generation")</f>
         <v>Testing Random Number Generation</v>
       </c>
-      <c r="H34" s="64"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="2:10" ht="30">
+      <c r="E35" s="35"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="147" t="str">
+      <c r="E36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
 "Testing Authentication")</f>
         <v>Testing Authentication</v>
       </c>
-      <c r="H36" s="64"/>
-    </row>
-    <row r="37" spans="2:10" ht="30">
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+    </row>
+    <row r="37" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="104" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="147" t="str">
+      <c r="E37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
 "Testing Stateful Session Management")</f>
         <v>Testing Stateful Session Management</v>
       </c>
-      <c r="H37" s="64"/>
-    </row>
-    <row r="38" spans="2:10" ht="30">
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+    </row>
+    <row r="38" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="147" t="str">
+      <c r="E38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
 "Testing Stateless (Token-Based) Authentication")</f>
         <v>Testing Stateless (Token-Based) Authentication</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="J38" s="50"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="50"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="104" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="147" t="str">
+      <c r="E39" s="26"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
 "User Logout and Session Timeouts")</f>
         <v>User Logout and Session Timeouts</v>
       </c>
-      <c r="H39" s="64"/>
-      <c r="J39" s="50"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="147" t="str">
+      <c r="E40" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
 "Best Practices for Passwords")</f>
         <v>Best Practices for Passwords</v>
       </c>
-      <c r="H40" s="64"/>
-    </row>
-    <row r="41" spans="2:10" ht="31.9" customHeight="1">
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+    </row>
+    <row r="41" spans="2:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="147" t="str">
+      <c r="E41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
 "Running a Password Dictionary Attack")</f>
         <v>Running a Password Dictionary Attack</v>
       </c>
-      <c r="H41" s="64"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="33" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="147" t="str">
+      <c r="H42" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
 "Session Timeout")</f>
         <v>Session Timeout</v>
       </c>
-      <c r="H42" s="64"/>
-    </row>
-    <row r="43" spans="2:10" ht="30">
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+    </row>
+    <row r="43" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="33" t="s">
+      <c r="E43" s="49"/>
+      <c r="F43" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="147" t="str">
+      <c r="H43" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05f-Testing-Local-Authentication.md#testing-biometric-authentication"),
 "Testing Biometric Authentication")</f>
         <v>Testing Biometric Authentication</v>
       </c>
-      <c r="H43" s="64"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="33" t="s">
+      <c r="E44" s="49"/>
+      <c r="F44" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="147" t="str">
+      <c r="H44" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
 "Verifying that 2FA is Enforced")</f>
         <v>Verifying that 2FA is Enforced</v>
       </c>
-      <c r="H44" s="64"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="104" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="33" t="s">
+      <c r="E45" s="49"/>
+      <c r="F45" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="147" t="str">
+      <c r="H45" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
 "2-Factor Authentication and Step-up Authentication")</f>
         <v>2-Factor Authentication and Step-up Authentication</v>
       </c>
-      <c r="H45" s="64"/>
-    </row>
-    <row r="46" spans="2:10" ht="30">
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+    </row>
+    <row r="46" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="104" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="33" t="s">
+      <c r="E46" s="49"/>
+      <c r="F46" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="147" t="str">
+      <c r="H46" s="98" t="str">
         <f>HYPERLINK(
 CONCATENATE(
 BASE_URL,
@@ -5489,720 +5997,847 @@
 "Login Activity and Device Blocking")</f>
         <v>Login Activity and Device Blocking</v>
       </c>
-      <c r="H46" s="64"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="E47" s="35"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="147" t="str">
+      <c r="E48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
 "Verifying Data Encryption on the Network")</f>
         <v>Verifying Data Encryption on the Network</v>
       </c>
-      <c r="H48" s="64"/>
-    </row>
-    <row r="49" spans="2:8" ht="30">
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+    </row>
+    <row r="49" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="147" t="str">
+      <c r="E49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
 "Recommended TLS Settings")</f>
         <v>Recommended TLS Settings</v>
       </c>
-      <c r="H49" s="64"/>
-    </row>
-    <row r="50" spans="2:8" ht="30">
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+    </row>
+    <row r="50" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="104" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="147" t="str">
+      <c r="E50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification"),
 "Testing Endpoint Identify Verification")</f>
         <v>Testing Endpoint Identify Verification</v>
       </c>
-      <c r="H50" s="64"/>
-    </row>
-    <row r="51" spans="2:8" ht="45">
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+    </row>
+    <row r="51" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B51" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="104" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="33" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="147" t="str">
+      <c r="H51" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
 "Testing Custom Certificate Stores and Certificate Pinning")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
-      <c r="H51" s="64"/>
-    </row>
-    <row r="52" spans="2:8" ht="31.5">
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+    </row>
+    <row r="52" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B52" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="104" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="33" t="s">
+      <c r="E52" s="49"/>
+      <c r="F52" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="147" t="str">
+      <c r="H52" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
 "Making Sure that Critical Operations Use Secure Communication Channels")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
       </c>
-      <c r="H52" s="64"/>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="33" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="147" t="str">
+      <c r="H53" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-the-security-provider"),
 "Testing the Security Provider")</f>
         <v>Testing the Security Provider</v>
       </c>
-      <c r="H53" s="64"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="47"/>
+      <c r="D54" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="36"/>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="E54" s="35"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="147" t="str">
+      <c r="E55" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="33"/>
+      <c r="H55" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-app-permissions"),
 "Testing App Permissions")</f>
         <v>Testing App Permissions</v>
       </c>
-      <c r="H55" s="64"/>
-    </row>
-    <row r="56" spans="2:8" ht="30">
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+    </row>
+    <row r="56" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="147" t="str">
+      <c r="E56" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws"),
 "Injection Flaws")</f>
         <v>Injection Flaws</v>
       </c>
-      <c r="H56" s="64"/>
-    </row>
-    <row r="57" spans="2:8" ht="30">
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+    </row>
+    <row r="57" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B57" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="104" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="147" t="str">
+      <c r="E57" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
 "Testing Custom URL Schemes")</f>
         <v>Testing Custom URL Schemes</v>
       </c>
-      <c r="H57" s="64"/>
-    </row>
-    <row r="58" spans="2:8" ht="30">
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+    </row>
+    <row r="58" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B58" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="147" t="str">
+      <c r="E58" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
 "Testing for Sensitive Functionality Exposure Through IPC")</f>
         <v>Testing for Sensitive Functionality Exposure Through IPC</v>
       </c>
-      <c r="H58" s="64"/>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="D59" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="147" t="str">
+      <c r="E59" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews"),
 "Testing JavaScript Execution in WebViews")</f>
         <v>Testing JavaScript Execution in WebViews</v>
       </c>
-      <c r="H59" s="64"/>
-    </row>
-    <row r="60" spans="2:8" ht="30">
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+    </row>
+    <row r="60" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B60" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="104" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="147" t="str">
+      <c r="E60" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
 "Testing WebView Protocol Handlers")</f>
         <v>Testing WebView Protocol Handlers</v>
       </c>
-      <c r="H60" s="64"/>
-    </row>
-    <row r="61" spans="2:8" ht="31.9" customHeight="1">
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+    </row>
+    <row r="61" spans="2:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="104" t="s">
+        <v>323</v>
+      </c>
+      <c r="D61" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="147" t="str">
+      <c r="E61" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),
 "Determining Whether Java Objects Are Exposed Through WebViews")</f>
         <v>Determining Whether Java Objects Are Exposed Through WebViews</v>
       </c>
-      <c r="H61" s="64"/>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="147" t="str">
+      <c r="E62" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),
 "Testing Object Persistence")</f>
         <v>Testing Object Persistence</v>
       </c>
-      <c r="H62" s="64"/>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="36"/>
-    </row>
-    <row r="64" spans="2:8" ht="30.6" customHeight="1">
+      <c r="E63" s="35"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+    </row>
+    <row r="64" spans="2:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="104" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="147" t="str">
+      <c r="E64" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="33"/>
+      <c r="H64" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
 "Making Sure That the App is Properly Signed")</f>
         <v>Making Sure That the App is Properly Signed</v>
       </c>
-      <c r="H64" s="64"/>
-    </row>
-    <row r="65" spans="2:8" ht="30.6" customHeight="1">
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+    </row>
+    <row r="65" spans="2:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="D65" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="147" t="str">
+      <c r="E65" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="33"/>
+      <c r="H65" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
 "Determining Whether the App is Debuggable")</f>
         <v>Determining Whether the App is Debuggable</v>
       </c>
-      <c r="H65" s="64"/>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="104" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="147" t="str">
+      <c r="E66" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
 "Finding Debugging Symbols")</f>
         <v>Finding Debugging Symbols</v>
       </c>
-      <c r="H66" s="64"/>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="147" t="str">
+      <c r="E67" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="33"/>
+      <c r="H67" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
 "Finding Debugging Code and Verbose Error Logging")</f>
         <v>Finding Debugging Code and Verbose Error Logging</v>
       </c>
-      <c r="H67" s="64"/>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="104" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="149" t="str">
+      <c r="E68" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="33"/>
+      <c r="H68" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
 "Checking for Weaknesses in Third Party Libraries")</f>
         <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
-      <c r="H68" s="64"/>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="147" t="str">
+      <c r="E69" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="33"/>
+      <c r="H69" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
 "Testing Exception Handling")</f>
         <v>Testing Exception Handling</v>
       </c>
-      <c r="H69" s="64"/>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="104" t="s">
+        <v>331</v>
+      </c>
+      <c r="D70" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="147" t="str">
+      <c r="E70" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="33"/>
+      <c r="H70" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
 "Testing Exception Handling")</f>
         <v>Testing Exception Handling</v>
       </c>
-      <c r="H70" s="64"/>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="33"/>
-      <c r="G71" s="147" t="str">
+      <c r="E71" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="33"/>
+      <c r="H71" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),
 "Memory Corruption Bugs")</f>
         <v>Memory Corruption Bugs</v>
       </c>
-      <c r="H71" s="64"/>
-    </row>
-    <row r="72" spans="2:8" ht="30">
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+    </row>
+    <row r="72" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B72" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="104" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="33"/>
-      <c r="G72" s="147" t="str">
+      <c r="E72" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="33"/>
+      <c r="H72" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
 "Make Sure That Free Security Features Are Activated")</f>
         <v>Make Sure That Free Security Features Are Activated</v>
       </c>
-      <c r="H72" s="64"/>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="37"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="39"/>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
-      <c r="H73" s="40"/>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="H73" s="39"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="41"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
       <c r="H75" s="41"/>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="41"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="41"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="42"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="74" t="s">
+      <c r="C78" s="74"/>
+      <c r="D78" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="41"/>
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
       <c r="H78" s="41"/>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="75" t="s">
+      <c r="C79" s="105"/>
+      <c r="D79" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
       <c r="H79" s="41"/>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="75" t="s">
+      <c r="C80" s="105"/>
+      <c r="D80" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="41"/>
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="41"/>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="105"/>
+      <c r="D81" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="D81" s="41"/>
       <c r="E81" s="41"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
-    </row>
-    <row r="82" spans="2:8">
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
-      <c r="H82" s="24"/>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="H82" s="41"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
       <c r="E83" s="41"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
-      <c r="H83" s="24"/>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="H83" s="41"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="42"/>
       <c r="E84" s="41"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
-      <c r="H84" s="24"/>
-    </row>
-    <row r="85" spans="2:8">
+      <c r="H84" s="41"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="24"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F74:F1048576 H74:H1048576">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:J1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F34 F16:F27 F36:F46 F48:F53 F64:F72 F5:F14 F55:F62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G34 G16:G27 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6212,106 +6847,119 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F18"/>
+      <selection activeCell="C13" activeCellId="8" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="93.25" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="93.25" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.75">
+    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="2:7">
+      <c r="F1" s="24"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="F2" s="24"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="H3" s="77" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="34"/>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="2:7" ht="30">
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="147" t="str">
+      <c r="G5" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection"),
 "Testing Root Detection")</f>
         <v>Testing Root Detection</v>
       </c>
-      <c r="G5" s="64"/>
-    </row>
-    <row r="6" spans="2:7" ht="31.9" customHeight="1">
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="102" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="147" t="str">
+      <c r="G6" s="98" t="str">
         <f>HYPERLINK(
 CONCATENATE(
 BASE_URL,
@@ -6319,345 +6967,388 @@
 "Testing Anti-Debugging")</f>
         <v>Testing Anti-Debugging</v>
       </c>
-      <c r="G6" s="64"/>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="64"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="102" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="147" t="str">
+      <c r="G7" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks"),
 "Testing File Integrity Checks")</f>
         <v>Testing File Integrity Checks</v>
       </c>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="2:7" ht="31.5">
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="2:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="102" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="147" t="str">
+      <c r="G8" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),
 "Testing The Detection of Reverse Engineering Tools")</f>
         <v>Testing The Detection of Reverse Engineering Tools</v>
       </c>
-      <c r="G8" s="64"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="102" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="147" t="str">
+      <c r="G9" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),
 "Testing Emulator Detection")</f>
         <v>Testing Emulator Detection</v>
       </c>
-      <c r="G9" s="64"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="102" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="147" t="str">
+      <c r="G10" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),
 "Testing Run Time Integrity Checks")</f>
         <v>Testing Run Time Integrity Checks</v>
       </c>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="2:7" ht="30">
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="145" t="s">
+      <c r="G11" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="64"/>
-    </row>
-    <row r="12" spans="2:7" ht="31.9" customHeight="1">
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="102" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="G12" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="64"/>
-    </row>
-    <row r="13" spans="2:7" ht="30">
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="147" t="str">
+      <c r="G13" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
 "Testing Obfuscation")</f>
         <v>Testing Obfuscation</v>
       </c>
-      <c r="G13" s="64"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="64"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="34"/>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="2:7" ht="30">
+      <c r="F14" s="35"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="102" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="147" t="str">
+      <c r="G15" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding"),
 "Testing Device Binding")</f>
         <v>Testing Device Binding</v>
       </c>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="64"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="34"/>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="35"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" ht="45">
+      <c r="F16" s="35"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="102" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="149" t="str">
+      <c r="G17" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
 "Testing Obfuscation")</f>
         <v>Testing Obfuscation</v>
       </c>
-      <c r="G17" s="64"/>
-    </row>
-    <row r="18" spans="2:7" ht="75">
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="G18" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="64"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="F19" s="39"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="F20" s="41"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="F21" s="41"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="F22" s="41"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="F23" s="41"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="41"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="F24" s="41"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="41"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="F25" s="41"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="105"/>
+      <c r="D26" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="F26" s="41"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="F27" s="24"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="F28" s="24"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E18 E15 E5:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F18 F15 F5:F13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6667,35 +7358,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G72"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="97.25" customWidth="1"/>
-    <col min="7" max="7" width="51.25" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="10" max="11" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="97.25" customWidth="1"/>
+    <col min="8" max="8" width="51.25" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" customWidth="1"/>
+    <col min="10" max="10" width="30.75" customWidth="1"/>
+    <col min="11" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.75">
+    <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="44"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -6703,770 +7398,963 @@
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="E3" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="H3" s="155" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="I3" s="156"/>
+      <c r="J3" s="77" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="H4" s="157"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="E5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#architectural-information"),
+"Architectural Information")</f>
+        <v>Architectural Information</v>
+      </c>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="64"/>
-    </row>
-    <row r="7" spans="2:8" ht="30">
+      <c r="E6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04h-Testing-Code-Quality.md#injection-flaws"),
+"Injection Flaws")</f>
+        <v>Injection Flaws</v>
+      </c>
+      <c r="I6" s="106" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws"),
+"Cross-Site Scripting Flaws")</f>
+        <v>Cross-Site Scripting Flaws</v>
+      </c>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="64"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="E7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#architectural-information"),
+"Architectural Information")</f>
+        <v>Architectural Information</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="64"/>
-    </row>
-    <row r="9" spans="2:8" ht="30">
+      <c r="E8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
+"Identifying Sensitive Data")</f>
+        <v>Identifying Sensitive Data</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="64"/>
-    </row>
-    <row r="10" spans="2:8" ht="30">
+      <c r="H9" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#environmental-information"),
+"Environmental Information")</f>
+        <v>Environmental Information</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="64"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
+"Mapping the Application")</f>
+        <v>Mapping the Application</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="64"/>
-    </row>
-    <row r="12" spans="2:8" ht="30">
+      <c r="H11" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
+"Principles of Testing")</f>
+        <v>Principles of Testing</v>
+      </c>
+      <c r="I11" s="106" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
+"Penetration Testing (a.k.a. Pentesting)")</f>
+        <v>Penetration Testing (a.k.a. Pentesting)</v>
+      </c>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="33" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="64"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="H12" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04g-Testing-Cryptography.md#cryptographic-policy"),
+"Cryptographic policy")</f>
+        <v>Cryptographic policy</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="33" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="64"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="H13" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-enforced-updating"),
+"Testing enforced updating")</f>
+        <v>Testing enforced updating</v>
+      </c>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="64"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="H14" s="100" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
+"Security Testing and the SDLC")</f>
+        <v>Security Testing and the SDLC</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="2:8" ht="30">
+      <c r="E15" s="35"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="147" t="str">
+      <c r="E16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
 "Testing Local Data Storage")</f>
         <v>Testing Local Data Storage</v>
       </c>
-      <c r="H16" s="64"/>
-    </row>
-    <row r="17" spans="2:8" ht="30">
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+    </row>
+    <row r="17" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="147" t="str">
+      <c r="E17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
 "Testing Local Data Storage")</f>
         <v>Testing Local Data Storage</v>
       </c>
-      <c r="H17" s="64"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="103" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="147" t="str">
+      <c r="E18" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),
 "Checking Logs for Sensitive Data")</f>
         <v>Checking Logs for Sensitive Data</v>
       </c>
-      <c r="H18" s="64"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="147" t="str">
+      <c r="E19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
 "Determining Whether Sensitive Data Is Sent to Third Parties")</f>
         <v>Determining Whether Sensitive Data Is Sent to Third Parties</v>
       </c>
-      <c r="H19" s="64"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="103" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="147" t="str">
+      <c r="E20" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),
 "Finding Sensitive Data in the Keyboard Cache")</f>
         <v>Finding Sensitive Data in the Keyboard Cache</v>
       </c>
-      <c r="H20" s="64"/>
-    </row>
-    <row r="21" spans="2:8" ht="31.5">
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+    </row>
+    <row r="21" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="103" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="147" t="str">
+      <c r="E21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),
 "Determining Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
         <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
       </c>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="2:8" ht="31.5">
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+    </row>
+    <row r="22" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="103" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="147" t="str">
+      <c r="E22" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),
 "Checking for Sensitive Data Disclosed Through the User Interface")</f>
         <v>Checking for Sensitive Data Disclosed Through the User Interface</v>
       </c>
-      <c r="H22" s="64"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="33" t="s">
+      <c r="E23" s="49"/>
+      <c r="F23" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="147" t="str">
+      <c r="H23" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
 "Testing Backups for Sensitive Data")</f>
         <v>Testing Backups for Sensitive Data</v>
       </c>
-      <c r="H23" s="64"/>
-    </row>
-    <row r="24" spans="2:8" ht="31.5">
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+    </row>
+    <row r="24" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="33" t="s">
+      <c r="E24" s="49"/>
+      <c r="F24" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="147" t="str">
+      <c r="H24" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),
 "Testing Auto-Generated Screenshots for Sensitive Information")</f>
         <v>Testing Auto-Generated Screenshots for Sensitive Information</v>
       </c>
-      <c r="H24" s="64"/>
-    </row>
-    <row r="25" spans="2:8" ht="30">
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+    </row>
+    <row r="25" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="E25" s="49"/>
+      <c r="F25" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="147" t="str">
+      <c r="H25" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),
 "Testing Memory for Sensitive Data")</f>
         <v>Testing Memory for Sensitive Data</v>
       </c>
-      <c r="H25" s="64"/>
-    </row>
-    <row r="26" spans="2:8" ht="30">
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+    </row>
+    <row r="26" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="33" t="s">
+      <c r="E26" s="49"/>
+      <c r="F26" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="149" t="str">
+      <c r="H26" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),
 "Local Authentication on iOS")</f>
         <v>Local Authentication on iOS</v>
       </c>
-      <c r="H26" s="64"/>
-    </row>
-    <row r="27" spans="2:8" ht="30">
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+    </row>
+    <row r="27" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="33" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="150" t="str">
+      <c r="H27" s="101" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04i-Testing-user-interaction.md#testing-user-education"),
 "Testing User Education")</f>
         <v>Testing User Education</v>
       </c>
-      <c r="H27" s="64"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="E28" s="35"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="103" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="147" t="str">
+      <c r="E29" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-key-management"),
 "Testing Key Management")</f>
         <v>Testing Key Management</v>
       </c>
-      <c r="H29" s="64"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="103" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="147" t="str">
+      <c r="E30" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),
 "Custom Implementations of Cryptography")</f>
         <v>Custom Implementations of Cryptography</v>
       </c>
-      <c r="H30" s="64"/>
-    </row>
-    <row r="31" spans="2:8" ht="31.5">
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+    </row>
+    <row r="31" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="147" t="str">
+      <c r="E31" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
 "Verifying the Configuration of Cryptographic Standard Algorithms")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
       </c>
-      <c r="H31" s="64"/>
-    </row>
-    <row r="32" spans="2:8" ht="31.5">
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+    </row>
+    <row r="32" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="147" t="str">
+      <c r="E32" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
 "Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
-      <c r="H32" s="64"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="147" t="str">
+      <c r="E33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-key-management"),
 "Testing Key Management")</f>
         <v>Testing Key Management</v>
       </c>
-      <c r="H33" s="64"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="103" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="147" t="str">
+      <c r="E34" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-random-number-generation"),
 "Testing Random Number Generation")</f>
         <v>Testing Random Number Generation</v>
       </c>
-      <c r="H34" s="64"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="2:10" ht="30">
+      <c r="E35" s="35"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="147" t="str">
+      <c r="E36" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
 "Testing Authentication")</f>
         <v>Testing Authentication</v>
       </c>
-      <c r="H36" s="64"/>
-    </row>
-    <row r="37" spans="2:10" ht="30">
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+    </row>
+    <row r="37" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="104" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="147" t="str">
+      <c r="E37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
 "Testing Stateful Session Management")</f>
         <v>Testing Stateful Session Management</v>
       </c>
-      <c r="H37" s="64"/>
-    </row>
-    <row r="38" spans="2:10" ht="30">
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+    </row>
+    <row r="38" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="147" t="str">
+      <c r="E38" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
 "Testing Stateless (Token-Based) Authentication")</f>
         <v>Testing Stateless (Token-Based) Authentication</v>
       </c>
-      <c r="H38" s="64"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="104" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="147" t="str">
+      <c r="E39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="98" t="str">
         <f>HYPERLINK(
 CONCATENATE(
 BASE_URL,
@@ -7474,745 +8362,874 @@
 "User Logout and Session Timeouts")</f>
         <v>User Logout and Session Timeouts</v>
       </c>
-      <c r="H39" s="64"/>
-      <c r="J39" s="50"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="147" t="str">
+      <c r="E40" s="26"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
 "Best Practices for Passwords")</f>
         <v>Best Practices for Passwords</v>
       </c>
-      <c r="H40" s="64"/>
-      <c r="J40" s="50"/>
-    </row>
-    <row r="41" spans="2:10" ht="30">
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="147" t="str">
+      <c r="E41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
 "Running a Password Dictionary Attack")</f>
         <v>Running a Password Dictionary Attack</v>
       </c>
-      <c r="H41" s="64"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="33" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="147" t="str">
+      <c r="H42" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
 "Session Timeout")</f>
         <v>Session Timeout</v>
       </c>
-      <c r="H42" s="64"/>
-    </row>
-    <row r="43" spans="2:10" ht="30">
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+    </row>
+    <row r="43" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="33" t="s">
+      <c r="E43" s="49"/>
+      <c r="F43" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="147" t="str">
+      <c r="H43" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06f-Testing-Local-Authentication.md#testing-local-authentication"),
 "Testing Local Authentication")</f>
         <v>Testing Local Authentication</v>
       </c>
-      <c r="H43" s="64"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="33" t="s">
+      <c r="E44" s="49"/>
+      <c r="F44" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="147" t="str">
+      <c r="H44" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
 "Verifying that 2FA is Enforced")</f>
         <v>Verifying that 2FA is Enforced</v>
       </c>
-      <c r="H44" s="64"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="104" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="33" t="s">
+      <c r="E45" s="49"/>
+      <c r="F45" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="147" t="str">
+      <c r="H45" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
 "2-Factor Authentication and Step-up Authentication")</f>
         <v>2-Factor Authentication and Step-up Authentication</v>
       </c>
-      <c r="H45" s="64"/>
-    </row>
-    <row r="46" spans="2:10" ht="30">
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+    </row>
+    <row r="46" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="104" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="33" t="s">
+      <c r="E46" s="49"/>
+      <c r="F46" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="147" t="str">
+      <c r="H46" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
 "Login Activity and Device Blocking")</f>
         <v>Login Activity and Device Blocking</v>
       </c>
-      <c r="H46" s="64"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="E47" s="35"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="147" t="str">
+      <c r="E48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
 "Verifying Data Encryption on the Network")</f>
         <v>Verifying Data Encryption on the Network</v>
       </c>
-      <c r="H48" s="64"/>
-    </row>
-    <row r="49" spans="2:8" ht="30">
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+    </row>
+    <row r="49" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="147" t="str">
+      <c r="E49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
 "Recommended TLS Settings")</f>
         <v>Recommended TLS Settings</v>
       </c>
-      <c r="H49" s="64"/>
-    </row>
-    <row r="50" spans="2:8" ht="30">
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+    </row>
+    <row r="50" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="104" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="147" t="str">
+      <c r="E50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
 "Testing Custom Certificate Stores and Certificate Pinning")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
-      <c r="H50" s="64"/>
-    </row>
-    <row r="51" spans="2:8" ht="45">
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+    </row>
+    <row r="51" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B51" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="104" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="33" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="147" t="str">
+      <c r="H51" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
 "Testing Custom Certificate Stores and Certificate Pinning")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
-      <c r="H51" s="64"/>
-    </row>
-    <row r="52" spans="2:8" ht="31.5">
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+    </row>
+    <row r="52" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B52" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="104" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="33" t="s">
+      <c r="E52" s="49"/>
+      <c r="F52" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="147" t="str">
+      <c r="H52" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
 "Making Sure that Critical Operations Use Secure Communication Channels")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
       </c>
-      <c r="H52" s="64"/>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="33" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="149" t="str">
+      <c r="H53" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
 "Checking for Weaknesses in Third Party Libraries")</f>
         <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
-      <c r="H53" s="64"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="47"/>
+      <c r="D54" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="36"/>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="E54" s="35"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="147" t="str">
+      <c r="E55" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="33"/>
+      <c r="H55" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-app-permissions"),
 "Testing App Permissions")</f>
         <v>Testing App Permissions</v>
       </c>
-      <c r="H55" s="64"/>
-    </row>
-    <row r="56" spans="2:8" ht="30">
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+    </row>
+    <row r="56" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="147" t="str">
+      <c r="E56" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws"),
 "Injection Flaws")</f>
         <v>Injection Flaws</v>
       </c>
-      <c r="H56" s="64"/>
-    </row>
-    <row r="57" spans="2:8" ht="30">
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+    </row>
+    <row r="57" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B57" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="104" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="147" t="str">
+      <c r="E57" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
 "Testing Custom URL Schemes")</f>
         <v>Testing Custom URL Schemes</v>
       </c>
-      <c r="H57" s="64"/>
-    </row>
-    <row r="58" spans="2:8" ht="30">
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+    </row>
+    <row r="58" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B58" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="149" t="str">
+      <c r="E58" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
 "Testing for Sensitive Functionality Exposure Through IPC")</f>
         <v>Testing for Sensitive Functionality Exposure Through IPC</v>
       </c>
-      <c r="H58" s="64"/>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="104" t="s">
+        <v>321</v>
+      </c>
+      <c r="D59" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="147" t="str">
+      <c r="E59" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),
 "Testing iOS WebViews")</f>
         <v>Testing iOS WebViews</v>
       </c>
-      <c r="H59" s="64"/>
-    </row>
-    <row r="60" spans="2:8" ht="30">
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+    </row>
+    <row r="60" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B60" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="104" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="147" t="str">
+      <c r="E60" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
 "Testing WebView Protocol Handlers")</f>
         <v>Testing WebView Protocol Handlers</v>
       </c>
-      <c r="H60" s="64"/>
-    </row>
-    <row r="61" spans="2:8" ht="31.5">
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+    </row>
+    <row r="61" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B61" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="104" t="s">
+        <v>323</v>
+      </c>
+      <c r="D61" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="147" t="str">
+      <c r="E61" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),
 "Determining Whether Native Methods Are Exposed Through WebViews")</f>
         <v>Determining Whether Native Methods Are Exposed Through WebViews</v>
       </c>
-      <c r="H61" s="64"/>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="147" t="str">
+      <c r="E62" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),
 "Testing Object Persistence")</f>
         <v>Testing Object Persistence</v>
       </c>
-      <c r="H62" s="64"/>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="36"/>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="E63" s="35"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="104" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="147" t="str">
+      <c r="E64" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="33"/>
+      <c r="H64" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
 "Making Sure that the App Is Properly Signed")</f>
         <v>Making Sure that the App Is Properly Signed</v>
       </c>
-      <c r="H64" s="64"/>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="D65" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="147" t="str">
+      <c r="E65" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="33"/>
+      <c r="H65" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
 "Determining Whether the App is Debuggable")</f>
         <v>Determining Whether the App is Debuggable</v>
       </c>
-      <c r="H65" s="64"/>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="104" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="147" t="str">
+      <c r="E66" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
 "Finding Debugging Symbols")</f>
         <v>Finding Debugging Symbols</v>
       </c>
-      <c r="H66" s="64"/>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="147" t="str">
+      <c r="E67" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="33"/>
+      <c r="H67" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
 "Finding Debugging Code and Verbose Error Logging")</f>
         <v>Finding Debugging Code and Verbose Error Logging</v>
       </c>
-      <c r="H67" s="64"/>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="104" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="149" t="str">
+      <c r="E68" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="33"/>
+      <c r="H68" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
 "Checking for Weaknesses in Third Party Libraries")</f>
         <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
-      <c r="H68" s="64"/>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="147" t="str">
+      <c r="E69" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="33"/>
+      <c r="H69" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
 "Testing Exception Handling")</f>
         <v>Testing Exception Handling</v>
       </c>
-      <c r="H69" s="64"/>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="104" t="s">
+        <v>331</v>
+      </c>
+      <c r="D70" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="147" t="str">
+      <c r="E70" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="33"/>
+      <c r="H70" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
 "Testing Exception Handling")</f>
         <v>Testing Exception Handling</v>
       </c>
-      <c r="H70" s="64"/>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="33"/>
-      <c r="G71" s="147" t="str">
+      <c r="E71" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="33"/>
+      <c r="H71" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),
 "Memory Corruption Bugs")</f>
         <v>Memory Corruption Bugs</v>
       </c>
-      <c r="H71" s="64"/>
-    </row>
-    <row r="72" spans="2:8" ht="30">
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+    </row>
+    <row r="72" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B72" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="104" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="33"/>
-      <c r="G72" s="147" t="str">
+      <c r="E72" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="33"/>
+      <c r="H72" s="98" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
 "Make Sure That Free Security Features Are Activated")</f>
         <v>Make Sure That Free Security Features Are Activated</v>
       </c>
-      <c r="H72" s="64"/>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="37"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="39"/>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
-      <c r="H73" s="40"/>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="H73" s="39"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
@@ -8220,17 +9237,21 @@
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="41"/>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="G75" s="41"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="41"/>
@@ -8238,71 +9259,83 @@
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="41"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="42"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="74" t="s">
+      <c r="C78" s="74"/>
+      <c r="D78" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="41"/>
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
       <c r="H78" s="41"/>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="75" t="s">
+      <c r="C79" s="105"/>
+      <c r="D79" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
       <c r="H79" s="41"/>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="75" t="s">
+      <c r="C80" s="105"/>
+      <c r="D80" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="41"/>
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="41"/>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="105"/>
+      <c r="D81" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="D81" s="41"/>
       <c r="E81" s="41"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
-    </row>
-    <row r="82" spans="2:8">
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
@@ -8310,8 +9343,10 @@
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
@@ -8319,8 +9354,10 @@
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -8328,8 +9365,10 @@
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
-    </row>
-    <row r="85" spans="2:8">
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -8337,18 +9376,24 @@
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G5:G26 G28:G72">
+  <mergeCells count="2">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:H26 H28:H72">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",G5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F74:F1048576 H74:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:J1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F27 F29:F34 F36:F46 F48:F53 F64:F72 F5:F14 F55:F62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G29:G34 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8358,481 +9403,543 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="99.75" customWidth="1"/>
-    <col min="6" max="6" width="42.25" style="82" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="99.75" customWidth="1"/>
+    <col min="7" max="7" width="42.25" style="82" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.75">
+    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="27"/>
-      <c r="C3" s="68" t="s">
+      <c r="C1" s="7"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="H3" s="77" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="34"/>
-      <c r="C4" s="70" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="35"/>
       <c r="E4" s="35"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="2:7" ht="30">
+      <c r="F4" s="35"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="148" t="str">
+      <c r="G5" s="99" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),
 "Jailbreak Detection")</f>
         <v>Jailbreak Detection</v>
       </c>
-      <c r="G5" s="64"/>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="102" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="148" t="str">
+      <c r="G6" s="99" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),
 "Anti-Debugging Checks")</f>
         <v>Anti-Debugging Checks</v>
       </c>
-      <c r="G6" s="64"/>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="64"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="102" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="148" t="str">
+      <c r="G7" s="99" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),
 "File Integrity Checks")</f>
         <v>File Integrity Checks</v>
       </c>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="102" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="145" t="s">
+      <c r="G8" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="64"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="102" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="145" t="s">
+      <c r="G9" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="64"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="102" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="145" t="s">
+      <c r="G10" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="2:7" ht="30">
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="145" t="s">
+      <c r="G11" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="64"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="102" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="G12" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="64"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="145" t="s">
+      <c r="G13" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="64"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="64"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="34"/>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="2:7" ht="30">
+      <c r="F14" s="35"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="102" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="148" t="str">
+      <c r="G15" s="99" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),
 "Device Binding")</f>
         <v>Device Binding</v>
       </c>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="64"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="34"/>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="35"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" ht="45">
+      <c r="F16" s="35"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="102" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="145" t="s">
+      <c r="G17" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="64"/>
-    </row>
-    <row r="18" spans="2:7" ht="75">
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="2:8" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="G18" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="64"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="F19" s="39"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="F20" s="41"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="F21" s="41"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="F22" s="41"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="F23" s="41"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="41"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="F24" s="41"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="41"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="F25" s="41"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="105"/>
+      <c r="D26" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="F26" s="41"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="F27" s="41"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="F28" s="41"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="F29" s="41"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="85"/>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="F30" s="41"/>
+      <c r="G30" s="85"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="85"/>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="F31" s="41"/>
+      <c r="G31" s="85"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="85"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="85"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="G8">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",F8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",G8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="G9">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",F9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",G9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="G10">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",F10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="G11">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",F11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",F12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="G13">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",F13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="G17">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",F17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",G17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="G18">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0x05">
-      <formula>NOT(ISERROR(SEARCH("0x05",F18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0x05",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E17:E18 E5:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F17:F18 F5:F13" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8842,28 +9949,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="129.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="59" t="s">
         <v>83</v>
       </c>
@@ -8877,7 +9984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="57" t="s">
         <v>62</v>
       </c>
@@ -8891,7 +9998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="56" t="s">
         <v>63</v>
       </c>
@@ -8905,7 +10012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
         <v>79</v>
       </c>
@@ -8919,7 +10026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
         <v>80</v>
       </c>
@@ -8933,7 +10040,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
         <v>63</v>
       </c>
@@ -8947,7 +10054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>80</v>
       </c>
@@ -8961,7 +10068,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
         <v>63</v>
       </c>
@@ -8975,7 +10082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
         <v>63</v>
       </c>
@@ -8989,7 +10096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
         <v>63</v>
       </c>
@@ -9003,7 +10110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="56" t="s">
         <v>214</v>
       </c>
@@ -9017,7 +10124,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="81" t="s">
         <v>233</v>
       </c>
@@ -9031,18 +10138,32 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="161" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="160">
         <v>43642</v>
       </c>
       <c r="D14" s="94" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="166" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="164">
+        <v>43683</v>
+      </c>
+      <c r="D15" s="165" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E995B9-01E8-4343-B737-A62F79975CD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7CC5DA-2228-4FDC-8AF8-88C6FC39AB7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -807,9 +807,6 @@
     <t>Versión del MASVS</t>
   </si>
   <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
     <t>Las dos filas anteriores se utilizan para construir la base para todos los hipervínculos en las listas de control de Android e iOS.
 Ajuste a su caso de uso específico para actualizar todos los hipervínculos a una versión específica del MSTG</t>
   </si>
@@ -1159,6 +1156,9 @@
     <t>Updates:
 - Adding the MSTG-IDs
 - Covering the V1 MSTG links</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
@@ -2330,163 +2330,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2505,6 +2348,163 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -3822,48 +3822,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="122"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="87" t="s">
@@ -3873,19 +3873,19 @@
       <c r="D10" s="90"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="131"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="92" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="135" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="132" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="93" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -3895,89 +3895,89 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="131"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="91" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="133" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="130"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="89" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
 MSTG_VERSION,
 "/Document/"))</f>
-        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.2/Document/</v>
+        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="127" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129"/>
+      <c r="B15" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="131"/>
+      <c r="D15" s="132"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="116"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="113"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="113"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="113"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="113"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
@@ -3994,37 +3994,37 @@
       <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="113"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="113"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="113"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="113"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="115"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
@@ -4041,37 +4041,37 @@
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="113"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="112" t="s">
+      <c r="B34" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="113"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="113"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="113"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="115"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="129"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
@@ -4081,100 +4081,97 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="109"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="111"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="138"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="108"/>
+      <c r="C40" s="139"/>
       <c r="D40" s="54"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="108"/>
+      <c r="C41" s="139"/>
       <c r="D41" s="54"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="108"/>
+      <c r="C42" s="139"/>
       <c r="D42" s="54"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="108"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="55"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="108"/>
+      <c r="C44" s="139"/>
       <c r="D44" s="54"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="111"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="138"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="108"/>
+      <c r="C46" s="139"/>
       <c r="D46" s="54"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="108"/>
+      <c r="C47" s="139"/>
       <c r="D47" s="54"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="108"/>
+      <c r="C48" s="139"/>
       <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="108"/>
+      <c r="C49" s="139"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="108"/>
+      <c r="C50" s="139"/>
       <c r="D50" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4189,16 +4186,19 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4244,11 +4244,11 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
     </row>
     <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
@@ -4268,11 +4268,11 @@
       </c>
       <c r="H6" s="151"/>
       <c r="I6" s="152"/>
-      <c r="V6" s="133" t="s">
+      <c r="V6" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="134"/>
-      <c r="X6" s="135"/>
+      <c r="W6" s="154"/>
+      <c r="X6" s="155"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
@@ -4287,18 +4287,18 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="136">
+      <c r="G8" s="141">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="V8" s="136">
+      <c r="H8" s="142"/>
+      <c r="I8" s="143"/>
+      <c r="V8" s="141">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="137"/>
-      <c r="X8" s="138"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="143"/>
     </row>
     <row r="9" spans="2:24" ht="91.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="22"/>
@@ -4306,12 +4306,12 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="141"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="141"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="146"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
@@ -4319,12 +4319,12 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="141"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="141"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="146"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="146"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
@@ -4332,19 +4332,19 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="143"/>
-      <c r="X11" s="144"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="149"/>
     </row>
     <row r="12" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
@@ -4368,11 +4368,11 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
@@ -4425,18 +4425,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="146" t="s">
+      <c r="D41" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="146" t="s">
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="148"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="159"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="18" t="s">
@@ -4762,15 +4762,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4811,7 +4811,7 @@
   <dimension ref="B1:K85"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4821,22 +4821,22 @@
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="96.75" style="53" customWidth="1"/>
     <col min="8" max="8" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.58203125" customWidth="1"/>
+    <col min="9" max="9" width="57.4140625" customWidth="1"/>
     <col min="10" max="10" width="30.75" customWidth="1"/>
     <col min="11" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="68" t="s">
         <v>111</v>
@@ -4868,10 +4868,10 @@
       <c r="G3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="162" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="156"/>
+      <c r="I3" s="163"/>
       <c r="J3" s="77" t="s">
         <v>225</v>
       </c>
@@ -4887,8 +4887,8 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="158"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -4896,7 +4896,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>121</v>
@@ -4920,13 +4920,13 @@
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>3</v>
@@ -4938,25 +4938,25 @@
       <c r="H6" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Injection Flaws")</f>
-        <v>Injection Flaws</v>
+"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
+"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="I6" s="106" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws"),
-"Cross-Site Scripting Flaws")</f>
-        <v>Cross-Site Scripting Flaws</v>
+"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
+"Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="J6" s="64"/>
     </row>
     <row r="7" spans="2:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>122</v>
@@ -4980,10 +4980,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>123</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>124</v>
@@ -5034,10 +5034,10 @@
     </row>
     <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>125</v>
@@ -5064,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>126</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>127</v>
@@ -5121,10 +5121,10 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>128</v>
@@ -5139,9 +5139,9 @@
       <c r="H13" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#testing-enforced-updating"),
-"Testing enforced updating")</f>
-        <v>Testing enforced updating</v>
+"0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
+"Testing enforced updating (MSTG-ARCH-9)")</f>
+        <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
@@ -5151,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>129</v>
@@ -5193,10 +5193,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>3</v>
@@ -5220,10 +5220,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>3</v>
@@ -5247,7 +5247,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>130</v>
@@ -5274,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>131</v>
@@ -5301,7 +5301,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>132</v>
@@ -5328,7 +5328,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>133</v>
@@ -5355,7 +5355,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>134</v>
@@ -5382,7 +5382,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" s="49" t="s">
         <v>135</v>
@@ -5409,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D24" s="49" t="s">
         <v>136</v>
@@ -5436,7 +5436,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>137</v>
@@ -5463,7 +5463,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>138</v>
@@ -5490,10 +5490,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="45" t="s">
@@ -5532,10 +5532,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>3</v>
@@ -5559,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="49" t="s">
         <v>139</v>
@@ -5586,7 +5586,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D31" s="49" t="s">
         <v>140</v>
@@ -5613,7 +5613,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>141</v>
@@ -5640,7 +5640,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D33" s="49" t="s">
         <v>142</v>
@@ -5667,7 +5667,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D34" s="49" t="s">
         <v>143</v>
@@ -5709,7 +5709,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>144</v>
@@ -5736,7 +5736,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D37" s="49" t="s">
         <v>145</v>
@@ -5763,7 +5763,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>146</v>
@@ -5791,7 +5791,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>147</v>
@@ -5815,7 +5815,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>148</v>
@@ -5842,7 +5842,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D41" s="49" t="s">
         <v>149</v>
@@ -5869,7 +5869,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D42" s="49" t="s">
         <v>150</v>
@@ -5896,7 +5896,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D43" s="49" t="s">
         <v>151</v>
@@ -5923,7 +5923,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D44" s="49" t="s">
         <v>152</v>
@@ -5950,10 +5950,10 @@
         <v>27</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="45" t="s">
@@ -5977,7 +5977,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>153</v>
@@ -6020,7 +6020,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D48" s="49" t="s">
         <v>154</v>
@@ -6047,7 +6047,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D49" s="49" t="s">
         <v>155</v>
@@ -6074,7 +6074,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>156</v>
@@ -6101,7 +6101,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D51" s="49" t="s">
         <v>157</v>
@@ -6128,7 +6128,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>158</v>
@@ -6152,10 +6152,10 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D53" s="49" t="s">
         <v>159</v>
@@ -6197,7 +6197,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>160</v>
@@ -6224,7 +6224,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D56" s="49" t="s">
         <v>161</v>
@@ -6251,7 +6251,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>162</v>
@@ -6278,7 +6278,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>163</v>
@@ -6305,7 +6305,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D59" s="49" t="s">
         <v>164</v>
@@ -6332,10 +6332,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="104" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>3</v>
@@ -6356,10 +6356,10 @@
     </row>
     <row r="61" spans="2:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C61" s="104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>165</v>
@@ -6383,10 +6383,10 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D62" s="49" t="s">
         <v>166</v>
@@ -6428,10 +6428,10 @@
         <v>56</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>3</v>
@@ -6455,7 +6455,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D65" s="49" t="s">
         <v>167</v>
@@ -6482,7 +6482,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D66" s="49" t="s">
         <v>168</v>
@@ -6509,7 +6509,7 @@
         <v>58</v>
       </c>
       <c r="C67" s="104" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D67" s="49" t="s">
         <v>169</v>
@@ -6536,7 +6536,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D68" s="49" t="s">
         <v>170</v>
@@ -6563,7 +6563,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D69" s="49" t="s">
         <v>171</v>
@@ -6590,7 +6590,7 @@
         <v>36</v>
       </c>
       <c r="C70" s="104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D70" s="49" t="s">
         <v>172</v>
@@ -6617,7 +6617,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D71" s="49" t="s">
         <v>173</v>
@@ -6644,10 +6644,10 @@
         <v>95</v>
       </c>
       <c r="C72" s="104" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>3</v>
@@ -6889,7 +6889,7 @@
         <v>120</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="68" t="s">
         <v>119</v>
@@ -6920,10 +6920,10 @@
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>174</v>
@@ -6945,10 +6945,10 @@
     </row>
     <row r="6" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>175</v>
@@ -6971,10 +6971,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>176</v>
@@ -6996,10 +6996,10 @@
     </row>
     <row r="8" spans="2:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>177</v>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>178</v>
@@ -7046,10 +7046,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>179</v>
@@ -7071,13 +7071,13 @@
     </row>
     <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>3</v>
@@ -7092,10 +7092,10 @@
     </row>
     <row r="12" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>180</v>
@@ -7116,7 +7116,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>181</v>
@@ -7152,10 +7152,10 @@
         <v>60</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>3</v>
@@ -7185,10 +7185,10 @@
     </row>
     <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>182</v>
@@ -7210,13 +7210,13 @@
     </row>
     <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>3</v>
@@ -7361,7 +7361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -7372,7 +7372,7 @@
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="97.25" customWidth="1"/>
     <col min="8" max="8" width="51.25" customWidth="1"/>
-    <col min="9" max="9" width="40.1640625" customWidth="1"/>
+    <col min="9" max="9" width="62" customWidth="1"/>
     <col min="10" max="10" width="30.75" customWidth="1"/>
     <col min="11" max="12" width="10.75" customWidth="1"/>
   </cols>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="68" t="s">
         <v>111</v>
@@ -7420,10 +7420,10 @@
       <c r="G3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="162" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="156"/>
+      <c r="I3" s="163"/>
       <c r="J3" s="77" t="s">
         <v>225</v>
       </c>
@@ -7439,8 +7439,8 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="158"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -7448,7 +7448,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>121</v>
@@ -7472,13 +7472,13 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>3</v>
@@ -7490,25 +7490,25 @@
       <c r="H6" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Injection Flaws")</f>
-        <v>Injection Flaws</v>
+"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
+"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="I6" s="106" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws"),
-"Cross-Site Scripting Flaws")</f>
-        <v>Cross-Site Scripting Flaws</v>
+"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
+"Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="J6" s="64"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>122</v>
@@ -7532,10 +7532,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>123</v>
@@ -7559,10 +7559,10 @@
     </row>
     <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>124</v>
@@ -7586,10 +7586,10 @@
     </row>
     <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>125</v>
@@ -7616,7 +7616,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>126</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>127</v>
@@ -7673,10 +7673,10 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>128</v>
@@ -7691,9 +7691,9 @@
       <c r="H13" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-enforced-updating"),
-"Testing enforced updating")</f>
-        <v>Testing enforced updating</v>
+"0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
+"Testing enforced updating (MSTG-ARCH-9)")</f>
+        <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
@@ -7703,7 +7703,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>129</v>
@@ -7745,10 +7745,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>3</v>
@@ -7772,10 +7772,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>3</v>
@@ -7799,7 +7799,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>130</v>
@@ -7826,7 +7826,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>131</v>
@@ -7853,7 +7853,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>132</v>
@@ -7880,7 +7880,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>133</v>
@@ -7907,7 +7907,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>134</v>
@@ -7934,7 +7934,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" s="49" t="s">
         <v>135</v>
@@ -7961,7 +7961,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D24" s="49" t="s">
         <v>136</v>
@@ -7988,7 +7988,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>137</v>
@@ -8015,7 +8015,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>138</v>
@@ -8042,10 +8042,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="45" t="s">
@@ -8084,10 +8084,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>3</v>
@@ -8111,7 +8111,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="49" t="s">
         <v>139</v>
@@ -8138,7 +8138,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D31" s="49" t="s">
         <v>140</v>
@@ -8165,7 +8165,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>141</v>
@@ -8192,7 +8192,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D33" s="49" t="s">
         <v>142</v>
@@ -8219,7 +8219,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D34" s="49" t="s">
         <v>143</v>
@@ -8261,7 +8261,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>144</v>
@@ -8288,7 +8288,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D37" s="49" t="s">
         <v>145</v>
@@ -8315,7 +8315,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>146</v>
@@ -8342,7 +8342,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>147</v>
@@ -8371,7 +8371,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>148</v>
@@ -8395,7 +8395,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D41" s="49" t="s">
         <v>149</v>
@@ -8422,7 +8422,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D42" s="49" t="s">
         <v>150</v>
@@ -8449,7 +8449,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D43" s="49" t="s">
         <v>151</v>
@@ -8476,7 +8476,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D44" s="49" t="s">
         <v>152</v>
@@ -8503,10 +8503,10 @@
         <v>27</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="45" t="s">
@@ -8530,7 +8530,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>153</v>
@@ -8572,7 +8572,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D48" s="49" t="s">
         <v>154</v>
@@ -8599,7 +8599,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D49" s="49" t="s">
         <v>155</v>
@@ -8626,7 +8626,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>156</v>
@@ -8653,7 +8653,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D51" s="49" t="s">
         <v>157</v>
@@ -8680,7 +8680,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>158</v>
@@ -8704,10 +8704,10 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D53" s="49" t="s">
         <v>159</v>
@@ -8749,7 +8749,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>160</v>
@@ -8776,7 +8776,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D56" s="49" t="s">
         <v>161</v>
@@ -8803,7 +8803,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>162</v>
@@ -8830,7 +8830,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>163</v>
@@ -8857,7 +8857,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D59" s="49" t="s">
         <v>164</v>
@@ -8884,10 +8884,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="104" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>3</v>
@@ -8908,10 +8908,10 @@
     </row>
     <row r="61" spans="2:10" ht="31" x14ac:dyDescent="0.35">
       <c r="B61" s="95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C61" s="104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>165</v>
@@ -8935,10 +8935,10 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C62" s="104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D62" s="49" t="s">
         <v>166</v>
@@ -8980,10 +8980,10 @@
         <v>56</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>3</v>
@@ -9007,7 +9007,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D65" s="49" t="s">
         <v>167</v>
@@ -9034,7 +9034,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D66" s="49" t="s">
         <v>168</v>
@@ -9061,7 +9061,7 @@
         <v>58</v>
       </c>
       <c r="C67" s="104" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D67" s="49" t="s">
         <v>169</v>
@@ -9088,7 +9088,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D68" s="49" t="s">
         <v>170</v>
@@ -9115,7 +9115,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D69" s="49" t="s">
         <v>171</v>
@@ -9142,7 +9142,7 @@
         <v>36</v>
       </c>
       <c r="C70" s="104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D70" s="49" t="s">
         <v>172</v>
@@ -9169,7 +9169,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D71" s="49" t="s">
         <v>173</v>
@@ -9196,10 +9196,10 @@
         <v>95</v>
       </c>
       <c r="C72" s="104" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>3</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="68" t="s">
         <v>119</v>
@@ -9468,10 +9468,10 @@
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>174</v>
@@ -9493,10 +9493,10 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>175</v>
@@ -9518,10 +9518,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>176</v>
@@ -9543,10 +9543,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>177</v>
@@ -9564,10 +9564,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>178</v>
@@ -9585,10 +9585,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>179</v>
@@ -9606,13 +9606,13 @@
     </row>
     <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>3</v>
@@ -9627,10 +9627,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>180</v>
@@ -9651,7 +9651,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>181</v>
@@ -9683,10 +9683,10 @@
         <v>60</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>3</v>
@@ -9716,10 +9716,10 @@
     </row>
     <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>182</v>
@@ -9735,15 +9735,15 @@
       </c>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="2:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>3</v>
@@ -9952,8 +9952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9963,10 +9963,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
@@ -10126,44 +10126,44 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="79">
         <v>43641</v>
       </c>
       <c r="D13" s="80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="109" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="162" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="107">
+        <v>43642</v>
+      </c>
+      <c r="D14" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="160">
-        <v>43642</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="166" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="163" t="s">
+      <c r="A15" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="164">
-        <v>43683</v>
-      </c>
-      <c r="D15" s="165" t="s">
-        <v>346</v>
+      <c r="C15" s="111">
+        <v>43684</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7CC5DA-2228-4FDC-8AF8-88C6FC39AB7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C942429-BBDD-4948-9DF0-0BC110196AE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="349">
   <si>
     <t>ID</t>
   </si>
@@ -1160,6 +1160,12 @@
   <si>
     <t>1.1.3</t>
   </si>
+  <si>
+    <t>Procédure de Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
 </sst>
 </file>
 
@@ -1168,9 +1174,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1414,38 +1427,24 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1984,359 +1983,330 @@
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2346,165 +2316,225 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -3822,71 +3852,71 @@
   <sheetData>
     <row r="1" spans="2:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="121"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="123"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="121"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="123"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="90"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="129"/>
+      <c r="D11" s="87" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="93" t="str">
+      <c r="C12" s="130"/>
+      <c r="D12" s="88" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
 MASVS_VERSION,
@@ -3895,20 +3925,20 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="91" t="s">
+      <c r="C13" s="129"/>
+      <c r="D13" s="86" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="89" t="str">
+      <c r="C14" s="128"/>
+      <c r="D14" s="84" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
 MSTG_VERSION,
@@ -3917,67 +3947,67 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="115"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="117"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="115"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="115"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="115"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="115"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="115"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
@@ -3994,37 +4024,37 @@
       <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="115"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="115"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="115"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="115"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="129"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="113"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
@@ -4041,37 +4071,37 @@
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="115"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="115"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="115"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="115"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="129"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
@@ -4081,97 +4111,100 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="136"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="116" t="s">
+      <c r="B40" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="139"/>
+      <c r="C40" s="106"/>
       <c r="D40" s="54"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="139"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="54"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="139"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="54"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="139"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="55"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="139"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="54"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="136"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="109"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="139"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="54"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="139"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="54"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="139"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="139"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="139"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4186,19 +4219,16 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4244,11 +4274,11 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
@@ -4263,16 +4293,16 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
-      <c r="V6" s="153" t="s">
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
+      <c r="V6" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="154"/>
-      <c r="X6" s="155"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="150"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
@@ -4287,18 +4317,18 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="141">
+      <c r="G8" s="136">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="143"/>
-      <c r="V8" s="141">
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="V8" s="136">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="142"/>
-      <c r="X8" s="143"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="138"/>
     </row>
     <row r="9" spans="2:24" ht="91.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="22"/>
@@ -4306,12 +4336,12 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="146"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="141"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="141"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
@@ -4319,12 +4349,12 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="146"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="146"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="141"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="141"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
@@ -4332,19 +4362,19 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="149"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="144"/>
     </row>
     <row r="12" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
@@ -4368,11 +4398,11 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
@@ -4425,18 +4455,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="157" t="s">
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="159"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="134"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="18" t="s">
@@ -4762,6 +4792,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -4769,8 +4801,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4808,10 +4838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:K85"/>
+  <dimension ref="B1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="I20" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4820,25 +4850,26 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="96.75" style="53" customWidth="1"/>
-    <col min="8" max="8" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.4140625" customWidth="1"/>
-    <col min="10" max="10" width="30.75" customWidth="1"/>
-    <col min="11" max="12" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="101.58203125" customWidth="1"/>
+    <col min="9" max="9" width="83.58203125" customWidth="1"/>
+    <col min="10" max="10" width="71.25" customWidth="1"/>
+    <col min="11" max="11" width="30.75" customWidth="1"/>
+    <col min="12" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="160" t="s">
+    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="151" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="51"/>
@@ -4848,8 +4879,9 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
@@ -4868,15 +4900,16 @@
       <c r="G3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="77" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -4887,15 +4920,16 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="91" t="s">
         <v>271</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -4908,21 +4942,28 @@
         <v>3</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="100" t="str">
+      <c r="H5" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
 "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I5" s="64"/>
+      <c r="I5" s="158" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),
+"Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
+        <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
+      </c>
       <c r="J5" s="64"/>
-    </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="64"/>
+    </row>
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="91" t="s">
         <v>272</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -4935,27 +4976,31 @@
         <v>3</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="100" t="str">
+      <c r="H6" s="159" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="106" t="str">
+      <c r="I6" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="2:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="95" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
+        <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
+      </c>
+      <c r="K6" s="64"/>
+    </row>
+    <row r="7" spans="2:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="91" t="s">
         <v>280</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -4968,7 +5013,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="100" t="str">
+      <c r="H7" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -4977,12 +5022,13 @@
       </c>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="91" t="s">
         <v>273</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -4995,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="100" t="str">
+      <c r="H8" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
@@ -5004,12 +5050,13 @@
       </c>
       <c r="I8" s="64"/>
       <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="91" t="s">
         <v>274</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -5022,7 +5069,7 @@
       <c r="G9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="100" t="str">
+      <c r="H9" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#environmental-information"),
@@ -5031,12 +5078,13 @@
       </c>
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K9" s="64"/>
+    </row>
+    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="91" t="s">
         <v>275</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -5049,7 +5097,7 @@
       <c r="G10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="100" t="str">
+      <c r="H10" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
@@ -5058,12 +5106,13 @@
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="64"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="91" t="s">
         <v>276</v>
       </c>
       <c r="D11" s="32" t="s">
@@ -5076,27 +5125,31 @@
       <c r="G11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="100" t="str">
+      <c r="H11" s="158" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
+        <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
+      </c>
+      <c r="I11" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
 "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="I11" s="106" t="str">
+      <c r="J11" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
 "Penetration Testing (a.k.a. Pentesting)")</f>
         <v>Penetration Testing (a.k.a. Pentesting)</v>
       </c>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K11" s="64"/>
+    </row>
+    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="91" t="s">
         <v>277</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -5109,7 +5162,7 @@
       <c r="G12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="100" t="str">
+      <c r="H12" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptographic-policy"),
@@ -5118,12 +5171,13 @@
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="64"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="91" t="s">
         <v>278</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -5136,7 +5190,7 @@
       <c r="G13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="100" t="str">
+      <c r="H13" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
@@ -5145,12 +5199,13 @@
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="64"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="91" t="s">
         <v>279</v>
       </c>
       <c r="D14" s="32" t="s">
@@ -5163,7 +5218,7 @@
       <c r="G14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="100" t="str">
+      <c r="H14" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
@@ -5172,8 +5227,9 @@
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="64"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
@@ -5184,15 +5240,16 @@
       <c r="E15" s="35"/>
       <c r="F15" s="47"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="160"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="92" t="s">
         <v>281</v>
       </c>
       <c r="D16" s="49" t="s">
@@ -5205,21 +5262,22 @@
         <v>3</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
-"Testing Local Storage for Sensitive Data")</f>
-        <v>Testing Local Storage for Sensitive Data</v>
-      </c>
-      <c r="I16" s="64"/>
+      <c r="H16" s="161" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
+      </c>
+      <c r="I16" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
+      </c>
       <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K16" s="64"/>
+    </row>
+    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="92" t="s">
         <v>282</v>
       </c>
       <c r="D17" s="49" t="s">
@@ -5232,21 +5290,19 @@
         <v>3</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="99" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
-"Testing Local Storage for Sensitive Data")</f>
-        <v>Testing Local Storage for Sensitive Data</v>
+      <c r="H17" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="64"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="92" t="s">
         <v>283</v>
       </c>
       <c r="D18" s="49" t="s">
@@ -5259,21 +5315,19 @@
         <v>3</v>
       </c>
       <c r="G18" s="33"/>
-      <c r="H18" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),
-"Testing Logs for Sensitive Data")</f>
-        <v>Testing Logs for Sensitive Data</v>
+      <c r="H18" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data-mstg-storage-3"),"Testing Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
+        <v>Testing Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="64"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="92" t="s">
         <v>284</v>
       </c>
       <c r="D19" s="49" t="s">
@@ -5286,21 +5340,19 @@
         <v>3</v>
       </c>
       <c r="G19" s="33"/>
-      <c r="H19" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
-"Determining Whether Sensitive Data is Sent to Third Parties")</f>
-        <v>Determining Whether Sensitive Data is Sent to Third Parties</v>
+      <c r="H19" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)")</f>
+        <v>Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="64"/>
-    </row>
-    <row r="20" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K19" s="64"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="92" t="s">
         <v>285</v>
       </c>
       <c r="D20" s="49" t="s">
@@ -5313,21 +5365,19 @@
         <v>3</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="H20" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),
-"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
-        <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
+      <c r="H20" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields-mstg-storage-5"),"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)")</f>
+        <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)</v>
       </c>
       <c r="I20" s="64"/>
       <c r="J20" s="64"/>
-    </row>
-    <row r="21" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K20" s="64"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="103" t="s">
+      <c r="C21" s="92" t="s">
         <v>286</v>
       </c>
       <c r="D21" s="49" t="s">
@@ -5340,21 +5390,19 @@
         <v>3</v>
       </c>
       <c r="G21" s="33"/>
-      <c r="H21" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),
-"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms")</f>
-        <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms</v>
+      <c r="H21" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
+        <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
       <c r="I21" s="64"/>
       <c r="J21" s="64"/>
-    </row>
-    <row r="22" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K21" s="64"/>
+    </row>
+    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="92" t="s">
         <v>287</v>
       </c>
       <c r="D22" s="49" t="s">
@@ -5367,21 +5415,19 @@
         <v>3</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="H22" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),
-"Checking for Sensitive Data Disclosure Through the User Interface")</f>
-        <v>Checking for Sensitive Data Disclosure Through the User Interface</v>
+      <c r="H22" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)")</f>
+        <v>Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
       <c r="I22" s="64"/>
       <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="64"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="92" t="s">
         <v>288</v>
       </c>
       <c r="D23" s="49" t="s">
@@ -5394,21 +5440,19 @@
       <c r="G23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
-"Testing Backups for Sensitive Data")</f>
-        <v>Testing Backups for Sensitive Data</v>
+      <c r="H23" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
+        <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="64"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="92" t="s">
         <v>289</v>
       </c>
       <c r="D24" s="49" t="s">
@@ -5421,21 +5465,19 @@
       <c r="G24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),
-"Finding Sensitive Information in Auto-Generated Screenshots")</f>
-        <v>Finding Sensitive Information in Auto-Generated Screenshots</v>
+      <c r="H24" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)")</f>
+        <v>Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)</v>
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="64"/>
-    </row>
-    <row r="25" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="64"/>
+    </row>
+    <row r="25" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="92" t="s">
         <v>290</v>
       </c>
       <c r="D25" s="49" t="s">
@@ -5448,21 +5490,19 @@
       <c r="G25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),
-"Checking Memory for Sensitive Data")</f>
-        <v>Checking Memory for Sensitive Data</v>
+      <c r="H25" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"Checking Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
+        <v>Checking Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
       <c r="I25" s="64"/>
       <c r="J25" s="64"/>
-    </row>
-    <row r="26" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K25" s="64"/>
+    </row>
+    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="92" t="s">
         <v>291</v>
       </c>
       <c r="D26" s="49" t="s">
@@ -5475,21 +5515,22 @@
       <c r="G26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy"),
-"Testing the Device-Access-Security Policy")</f>
-        <v>Testing the Device-Access-Security Policy</v>
-      </c>
-      <c r="I26" s="64"/>
+      <c r="H26" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"Testing the Device-Access-Security Policy (MSTG-STORAGE-11)")</f>
+        <v>Testing the Device-Access-Security Policy (MSTG-STORAGE-11)</v>
+      </c>
+      <c r="I26" s="95" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
+        <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
+      </c>
       <c r="J26" s="64"/>
-    </row>
-    <row r="27" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="92" t="s">
         <v>292</v>
       </c>
       <c r="D27" s="49" t="s">
@@ -5502,17 +5543,15 @@
       <c r="G27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04i-Testing-user-interaction.md#testing-user-education"),
-"Testing User Education")</f>
-        <v>Testing User Education</v>
+      <c r="H27" s="164" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
+        <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
       <c r="I27" s="64"/>
       <c r="J27" s="64"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -5523,15 +5562,16 @@
       <c r="E28" s="35"/>
       <c r="F28" s="47"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="160"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="92" t="s">
         <v>293</v>
       </c>
       <c r="D29" s="49" t="s">
@@ -5544,21 +5584,22 @@
         <v>3</v>
       </c>
       <c r="G29" s="33"/>
-      <c r="H29" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05e-Testing-Cryptography.md#testing-key-management"),
-"Testing Key Management")</f>
-        <v>Testing Key Management</v>
-      </c>
-      <c r="I29" s="64"/>
+      <c r="H29" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
+      </c>
+      <c r="I29" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
+      </c>
       <c r="J29" s="64"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="64"/>
+    </row>
+    <row r="30" spans="2:11" ht="31" x14ac:dyDescent="0.35">
       <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="92" t="s">
         <v>294</v>
       </c>
       <c r="D30" s="49" t="s">
@@ -5571,21 +5612,22 @@
         <v>3</v>
       </c>
       <c r="G30" s="33"/>
-      <c r="H30" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),
-"Cryptography for Mobile Apps")</f>
-        <v>Cryptography for Mobile Apps</v>
-      </c>
-      <c r="I30" s="64"/>
+      <c r="H30" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
+      </c>
+      <c r="I30" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
+        <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
+      </c>
       <c r="J30" s="64"/>
-    </row>
-    <row r="31" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K30" s="64"/>
+    </row>
+    <row r="31" spans="2:11" ht="31" x14ac:dyDescent="0.35">
       <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="92" t="s">
         <v>295</v>
       </c>
       <c r="D31" s="49" t="s">
@@ -5598,21 +5640,22 @@
         <v>3</v>
       </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
-"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
-        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
-      </c>
-      <c r="I31" s="64"/>
+      <c r="H31" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
+        <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
+      </c>
+      <c r="I31" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
+      </c>
       <c r="J31" s="64"/>
-    </row>
-    <row r="32" spans="2:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="64"/>
+    </row>
+    <row r="32" spans="2:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="92" t="s">
         <v>296</v>
       </c>
       <c r="D32" s="49" t="s">
@@ -5625,21 +5668,22 @@
         <v>3</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
-"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
-        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
-      </c>
-      <c r="I32" s="64"/>
+      <c r="H32" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
+      </c>
+      <c r="I32" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
+        <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
+      </c>
       <c r="J32" s="64"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="64"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="92" t="s">
         <v>297</v>
       </c>
       <c r="D33" s="49" t="s">
@@ -5652,21 +5696,19 @@
         <v>3</v>
       </c>
       <c r="G33" s="33"/>
-      <c r="H33" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05e-Testing-Cryptography.md#testing-key-management"),
-"Testing Key Management")</f>
-        <v>Testing Key Management</v>
+      <c r="H33" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
       <c r="I33" s="64"/>
       <c r="J33" s="64"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K33" s="64"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="92" t="s">
         <v>298</v>
       </c>
       <c r="D34" s="49" t="s">
@@ -5679,17 +5721,15 @@
         <v>3</v>
       </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05e-Testing-Cryptography.md#testing-random-number-generation"),
-"Testing Random Number Generation")</f>
-        <v>Testing Random Number Generation</v>
+      <c r="H34" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6"),"Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
+        <v>Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
       <c r="I34" s="64"/>
       <c r="J34" s="64"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K34" s="64"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
@@ -5700,15 +5740,16 @@
       <c r="E35" s="35"/>
       <c r="F35" s="47"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="97"/>
+      <c r="H35" s="160"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B36" s="95" t="s">
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="93" t="s">
         <v>299</v>
       </c>
       <c r="D36" s="49" t="s">
@@ -5721,21 +5762,25 @@
         <v>3</v>
       </c>
       <c r="G36" s="33"/>
-      <c r="H36" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
-"Testing Authentication")</f>
-        <v>Testing Authentication</v>
-      </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-    </row>
-    <row r="37" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B37" s="95" t="s">
+      <c r="H36" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
+        <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
+      </c>
+      <c r="I36" s="95" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
+        <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
+      </c>
+      <c r="J36" s="95" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
+      <c r="K36" s="64"/>
+    </row>
+    <row r="37" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="93" t="s">
         <v>300</v>
       </c>
       <c r="D37" s="49" t="s">
@@ -5748,21 +5793,19 @@
         <v>3</v>
       </c>
       <c r="G37" s="33"/>
-      <c r="H37" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
-"Testing Stateful Session Management")</f>
-        <v>Testing Stateful Session Management</v>
+      <c r="H37" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
+        <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
       <c r="I37" s="64"/>
       <c r="J37" s="64"/>
-    </row>
-    <row r="38" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="95" t="s">
+      <c r="K37" s="64"/>
+    </row>
+    <row r="38" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="93" t="s">
         <v>301</v>
       </c>
       <c r="D38" s="49" t="s">
@@ -5775,22 +5818,23 @@
         <v>3</v>
       </c>
       <c r="G38" s="33"/>
-      <c r="H38" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
-"Testing Stateless (Token-Based) Authentication")</f>
-        <v>Testing Stateless (Token-Based) Authentication</v>
-      </c>
-      <c r="I38" s="64"/>
+      <c r="H38" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
+        <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
+      </c>
+      <c r="I38" s="95" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
       <c r="J38" s="64"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="95" t="s">
+      <c r="K38" s="64"/>
+      <c r="L38" s="50"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="93" t="s">
         <v>302</v>
       </c>
       <c r="D39" s="49" t="s">
@@ -5799,22 +5843,20 @@
       <c r="E39" s="26"/>
       <c r="F39" s="45"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
-"User Logout and Session Timeouts")</f>
-        <v>User Logout and Session Timeouts</v>
+      <c r="H39" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
+        <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
       <c r="I39" s="64"/>
       <c r="J39" s="64"/>
-      <c r="K39" s="50"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="95" t="s">
+      <c r="K39" s="64"/>
+      <c r="L39" s="50"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="93" t="s">
         <v>303</v>
       </c>
       <c r="D40" s="49" t="s">
@@ -5827,21 +5869,19 @@
         <v>3</v>
       </c>
       <c r="G40" s="33"/>
-      <c r="H40" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
-"Best Practices for Passwords")</f>
-        <v>Best Practices for Passwords</v>
+      <c r="H40" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
+        <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
       <c r="I40" s="64"/>
       <c r="J40" s="64"/>
-    </row>
-    <row r="41" spans="2:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="95" t="s">
+      <c r="K40" s="64"/>
+    </row>
+    <row r="41" spans="2:12" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="93" t="s">
         <v>304</v>
       </c>
       <c r="D41" s="49" t="s">
@@ -5854,21 +5894,22 @@
         <v>3</v>
       </c>
       <c r="G41" s="33"/>
-      <c r="H41" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
-"Running a Password Dictionary Attack")</f>
-        <v>Running a Password Dictionary Attack</v>
-      </c>
-      <c r="I41" s="64"/>
+      <c r="H41" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
+        <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
+      </c>
+      <c r="I41" s="95" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
+        <v>Dynamic Testing (MSTG-AUTH-6)</v>
+      </c>
       <c r="J41" s="64"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="95" t="s">
+      <c r="K41" s="64"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="93" t="s">
         <v>305</v>
       </c>
       <c r="D42" s="49" t="s">
@@ -5881,21 +5922,19 @@
       <c r="G42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H42" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
-"Session Timeout")</f>
-        <v>Session Timeout</v>
-      </c>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-    </row>
-    <row r="43" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B43" s="95" t="s">
+      <c r="H42" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
+        <v>Testing Session Timeout (MSTG-AUTH-7)</v>
+      </c>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
+      <c r="K42" s="64"/>
+    </row>
+    <row r="43" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="93" t="s">
         <v>306</v>
       </c>
       <c r="D43" s="49" t="s">
@@ -5908,21 +5947,19 @@
       <c r="G43" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication"),
-"Testing Biometric Authentication")</f>
-        <v>Testing Biometric Authentication</v>
+      <c r="H43" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"Testing Biometric Authentication (MSTG-AUTH-8)")</f>
+        <v>Testing Biometric Authentication (MSTG-AUTH-8)</v>
       </c>
       <c r="I43" s="64"/>
       <c r="J43" s="64"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="95" t="s">
+      <c r="K43" s="64"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="104" t="s">
+      <c r="C44" s="93" t="s">
         <v>307</v>
       </c>
       <c r="D44" s="49" t="s">
@@ -5935,21 +5972,19 @@
       <c r="G44" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
-"Verifying that 2FA is Enforced")</f>
-        <v>Verifying that 2FA is Enforced</v>
+      <c r="H44" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
       <c r="I44" s="64"/>
       <c r="J44" s="64"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="95" t="s">
+      <c r="K44" s="64"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="93" t="s">
         <v>308</v>
       </c>
       <c r="D45" s="49" t="s">
@@ -5962,21 +5997,19 @@
       <c r="G45" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
-"2-Factor Authentication and Step-up Authentication")</f>
-        <v>2-Factor Authentication and Step-up Authentication</v>
+      <c r="H45" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
       <c r="I45" s="64"/>
       <c r="J45" s="64"/>
-    </row>
-    <row r="46" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B46" s="95" t="s">
+      <c r="K45" s="64"/>
+    </row>
+    <row r="46" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="93" t="s">
         <v>309</v>
       </c>
       <c r="D46" s="49" t="s">
@@ -5989,18 +6022,15 @@
       <c r="G46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="98" t="str">
-        <f>HYPERLINK(
-CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
-"Login Activity and Device Blocking")</f>
-        <v>Login Activity and Device Blocking</v>
+      <c r="H46" s="165" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
+        <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
       <c r="I46" s="64"/>
       <c r="J46" s="64"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K46" s="64"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
@@ -6011,15 +6041,16 @@
       <c r="E47" s="35"/>
       <c r="F47" s="47"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="97"/>
+      <c r="H47" s="160"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="95" t="s">
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="93" t="s">
         <v>310</v>
       </c>
       <c r="D48" s="49" t="s">
@@ -6032,21 +6063,19 @@
         <v>3</v>
       </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
-"Verifying Data Encryption on the Network")</f>
-        <v>Verifying Data Encryption on the Network</v>
+      <c r="H48" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
+        <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
       <c r="I48" s="64"/>
       <c r="J48" s="64"/>
-    </row>
-    <row r="49" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B49" s="95" t="s">
+      <c r="K48" s="64"/>
+    </row>
+    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B49" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="93" t="s">
         <v>311</v>
       </c>
       <c r="D49" s="49" t="s">
@@ -6059,21 +6088,19 @@
         <v>3</v>
       </c>
       <c r="G49" s="33"/>
-      <c r="H49" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
-"Recommended TLS Settings")</f>
-        <v>Recommended TLS Settings</v>
+      <c r="H49" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
+        <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
       <c r="I49" s="64"/>
       <c r="J49" s="64"/>
-    </row>
-    <row r="50" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B50" s="95" t="s">
+      <c r="K49" s="64"/>
+    </row>
+    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B50" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="93" t="s">
         <v>312</v>
       </c>
       <c r="D50" s="49" t="s">
@@ -6086,21 +6113,19 @@
         <v>3</v>
       </c>
       <c r="G50" s="33"/>
-      <c r="H50" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification"),
-"Testing Endpoint Identify Verification")</f>
-        <v>Testing Endpoint Identify Verification</v>
-      </c>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-    </row>
-    <row r="51" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="95" t="s">
+      <c r="H50" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification-mstg-network-3"),"Testing Endpoint Identify Verification (MSTG-NETWORK-3)")</f>
+        <v>Testing Endpoint Identify Verification (MSTG-NETWORK-3)</v>
+      </c>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="64"/>
+    </row>
+    <row r="51" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="104" t="s">
+      <c r="C51" s="93" t="s">
         <v>313</v>
       </c>
       <c r="D51" s="49" t="s">
@@ -6113,21 +6138,22 @@
       <c r="G51" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and Certificate Pinning")</f>
-        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
-      </c>
-      <c r="I51" s="64"/>
+      <c r="H51" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)</v>
+      </c>
+      <c r="I51" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration settings (MSTG-NETWORK-4)")</f>
+        <v>Testing the Network Security Configuration settings (MSTG-NETWORK-4)</v>
+      </c>
       <c r="J51" s="64"/>
-    </row>
-    <row r="52" spans="2:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="B52" s="95" t="s">
+      <c r="K51" s="64"/>
+    </row>
+    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B52" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="93" t="s">
         <v>314</v>
       </c>
       <c r="D52" s="49" t="s">
@@ -6140,21 +6166,19 @@
       <c r="G52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
-"Making Sure that Critical Operations Use Secure Communication Channels")</f>
-        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
+      <c r="H52" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
       <c r="I52" s="64"/>
       <c r="J52" s="64"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="95" t="s">
+      <c r="K52" s="64"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B53" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="104" t="s">
+      <c r="C53" s="93" t="s">
         <v>315</v>
       </c>
       <c r="D53" s="49" t="s">
@@ -6167,17 +6191,15 @@
       <c r="G53" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05g-Testing-Network-Communication.md#testing-the-security-provider"),
-"Testing the Security Provider")</f>
-        <v>Testing the Security Provider</v>
+      <c r="H53" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"Testing the Security Provider (MSTG-NETWORK-6)")</f>
+        <v>Testing the Security Provider (MSTG-NETWORK-6)</v>
       </c>
       <c r="I53" s="64"/>
       <c r="J53" s="64"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="64"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
@@ -6188,15 +6210,16 @@
       <c r="E54" s="35"/>
       <c r="F54" s="47"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="97"/>
+      <c r="H54" s="160"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="95" t="s">
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B55" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="93" t="s">
         <v>316</v>
       </c>
       <c r="D55" s="49" t="s">
@@ -6209,21 +6232,19 @@
         <v>3</v>
       </c>
       <c r="G55" s="33"/>
-      <c r="H55" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#testing-app-permissions"),
-"Testing App Permissions")</f>
-        <v>Testing App Permissions</v>
+      <c r="H55" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
+        <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
       <c r="I55" s="64"/>
       <c r="J55" s="64"/>
-    </row>
-    <row r="56" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B56" s="95" t="s">
+      <c r="K55" s="64"/>
+    </row>
+    <row r="56" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B56" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="93" t="s">
         <v>317</v>
       </c>
       <c r="D56" s="49" t="s">
@@ -6236,21 +6257,22 @@
         <v>3</v>
       </c>
       <c r="G56" s="33"/>
-      <c r="H56" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Injection Flaws")</f>
-        <v>Injection Flaws</v>
-      </c>
-      <c r="I56" s="64"/>
+      <c r="H56" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-injection-flaws-mstg-platform-2"),"Testing for Injection Flaws (MSTG-PLATFORM-2)")</f>
+        <v>Testing for Injection Flaws (MSTG-PLATFORM-2)</v>
+      </c>
+      <c r="I56" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-fragment-injection-mstg-platform-2"),"Testing for Fragment Injection (MSTG-PLATFORM-2)")</f>
+        <v>Testing for Fragment Injection (MSTG-PLATFORM-2)</v>
+      </c>
       <c r="J56" s="64"/>
-    </row>
-    <row r="57" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B57" s="95" t="s">
+      <c r="K56" s="64"/>
+    </row>
+    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B57" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="104" t="s">
+      <c r="C57" s="93" t="s">
         <v>318</v>
       </c>
       <c r="D57" s="49" t="s">
@@ -6263,21 +6285,19 @@
         <v>3</v>
       </c>
       <c r="G57" s="33"/>
-      <c r="H57" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
-"Testing Custom URL Schemes")</f>
-        <v>Testing Custom URL Schemes</v>
+      <c r="H57" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
+        <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
       <c r="I57" s="64"/>
       <c r="J57" s="64"/>
-    </row>
-    <row r="58" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B58" s="95" t="s">
+      <c r="K57" s="64"/>
+    </row>
+    <row r="58" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B58" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="93" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="49" t="s">
@@ -6290,21 +6310,19 @@
         <v>3</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
-"Testing for Sensitive Functionality Exposure Through IPC")</f>
-        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
+      <c r="H58" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),"Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
       <c r="I58" s="64"/>
       <c r="J58" s="64"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="95" t="s">
+      <c r="K58" s="64"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B59" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="104" t="s">
+      <c r="C59" s="93" t="s">
         <v>320</v>
       </c>
       <c r="D59" s="49" t="s">
@@ -6317,21 +6335,19 @@
         <v>3</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews"),
-"Testing JavaScript Execution in WebViews")</f>
-        <v>Testing JavaScript Execution in WebViews</v>
+      <c r="H59" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5"),"Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)")</f>
+        <v>Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)</v>
       </c>
       <c r="I59" s="64"/>
       <c r="J59" s="64"/>
-    </row>
-    <row r="60" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B60" s="95" t="s">
+      <c r="K59" s="64"/>
+    </row>
+    <row r="60" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B60" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="104" t="s">
+      <c r="C60" s="93" t="s">
         <v>321</v>
       </c>
       <c r="D60" s="49" t="s">
@@ -6344,21 +6360,19 @@
         <v>3</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
-"Testing WebView Protocol Handlers")</f>
-        <v>Testing WebView Protocol Handlers</v>
+      <c r="H60" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
+        <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
       <c r="I60" s="64"/>
       <c r="J60" s="64"/>
-    </row>
-    <row r="61" spans="2:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="95" t="s">
+      <c r="K60" s="64"/>
+    </row>
+    <row r="61" spans="2:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="C61" s="104" t="s">
+      <c r="C61" s="93" t="s">
         <v>322</v>
       </c>
       <c r="D61" s="49" t="s">
@@ -6371,21 +6385,19 @@
         <v>3</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),
-"Determining Whether Java Objects Are Exposed Through WebViews")</f>
-        <v>Determining Whether Java Objects Are Exposed Through WebViews</v>
+      <c r="H61" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
+        <v>Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
       <c r="I61" s="64"/>
       <c r="J61" s="64"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="95" t="s">
+      <c r="K61" s="64"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B62" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="C62" s="104" t="s">
+      <c r="C62" s="93" t="s">
         <v>323</v>
       </c>
       <c r="D62" s="49" t="s">
@@ -6398,17 +6410,15 @@
         <v>3</v>
       </c>
       <c r="G62" s="33"/>
-      <c r="H62" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),
-"Testing Object Persistence")</f>
-        <v>Testing Object Persistence</v>
+      <c r="H62" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
+        <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
       <c r="I62" s="64"/>
       <c r="J62" s="64"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="64"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
@@ -6419,15 +6429,16 @@
       <c r="E63" s="35"/>
       <c r="F63" s="47"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="97"/>
+      <c r="H63" s="160"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="2:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="95" t="s">
+      <c r="K63" s="36"/>
+    </row>
+    <row r="64" spans="2:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="93" t="s">
         <v>324</v>
       </c>
       <c r="D64" s="49" t="s">
@@ -6440,21 +6451,19 @@
         <v>3</v>
       </c>
       <c r="G64" s="33"/>
-      <c r="H64" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
-"Making Sure That the App is Properly Signed")</f>
-        <v>Making Sure That the App is Properly Signed</v>
+      <c r="H64" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure That the App is Properly Signed (MSTG-CODE-1)")</f>
+        <v>Making Sure That the App is Properly Signed (MSTG-CODE-1)</v>
       </c>
       <c r="I64" s="64"/>
       <c r="J64" s="64"/>
-    </row>
-    <row r="65" spans="2:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="95" t="s">
+      <c r="K64" s="64"/>
+    </row>
+    <row r="65" spans="2:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="104" t="s">
+      <c r="C65" s="93" t="s">
         <v>325</v>
       </c>
       <c r="D65" s="49" t="s">
@@ -6467,21 +6476,19 @@
         <v>3</v>
       </c>
       <c r="G65" s="33"/>
-      <c r="H65" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
-"Determining Whether the App is Debuggable")</f>
-        <v>Determining Whether the App is Debuggable</v>
+      <c r="H65" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2"),"Testing Whether the App is Debuggable (MSTG-CODE-2)")</f>
+        <v>Testing Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
       <c r="I65" s="64"/>
       <c r="J65" s="64"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="95" t="s">
+      <c r="K65" s="64"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B66" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="104" t="s">
+      <c r="C66" s="93" t="s">
         <v>326</v>
       </c>
       <c r="D66" s="49" t="s">
@@ -6494,21 +6501,19 @@
         <v>3</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
-"Finding Debugging Symbols")</f>
-        <v>Finding Debugging Symbols</v>
+      <c r="H66" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3"),"Testing for Debugging Symbols (MSTG-CODE-3)")</f>
+        <v>Testing for Debugging Symbols (MSTG-CODE-3)</v>
       </c>
       <c r="I66" s="64"/>
       <c r="J66" s="64"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="95" t="s">
+      <c r="K66" s="64"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B67" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="104" t="s">
+      <c r="C67" s="93" t="s">
         <v>327</v>
       </c>
       <c r="D67" s="49" t="s">
@@ -6521,21 +6526,19 @@
         <v>3</v>
       </c>
       <c r="G67" s="33"/>
-      <c r="H67" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
-"Finding Debugging Code and Verbose Error Logging")</f>
-        <v>Finding Debugging Code and Verbose Error Logging</v>
+      <c r="H67" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4"),"Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
+        <v>Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
       <c r="I67" s="64"/>
       <c r="J67" s="64"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="95" t="s">
+      <c r="K67" s="64"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B68" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="104" t="s">
+      <c r="C68" s="93" t="s">
         <v>328</v>
       </c>
       <c r="D68" s="49" t="s">
@@ -6548,21 +6551,19 @@
         <v>3</v>
       </c>
       <c r="G68" s="33"/>
-      <c r="H68" s="100" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Checking for Weaknesses in Third Party Libraries")</f>
-        <v>Checking for Weaknesses in Third Party Libraries</v>
+      <c r="H68" s="165" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
+        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I68" s="64"/>
       <c r="J68" s="64"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="95" t="s">
+      <c r="K68" s="64"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B69" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="104" t="s">
+      <c r="C69" s="93" t="s">
         <v>329</v>
       </c>
       <c r="D69" s="49" t="s">
@@ -6575,21 +6576,19 @@
         <v>3</v>
       </c>
       <c r="G69" s="33"/>
-      <c r="H69" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing Exception Handling")</f>
-        <v>Testing Exception Handling</v>
+      <c r="H69" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
       <c r="I69" s="64"/>
       <c r="J69" s="64"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="95" t="s">
+      <c r="K69" s="64"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B70" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="104" t="s">
+      <c r="C70" s="93" t="s">
         <v>330</v>
       </c>
       <c r="D70" s="49" t="s">
@@ -6602,21 +6601,19 @@
         <v>3</v>
       </c>
       <c r="G70" s="33"/>
-      <c r="H70" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing Exception Handling")</f>
-        <v>Testing Exception Handling</v>
+      <c r="H70" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
       <c r="I70" s="64"/>
       <c r="J70" s="64"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="95" t="s">
+      <c r="K70" s="64"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B71" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="104" t="s">
+      <c r="C71" s="93" t="s">
         <v>331</v>
       </c>
       <c r="D71" s="49" t="s">
@@ -6629,21 +6626,19 @@
         <v>3</v>
       </c>
       <c r="G71" s="33"/>
-      <c r="H71" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),
-"Memory Corruption Bugs")</f>
-        <v>Memory Corruption Bugs</v>
+      <c r="H71" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
+        <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
       <c r="I71" s="64"/>
       <c r="J71" s="64"/>
-    </row>
-    <row r="72" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B72" s="95" t="s">
+      <c r="K71" s="64"/>
+    </row>
+    <row r="72" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B72" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="104" t="s">
+      <c r="C72" s="93" t="s">
         <v>332</v>
       </c>
       <c r="D72" s="49" t="s">
@@ -6656,17 +6651,15 @@
         <v>3</v>
       </c>
       <c r="G72" s="33"/>
-      <c r="H72" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
-"Make Sure That Free Security Features Are Activated")</f>
-        <v>Make Sure That Free Security Features Are Activated</v>
+      <c r="H72" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
+        <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
       <c r="I72" s="64"/>
       <c r="J72" s="64"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="64"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="37"/>
       <c r="C73" s="39"/>
       <c r="D73" s="38"/>
@@ -6676,8 +6669,9 @@
       <c r="H73" s="39"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="42"/>
@@ -6687,8 +6681,9 @@
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="41"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="49"/>
@@ -6698,8 +6693,9 @@
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K75" s="41"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="42"/>
@@ -6709,8 +6705,9 @@
       <c r="H76" s="41"/>
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K76" s="41"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="73" t="s">
         <v>215</v>
       </c>
@@ -6722,8 +6719,9 @@
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="41"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="74" t="s">
         <v>220</v>
       </c>
@@ -6737,12 +6735,13 @@
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="105"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="75" t="s">
         <v>217</v>
       </c>
@@ -6752,12 +6751,13 @@
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K79" s="41"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="105"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="75" t="s">
         <v>218</v>
       </c>
@@ -6767,12 +6767,13 @@
       <c r="H80" s="41"/>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="41"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="105"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="75" t="s">
         <v>219</v>
       </c>
@@ -6782,8 +6783,9 @@
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="41"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
       <c r="D82" s="42"/>
@@ -6791,10 +6793,11 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
       <c r="H82" s="41"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I82" s="166"/>
+      <c r="J82" s="166"/>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
@@ -6802,10 +6805,11 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I83" s="166"/>
+      <c r="J83" s="166"/>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
       <c r="D84" s="42"/>
@@ -6813,28 +6817,30 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I84" s="166"/>
+      <c r="J84" s="166"/>
+      <c r="K84" s="24"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="52"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
+      <c r="H85" s="166"/>
+      <c r="I85" s="166"/>
+      <c r="J85" s="166"/>
+      <c r="K85" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:J1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G34 G16:G27 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62" xr:uid="{00000000-0002-0000-0200-000001000000}">
@@ -6851,7 +6857,7 @@
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C13" activeCellId="8" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6860,7 +6866,7 @@
     <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="93.25" customWidth="1"/>
-    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="69.25" customWidth="1"/>
     <col min="8" max="8" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6872,7 +6878,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="82"/>
+      <c r="G1" s="166"/>
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
@@ -6881,7 +6887,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="82"/>
+      <c r="G2" s="166"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
@@ -6900,8 +6906,8 @@
       <c r="F3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="76" t="s">
-        <v>224</v>
+      <c r="G3" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="H3" s="77" t="s">
         <v>225</v>
@@ -6915,14 +6921,14 @@
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="169"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="91" t="s">
         <v>333</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -6934,12 +6940,9 @@
       <c r="F5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection"),
-"Testing Root Detection")</f>
-        <v>Testing Root Detection</v>
+      <c r="G5" s="170" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1"),"Testing Root Detection (MSTG-RESILIENCE-1)")</f>
+        <v>Testing Root Detection (MSTG-RESILIENCE-1)</v>
       </c>
       <c r="H5" s="64"/>
     </row>
@@ -6947,7 +6950,7 @@
       <c r="B6" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="91" t="s">
         <v>344</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -6959,13 +6962,9 @@
       <c r="F6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="98" t="str">
-        <f>HYPERLINK(
-CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging"),
-"Testing Anti-Debugging")</f>
-        <v>Testing Anti-Debugging</v>
+      <c r="G6" s="171" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2"),"Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)")</f>
+        <v>Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)</v>
       </c>
       <c r="H6" s="64"/>
     </row>
@@ -6973,7 +6972,7 @@
       <c r="B7" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="91" t="s">
         <v>334</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -6985,20 +6984,17 @@
       <c r="F7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks"),
-"Testing File Integrity Checks")</f>
-        <v>Testing File Integrity Checks</v>
+      <c r="G7" s="170" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3"),"Testing File Integrity Checks (MSTG-RESILIENCE-3)")</f>
+        <v>Testing File Integrity Checks (MSTG-RESILIENCE-3)</v>
       </c>
       <c r="H7" s="64"/>
     </row>
-    <row r="8" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="91" t="s">
         <v>335</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -7010,12 +7006,9 @@
       <c r="F8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),
-"Testing The Detection of Reverse Engineering Tools")</f>
-        <v>Testing The Detection of Reverse Engineering Tools</v>
+      <c r="G8" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)")</f>
+        <v>Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)</v>
       </c>
       <c r="H8" s="64"/>
     </row>
@@ -7023,7 +7016,7 @@
       <c r="B9" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="91" t="s">
         <v>336</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -7035,12 +7028,9 @@
       <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),
-"Testing Emulator Detection")</f>
-        <v>Testing Emulator Detection</v>
+      <c r="G9" s="170" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"Testing Emulator Detection (MSTG-RESILIENCE-5)")</f>
+        <v>Testing Emulator Detection (MSTG-RESILIENCE-5)</v>
       </c>
       <c r="H9" s="64"/>
     </row>
@@ -7048,7 +7038,7 @@
       <c r="B10" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="91" t="s">
         <v>337</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -7060,12 +7050,9 @@
       <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),
-"Testing Run Time Integrity Checks")</f>
-        <v>Testing Run Time Integrity Checks</v>
+      <c r="G10" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks-mstg-resilience-6"),"Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)")</f>
+        <v>Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)</v>
       </c>
       <c r="H10" s="64"/>
     </row>
@@ -7073,7 +7060,7 @@
       <c r="B11" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="91" t="s">
         <v>338</v>
       </c>
       <c r="D11" s="32" t="s">
@@ -7085,8 +7072,8 @@
       <c r="F11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="96" t="s">
-        <v>81</v>
+      <c r="G11" s="172" t="s">
+        <v>348</v>
       </c>
       <c r="H11" s="64"/>
     </row>
@@ -7094,7 +7081,7 @@
       <c r="B12" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="91" t="s">
         <v>339</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -7106,7 +7093,7 @@
       <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="173" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="64"/>
@@ -7115,7 +7102,7 @@
       <c r="B13" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="91" t="s">
         <v>340</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -7127,12 +7114,9 @@
       <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
-"Testing Obfuscation")</f>
-        <v>Testing Obfuscation</v>
+      <c r="G13" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
+        <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
       <c r="H13" s="64"/>
     </row>
@@ -7144,14 +7128,14 @@
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="97"/>
+      <c r="G14" s="169"/>
       <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="91" t="s">
         <v>341</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -7163,12 +7147,9 @@
       <c r="F15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding"),
-"Testing Device Binding")</f>
-        <v>Testing Device Binding</v>
+      <c r="G15" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10"),"Testing Device Binding (MSTG-RESILIENCE-10)")</f>
+        <v>Testing Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
       <c r="H15" s="64"/>
     </row>
@@ -7180,14 +7161,14 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="97"/>
+      <c r="G16" s="169"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="91" t="s">
         <v>342</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -7199,12 +7180,9 @@
       <c r="F17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="100" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
-"Testing Obfuscation")</f>
-        <v>Testing Obfuscation</v>
+      <c r="G17" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
+        <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
       <c r="H17" s="64"/>
     </row>
@@ -7212,7 +7190,7 @@
       <c r="B18" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="91" t="s">
         <v>343</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -7224,8 +7202,8 @@
       <c r="F18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="96" t="s">
-        <v>81</v>
+      <c r="G18" s="173" t="s">
+        <v>348</v>
       </c>
       <c r="H18" s="64"/>
     </row>
@@ -7235,7 +7213,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="86"/>
+      <c r="G19" s="174"/>
       <c r="H19" s="40"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
@@ -7244,7 +7222,7 @@
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="85"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
@@ -7253,7 +7231,7 @@
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="85"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
@@ -7264,7 +7242,7 @@
       <c r="D22" s="42"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="85"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
@@ -7277,46 +7255,46 @@
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="85"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="105"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="75" t="s">
         <v>217</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
-      <c r="G24" s="85"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="105"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="75" t="s">
         <v>218</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="85"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="105"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="75" t="s">
         <v>219</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
-      <c r="G26" s="85"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="41"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
@@ -7325,7 +7303,7 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="82"/>
+      <c r="G27" s="166"/>
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
@@ -7334,7 +7312,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="82"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
@@ -7343,7 +7321,7 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="82"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="24"/>
     </row>
   </sheetData>
@@ -7359,10 +7337,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:K85"/>
+  <dimension ref="B1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7371,13 +7349,13 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="97.25" customWidth="1"/>
-    <col min="8" max="8" width="51.25" customWidth="1"/>
-    <col min="9" max="9" width="62" customWidth="1"/>
-    <col min="10" max="10" width="30.75" customWidth="1"/>
-    <col min="11" max="12" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="91.58203125" customWidth="1"/>
+    <col min="9" max="10" width="75.4140625" customWidth="1"/>
+    <col min="11" max="11" width="30.75" customWidth="1"/>
+    <col min="12" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="72" t="s">
         <v>188</v>
       </c>
@@ -7388,9 +7366,10 @@
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J1" s="103"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -7400,8 +7379,9 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
@@ -7420,15 +7400,16 @@
       <c r="G3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="77" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -7439,15 +7420,16 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="91" t="s">
         <v>271</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -7460,7 +7442,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="100" t="str">
+      <c r="H5" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -7469,12 +7451,13 @@
       </c>
       <c r="I5" s="64"/>
       <c r="J5" s="64"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="64"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="91" t="s">
         <v>272</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -7487,27 +7470,31 @@
         <v>3</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="100" t="str">
+      <c r="H6" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="106" t="str">
+      <c r="I6" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J6" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
+        <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
+      </c>
+      <c r="K6" s="64"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="91" t="s">
         <v>280</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -7520,7 +7507,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="100" t="str">
+      <c r="H7" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -7529,12 +7516,13 @@
       </c>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="91" t="s">
         <v>273</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -7547,7 +7535,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="100" t="str">
+      <c r="H8" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
@@ -7556,12 +7544,13 @@
       </c>
       <c r="I8" s="64"/>
       <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="91" t="s">
         <v>274</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -7574,7 +7563,7 @@
       <c r="G9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="100" t="str">
+      <c r="H9" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#environmental-information"),
@@ -7583,12 +7572,13 @@
       </c>
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K9" s="64"/>
+    </row>
+    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="91" t="s">
         <v>275</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -7601,7 +7591,7 @@
       <c r="G10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="100" t="str">
+      <c r="H10" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
@@ -7610,12 +7600,13 @@
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="64"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="91" t="s">
         <v>276</v>
       </c>
       <c r="D11" s="32" t="s">
@@ -7628,27 +7619,28 @@
       <c r="G11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="100" t="str">
+      <c r="H11" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
 "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="I11" s="106" t="str">
+      <c r="I11" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
 "Penetration Testing (a.k.a. Pentesting)")</f>
         <v>Penetration Testing (a.k.a. Pentesting)</v>
       </c>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J11" s="95"/>
+      <c r="K11" s="64"/>
+    </row>
+    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="91" t="s">
         <v>277</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -7661,7 +7653,7 @@
       <c r="G12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="100" t="str">
+      <c r="H12" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptographic-policy"),
@@ -7670,12 +7662,13 @@
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="64"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="91" t="s">
         <v>278</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -7688,7 +7681,7 @@
       <c r="G13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="100" t="str">
+      <c r="H13" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
@@ -7697,12 +7690,13 @@
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="64"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="91" t="s">
         <v>279</v>
       </c>
       <c r="D14" s="32" t="s">
@@ -7715,7 +7709,7 @@
       <c r="G14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="100" t="str">
+      <c r="H14" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
@@ -7724,8 +7718,9 @@
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="64"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
@@ -7736,15 +7731,16 @@
       <c r="E15" s="35"/>
       <c r="F15" s="47"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="160"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="92" t="s">
         <v>281</v>
       </c>
       <c r="D16" s="49" t="s">
@@ -7757,21 +7753,19 @@
         <v>3</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
-"Testing Local Data Storage")</f>
-        <v>Testing Local Data Storage</v>
+      <c r="H16" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
       <c r="I16" s="64"/>
       <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K16" s="64"/>
+    </row>
+    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="92" t="s">
         <v>282</v>
       </c>
       <c r="D17" s="49" t="s">
@@ -7784,21 +7778,19 @@
         <v>3</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
-"Testing Local Data Storage")</f>
-        <v>Testing Local Data Storage</v>
+      <c r="H17" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
+        <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="64"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="92" t="s">
         <v>283</v>
       </c>
       <c r="D18" s="49" t="s">
@@ -7811,21 +7803,19 @@
         <v>3</v>
       </c>
       <c r="G18" s="33"/>
-      <c r="H18" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),
-"Checking Logs for Sensitive Data")</f>
-        <v>Checking Logs for Sensitive Data</v>
+      <c r="H18" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3"),"Checking Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
+        <v>Checking Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="64"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="92" t="s">
         <v>284</v>
       </c>
       <c r="D19" s="49" t="s">
@@ -7838,21 +7828,19 @@
         <v>3</v>
       </c>
       <c r="G19" s="33"/>
-      <c r="H19" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
-"Determining Whether Sensitive Data Is Sent to Third Parties")</f>
-        <v>Determining Whether Sensitive Data Is Sent to Third Parties</v>
+      <c r="H19" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)")</f>
+        <v>Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="64"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="64"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="92" t="s">
         <v>285</v>
       </c>
       <c r="D20" s="49" t="s">
@@ -7865,21 +7853,19 @@
         <v>3</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="H20" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),
-"Finding Sensitive Data in the Keyboard Cache")</f>
-        <v>Finding Sensitive Data in the Keyboard Cache</v>
+      <c r="H20" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5"),"Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)")</f>
+        <v>Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)</v>
       </c>
       <c r="I20" s="64"/>
       <c r="J20" s="64"/>
-    </row>
-    <row r="21" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K20" s="64"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="103" t="s">
+      <c r="C21" s="92" t="s">
         <v>286</v>
       </c>
       <c r="D21" s="49" t="s">
@@ -7892,21 +7878,19 @@
         <v>3</v>
       </c>
       <c r="G21" s="33"/>
-      <c r="H21" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),
-"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
-        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
+      <c r="H21" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
+        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
       <c r="I21" s="64"/>
       <c r="J21" s="64"/>
-    </row>
-    <row r="22" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K21" s="64"/>
+    </row>
+    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="92" t="s">
         <v>287</v>
       </c>
       <c r="D22" s="49" t="s">
@@ -7919,21 +7903,19 @@
         <v>3</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="H22" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),
-"Checking for Sensitive Data Disclosed Through the User Interface")</f>
-        <v>Checking for Sensitive Data Disclosed Through the User Interface</v>
+      <c r="H22" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)")</f>
+        <v>Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
       <c r="I22" s="64"/>
       <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="64"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="92" t="s">
         <v>288</v>
       </c>
       <c r="D23" s="49" t="s">
@@ -7946,21 +7928,19 @@
       <c r="G23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
-"Testing Backups for Sensitive Data")</f>
-        <v>Testing Backups for Sensitive Data</v>
+      <c r="H23" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
+        <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K23" s="64"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="92" t="s">
         <v>289</v>
       </c>
       <c r="D24" s="49" t="s">
@@ -7973,21 +7953,19 @@
       <c r="G24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),
-"Testing Auto-Generated Screenshots for Sensitive Information")</f>
-        <v>Testing Auto-Generated Screenshots for Sensitive Information</v>
+      <c r="H24" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
+        <v>Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)</v>
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="64"/>
-    </row>
-    <row r="25" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K24" s="64"/>
+    </row>
+    <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="92" t="s">
         <v>290</v>
       </c>
       <c r="D25" s="49" t="s">
@@ -8000,21 +7978,19 @@
       <c r="G25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),
-"Testing Memory for Sensitive Data")</f>
-        <v>Testing Memory for Sensitive Data</v>
+      <c r="H25" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
+        <v>Testing Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
       <c r="I25" s="64"/>
       <c r="J25" s="64"/>
-    </row>
-    <row r="26" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K25" s="64"/>
+    </row>
+    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="92" t="s">
         <v>291</v>
       </c>
       <c r="D26" s="49" t="s">
@@ -8027,21 +8003,19 @@
       <c r="G26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="100" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),
-"Local Authentication on iOS")</f>
-        <v>Local Authentication on iOS</v>
+      <c r="H26" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
+        <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
       <c r="I26" s="64"/>
       <c r="J26" s="64"/>
-    </row>
-    <row r="27" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="92" t="s">
         <v>292</v>
       </c>
       <c r="D27" s="49" t="s">
@@ -8054,17 +8028,15 @@
       <c r="G27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="101" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04i-Testing-user-interaction.md#testing-user-education"),
-"Testing User Education")</f>
-        <v>Testing User Education</v>
+      <c r="H27" s="165" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
+        <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
       <c r="I27" s="64"/>
       <c r="J27" s="64"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -8075,15 +8047,16 @@
       <c r="E28" s="35"/>
       <c r="F28" s="47"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="160"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="92" t="s">
         <v>293</v>
       </c>
       <c r="D29" s="49" t="s">
@@ -8096,21 +8069,19 @@
         <v>3</v>
       </c>
       <c r="G29" s="33"/>
-      <c r="H29" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06e-Testing-Cryptography.md#testing-key-management"),
-"Testing Key Management")</f>
-        <v>Testing Key Management</v>
+      <c r="H29" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="64"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="92" t="s">
         <v>294</v>
       </c>
       <c r="D30" s="49" t="s">
@@ -8123,21 +8094,19 @@
         <v>3</v>
       </c>
       <c r="G30" s="33"/>
-      <c r="H30" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),
-"Custom Implementations of Cryptography")</f>
-        <v>Custom Implementations of Cryptography</v>
+      <c r="H30" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
       <c r="I30" s="64"/>
       <c r="J30" s="64"/>
-    </row>
-    <row r="31" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K30" s="64"/>
+    </row>
+    <row r="31" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="92" t="s">
         <v>295</v>
       </c>
       <c r="D31" s="49" t="s">
@@ -8150,21 +8119,19 @@
         <v>3</v>
       </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
-"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
-        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
+      <c r="H31" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
       <c r="I31" s="64"/>
       <c r="J31" s="64"/>
-    </row>
-    <row r="32" spans="2:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="K31" s="64"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="92" t="s">
         <v>296</v>
       </c>
       <c r="D32" s="49" t="s">
@@ -8177,21 +8144,19 @@
         <v>3</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
-"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
-        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
+      <c r="H32" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
       <c r="I32" s="64"/>
       <c r="J32" s="64"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="64"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="92" t="s">
         <v>297</v>
       </c>
       <c r="D33" s="49" t="s">
@@ -8204,21 +8169,19 @@
         <v>3</v>
       </c>
       <c r="G33" s="33"/>
-      <c r="H33" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06e-Testing-Cryptography.md#testing-key-management"),
-"Testing Key Management")</f>
-        <v>Testing Key Management</v>
+      <c r="H33" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
+        <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
       <c r="I33" s="64"/>
       <c r="J33" s="64"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K33" s="64"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="92" t="s">
         <v>298</v>
       </c>
       <c r="D34" s="49" t="s">
@@ -8231,17 +8194,15 @@
         <v>3</v>
       </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06e-Testing-Cryptography.md#testing-random-number-generation"),
-"Testing Random Number Generation")</f>
-        <v>Testing Random Number Generation</v>
+      <c r="H34" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6")," Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
+        <v xml:space="preserve"> Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
       <c r="I34" s="64"/>
       <c r="J34" s="64"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K34" s="64"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
@@ -8252,15 +8213,16 @@
       <c r="E35" s="35"/>
       <c r="F35" s="47"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="97"/>
+      <c r="H35" s="160"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B36" s="95" t="s">
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="93" t="s">
         <v>299</v>
       </c>
       <c r="D36" s="49" t="s">
@@ -8273,21 +8235,22 @@
         <v>3</v>
       </c>
       <c r="G36" s="33"/>
-      <c r="H36" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
-"Testing Authentication")</f>
-        <v>Testing Authentication</v>
-      </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-    </row>
-    <row r="37" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B37" s="95" t="s">
+      <c r="H36" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
+        <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
+      </c>
+      <c r="I36" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
+      <c r="J36" s="163"/>
+      <c r="K36" s="64"/>
+    </row>
+    <row r="37" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="93" t="s">
         <v>300</v>
       </c>
       <c r="D37" s="49" t="s">
@@ -8300,21 +8263,19 @@
         <v>3</v>
       </c>
       <c r="G37" s="33"/>
-      <c r="H37" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
-"Testing Stateful Session Management")</f>
-        <v>Testing Stateful Session Management</v>
+      <c r="H37" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
+        <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
       <c r="I37" s="64"/>
       <c r="J37" s="64"/>
-    </row>
-    <row r="38" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="95" t="s">
+      <c r="K37" s="64"/>
+    </row>
+    <row r="38" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="93" t="s">
         <v>301</v>
       </c>
       <c r="D38" s="49" t="s">
@@ -8327,21 +8288,22 @@
         <v>3</v>
       </c>
       <c r="G38" s="33"/>
-      <c r="H38" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
-"Testing Stateless (Token-Based) Authentication")</f>
-        <v>Testing Stateless (Token-Based) Authentication</v>
-      </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="95" t="s">
+      <c r="H38" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
+        <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
+      </c>
+      <c r="I38" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+        <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
+      </c>
+      <c r="J38" s="163"/>
+      <c r="K38" s="64"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="93" t="s">
         <v>302</v>
       </c>
       <c r="D39" s="49" t="s">
@@ -8354,23 +8316,20 @@
         <v>3</v>
       </c>
       <c r="G39" s="33"/>
-      <c r="H39" s="98" t="str">
-        <f>HYPERLINK(
-CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
-"User Logout and Session Timeouts")</f>
-        <v>User Logout and Session Timeouts</v>
+      <c r="H39" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
+        <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
       <c r="I39" s="64"/>
       <c r="J39" s="64"/>
-      <c r="K39" s="50"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="95" t="s">
+      <c r="K39" s="64"/>
+      <c r="L39" s="50"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="93" t="s">
         <v>303</v>
       </c>
       <c r="D40" s="49" t="s">
@@ -8379,180 +8338,172 @@
       <c r="E40" s="26"/>
       <c r="F40" s="45"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="98" t="str">
+      <c r="H40" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
+        <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
+      </c>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="50"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
+        <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
+      </c>
+      <c r="I41" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
+        <v>Dynamic Testing (MSTG-AUTH-6)</v>
+      </c>
+      <c r="J41" s="163"/>
+      <c r="K41" s="64"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
+        <v>Testing Session Timeout (MSTG-AUTH-7)</v>
+      </c>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
+      <c r="K42" s="64"/>
+    </row>
+    <row r="43" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="49"/>
+      <c r="F43" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
+        <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
+      </c>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="64"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
+      </c>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
+        <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
+      </c>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+    </row>
+    <row r="46" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="49"/>
+      <c r="F46" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
-"Best Practices for Passwords")</f>
-        <v>Best Practices for Passwords</v>
-      </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="50"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B41" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
-"Running a Password Dictionary Attack")</f>
-        <v>Running a Password Dictionary Attack</v>
-      </c>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
-"Session Timeout")</f>
-        <v>Session Timeout</v>
-      </c>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-    </row>
-    <row r="43" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B43" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="104" t="s">
-        <v>306</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06f-Testing-Local-Authentication.md#testing-local-authentication"),
-"Testing Local Authentication")</f>
-        <v>Testing Local Authentication</v>
-      </c>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="104" t="s">
-        <v>307</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
-"Verifying that 2FA is Enforced")</f>
-        <v>Verifying that 2FA is Enforced</v>
-      </c>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="104" t="s">
-        <v>308</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
-"2-Factor Authentication and Step-up Authentication")</f>
-        <v>2-Factor Authentication and Step-up Authentication</v>
-      </c>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-    </row>
-    <row r="46" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B46" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
-"Login Activity and Device Blocking")</f>
-        <v>Login Activity and Device Blocking</v>
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),
+"Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
+        <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
       <c r="I46" s="64"/>
       <c r="J46" s="64"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K46" s="64"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
@@ -8563,15 +8514,16 @@
       <c r="E47" s="35"/>
       <c r="F47" s="47"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="97"/>
+      <c r="H47" s="160"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="95" t="s">
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="93" t="s">
         <v>310</v>
       </c>
       <c r="D48" s="49" t="s">
@@ -8584,152 +8536,146 @@
         <v>3</v>
       </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="98" t="str">
+      <c r="H48" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
+        <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
+      </c>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="64"/>
+    </row>
+    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B49" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="93" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
+        <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
+      </c>
+      <c r="I49" s="95" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security-mstg-network-2"),"App Transport Security (MSTG-NETWORK-2)")</f>
+        <v>App Transport Security (MSTG-NETWORK-2)</v>
+      </c>
+      <c r="J49" s="95"/>
+      <c r="K49" s="64"/>
+    </row>
+    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B50" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
+      </c>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+    </row>
+    <row r="51" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="49"/>
+      <c r="F51" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
+      </c>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+    </row>
+    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B52" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="49"/>
+      <c r="F52" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="162" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
+      </c>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B53" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>315</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="49"/>
+      <c r="F53" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" s="163" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
-"Verifying Data Encryption on the Network")</f>
-        <v>Verifying Data Encryption on the Network</v>
-      </c>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-    </row>
-    <row r="49" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B49" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="104" t="s">
-        <v>311</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
-"Recommended TLS Settings")</f>
-        <v>Recommended TLS Settings</v>
-      </c>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-    </row>
-    <row r="50" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B50" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="104" t="s">
-        <v>312</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and Certificate Pinning")</f>
-        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
-      </c>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-    </row>
-    <row r="51" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="104" t="s">
-        <v>313</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H51" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and Certificate Pinning")</f>
-        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
-      </c>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-    </row>
-    <row r="52" spans="2:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="B52" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="104" t="s">
-        <v>314</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
-"Making Sure that Critical Operations Use Secure Communication Channels")</f>
-        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
-      </c>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="C53" s="104" t="s">
-        <v>315</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H53" s="100" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Checking for Weaknesses in Third Party Libraries")</f>
-        <v>Checking for Weaknesses in Third Party Libraries</v>
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),
+"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
+        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I53" s="64"/>
       <c r="J53" s="64"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="64"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
@@ -8740,15 +8686,16 @@
       <c r="E54" s="35"/>
       <c r="F54" s="47"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="97"/>
+      <c r="H54" s="160"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="95" t="s">
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B55" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="93" t="s">
         <v>316</v>
       </c>
       <c r="D55" s="49" t="s">
@@ -8761,102 +8708,97 @@
         <v>3</v>
       </c>
       <c r="G55" s="33"/>
-      <c r="H55" s="98" t="str">
+      <c r="H55" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
+        <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
+      </c>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+    </row>
+    <row r="56" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B56" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
+        <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
+      </c>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+    </row>
+    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B57" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
+        <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
+      </c>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+    </row>
+    <row r="58" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B58" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="158" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-app-permissions"),
-"Testing App Permissions")</f>
-        <v>Testing App Permissions</v>
-      </c>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-    </row>
-    <row r="56" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B56" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="104" t="s">
-        <v>317</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="33"/>
-      <c r="H56" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Injection Flaws")</f>
-        <v>Injection Flaws</v>
-      </c>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-    </row>
-    <row r="57" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B57" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="104" t="s">
-        <v>318</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
-"Testing Custom URL Schemes")</f>
-        <v>Testing Custom URL Schemes</v>
-      </c>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-    </row>
-    <row r="58" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B58" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="104" t="s">
-        <v>319</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="100" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
-"Testing for Sensitive Functionality Exposure Through IPC")</f>
-        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
+"0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),
+"Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
       <c r="I58" s="64"/>
       <c r="J58" s="64"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="95" t="s">
+      <c r="K58" s="64"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B59" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="104" t="s">
+      <c r="C59" s="93" t="s">
         <v>320</v>
       </c>
       <c r="D59" s="49" t="s">
@@ -8869,21 +8811,19 @@
         <v>3</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),
-"Testing iOS WebViews")</f>
-        <v>Testing iOS WebViews</v>
+      <c r="H59" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5"),"Testing iOS WebViews (MSTG-PLATFORM-5)")</f>
+        <v>Testing iOS WebViews (MSTG-PLATFORM-5)</v>
       </c>
       <c r="I59" s="64"/>
       <c r="J59" s="64"/>
-    </row>
-    <row r="60" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B60" s="95" t="s">
+      <c r="K59" s="64"/>
+    </row>
+    <row r="60" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B60" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="104" t="s">
+      <c r="C60" s="93" t="s">
         <v>321</v>
       </c>
       <c r="D60" s="49" t="s">
@@ -8896,21 +8836,19 @@
         <v>3</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
-"Testing WebView Protocol Handlers")</f>
-        <v>Testing WebView Protocol Handlers</v>
+      <c r="H60" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
+        <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
       <c r="I60" s="64"/>
       <c r="J60" s="64"/>
-    </row>
-    <row r="61" spans="2:10" ht="31" x14ac:dyDescent="0.35">
-      <c r="B61" s="95" t="s">
+      <c r="K60" s="64"/>
+    </row>
+    <row r="61" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B61" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="C61" s="104" t="s">
+      <c r="C61" s="93" t="s">
         <v>322</v>
       </c>
       <c r="D61" s="49" t="s">
@@ -8923,21 +8861,19 @@
         <v>3</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),
-"Determining Whether Native Methods Are Exposed Through WebViews")</f>
-        <v>Determining Whether Native Methods Are Exposed Through WebViews</v>
+      <c r="H61" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
+        <v>Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
       <c r="I61" s="64"/>
       <c r="J61" s="64"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="95" t="s">
+      <c r="K61" s="64"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B62" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="C62" s="104" t="s">
+      <c r="C62" s="93" t="s">
         <v>323</v>
       </c>
       <c r="D62" s="49" t="s">
@@ -8950,17 +8886,15 @@
         <v>3</v>
       </c>
       <c r="G62" s="33"/>
-      <c r="H62" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),
-"Testing Object Persistence")</f>
-        <v>Testing Object Persistence</v>
+      <c r="H62" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
+        <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
       <c r="I62" s="64"/>
       <c r="J62" s="64"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="64"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
@@ -8971,15 +8905,16 @@
       <c r="E63" s="35"/>
       <c r="F63" s="47"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="97"/>
+      <c r="H63" s="160"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="95" t="s">
+      <c r="K63" s="36"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B64" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="93" t="s">
         <v>324</v>
       </c>
       <c r="D64" s="49" t="s">
@@ -8992,21 +8927,19 @@
         <v>3</v>
       </c>
       <c r="G64" s="33"/>
-      <c r="H64" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
-"Making Sure that the App Is Properly Signed")</f>
-        <v>Making Sure that the App Is Properly Signed</v>
+      <c r="H64" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure that the App Is Properly Signed (MSTG-CODE-1)")</f>
+        <v>Making Sure that the App Is Properly Signed (MSTG-CODE-1)</v>
       </c>
       <c r="I64" s="64"/>
       <c r="J64" s="64"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="95" t="s">
+      <c r="K64" s="64"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B65" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="104" t="s">
+      <c r="C65" s="93" t="s">
         <v>325</v>
       </c>
       <c r="D65" s="49" t="s">
@@ -9019,21 +8952,19 @@
         <v>3</v>
       </c>
       <c r="G65" s="33"/>
-      <c r="H65" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
-"Determining Whether the App is Debuggable")</f>
-        <v>Determining Whether the App is Debuggable</v>
+      <c r="H65" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2"),"Determining Whether the App is Debuggable (MSTG-CODE-2)")</f>
+        <v>Determining Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
       <c r="I65" s="64"/>
       <c r="J65" s="64"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="95" t="s">
+      <c r="K65" s="64"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B66" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="104" t="s">
+      <c r="C66" s="93" t="s">
         <v>326</v>
       </c>
       <c r="D66" s="49" t="s">
@@ -9046,21 +8977,19 @@
         <v>3</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
-"Finding Debugging Symbols")</f>
-        <v>Finding Debugging Symbols</v>
+      <c r="H66" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3"),"Finding Debugging Symbols (MSTG-CODE-3)")</f>
+        <v>Finding Debugging Symbols (MSTG-CODE-3)</v>
       </c>
       <c r="I66" s="64"/>
       <c r="J66" s="64"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="95" t="s">
+      <c r="K66" s="64"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B67" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="104" t="s">
+      <c r="C67" s="93" t="s">
         <v>327</v>
       </c>
       <c r="D67" s="49" t="s">
@@ -9073,21 +9002,19 @@
         <v>3</v>
       </c>
       <c r="G67" s="33"/>
-      <c r="H67" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
-"Finding Debugging Code and Verbose Error Logging")</f>
-        <v>Finding Debugging Code and Verbose Error Logging</v>
+      <c r="H67" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4"),"Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
+        <v>Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
       <c r="I67" s="64"/>
       <c r="J67" s="64"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="95" t="s">
+      <c r="K67" s="64"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B68" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="104" t="s">
+      <c r="C68" s="93" t="s">
         <v>328</v>
       </c>
       <c r="D68" s="49" t="s">
@@ -9100,21 +9027,19 @@
         <v>3</v>
       </c>
       <c r="G68" s="33"/>
-      <c r="H68" s="100" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Checking for Weaknesses in Third Party Libraries")</f>
-        <v>Checking for Weaknesses in Third Party Libraries</v>
+      <c r="H68" s="165" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
+        <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
       <c r="I68" s="64"/>
       <c r="J68" s="64"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="95" t="s">
+      <c r="K68" s="64"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B69" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="104" t="s">
+      <c r="C69" s="93" t="s">
         <v>329</v>
       </c>
       <c r="D69" s="49" t="s">
@@ -9127,21 +9052,19 @@
         <v>3</v>
       </c>
       <c r="G69" s="33"/>
-      <c r="H69" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing Exception Handling")</f>
-        <v>Testing Exception Handling</v>
+      <c r="H69" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
       <c r="I69" s="64"/>
       <c r="J69" s="64"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="95" t="s">
+      <c r="K69" s="64"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B70" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="104" t="s">
+      <c r="C70" s="93" t="s">
         <v>330</v>
       </c>
       <c r="D70" s="49" t="s">
@@ -9154,21 +9077,19 @@
         <v>3</v>
       </c>
       <c r="G70" s="33"/>
-      <c r="H70" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing Exception Handling")</f>
-        <v>Testing Exception Handling</v>
+      <c r="H70" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
+        <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
       <c r="I70" s="64"/>
       <c r="J70" s="64"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="95" t="s">
+      <c r="K70" s="64"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B71" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="104" t="s">
+      <c r="C71" s="93" t="s">
         <v>331</v>
       </c>
       <c r="D71" s="49" t="s">
@@ -9181,21 +9102,19 @@
         <v>3</v>
       </c>
       <c r="G71" s="33"/>
-      <c r="H71" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),
-"Memory Corruption Bugs")</f>
-        <v>Memory Corruption Bugs</v>
+      <c r="H71" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
+        <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
       <c r="I71" s="64"/>
       <c r="J71" s="64"/>
-    </row>
-    <row r="72" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B72" s="95" t="s">
+      <c r="K71" s="64"/>
+    </row>
+    <row r="72" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B72" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="104" t="s">
+      <c r="C72" s="93" t="s">
         <v>332</v>
       </c>
       <c r="D72" s="49" t="s">
@@ -9208,17 +9127,15 @@
         <v>3</v>
       </c>
       <c r="G72" s="33"/>
-      <c r="H72" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
-"Make Sure That Free Security Features Are Activated")</f>
-        <v>Make Sure That Free Security Features Are Activated</v>
+      <c r="H72" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
+        <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
       <c r="I72" s="64"/>
       <c r="J72" s="64"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="64"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="37"/>
       <c r="C73" s="39"/>
       <c r="D73" s="38"/>
@@ -9228,8 +9145,9 @@
       <c r="H73" s="39"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
@@ -9239,19 +9157,21 @@
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="41"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
-      <c r="H75" s="50"/>
+      <c r="H75" s="41"/>
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K75" s="41"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="41"/>
@@ -9261,8 +9181,9 @@
       <c r="H76" s="41"/>
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K76" s="41"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="73" t="s">
         <v>215</v>
       </c>
@@ -9274,8 +9195,9 @@
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="41"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="74" t="s">
         <v>220</v>
       </c>
@@ -9289,12 +9211,13 @@
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="105"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="75" t="s">
         <v>217</v>
       </c>
@@ -9304,12 +9227,13 @@
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K79" s="41"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="105"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="75" t="s">
         <v>218</v>
       </c>
@@ -9319,12 +9243,13 @@
       <c r="H80" s="41"/>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="41"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="105"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="75" t="s">
         <v>219</v>
       </c>
@@ -9334,55 +9259,60 @@
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="41"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H82" s="41"/>
+      <c r="I82" s="166"/>
+      <c r="J82" s="166"/>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H83" s="41"/>
+      <c r="I83" s="166"/>
+      <c r="J83" s="166"/>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H84" s="41"/>
+      <c r="I84" s="166"/>
+      <c r="J84" s="166"/>
+      <c r="K84" s="24"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
+      <c r="H85" s="166"/>
+      <c r="I85" s="166"/>
+      <c r="J85" s="166"/>
+      <c r="K85" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H26 H28:H72">
     <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="0x05">
@@ -9390,7 +9320,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:J1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G29:G34 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62" xr:uid="{00000000-0002-0000-0400-000001000000}">
@@ -9406,8 +9336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9416,7 +9346,7 @@
     <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="99.75" customWidth="1"/>
-    <col min="7" max="7" width="42.25" style="82" customWidth="1"/>
+    <col min="7" max="7" width="61.83203125" customWidth="1"/>
     <col min="8" max="8" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9425,9 +9355,11 @@
         <v>189</v>
       </c>
       <c r="C1" s="7"/>
+      <c r="G1" s="166"/>
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G2" s="166"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
@@ -9446,8 +9378,8 @@
       <c r="F3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="76" t="s">
-        <v>224</v>
+      <c r="G3" s="168" t="s">
+        <v>347</v>
       </c>
       <c r="H3" s="77" t="s">
         <v>225</v>
@@ -9463,14 +9395,14 @@
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="83"/>
+      <c r="G4" s="169"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="91" t="s">
         <v>333</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -9482,12 +9414,9 @@
       <c r="F5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="99" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),
-"Jailbreak Detection")</f>
-        <v>Jailbreak Detection</v>
+      <c r="G5" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"Jailbreak Detection (MSTG-RESILIENCE-1)")</f>
+        <v>Jailbreak Detection (MSTG-RESILIENCE-1)</v>
       </c>
       <c r="H5" s="64"/>
     </row>
@@ -9495,7 +9424,7 @@
       <c r="B6" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="91" t="s">
         <v>344</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -9507,12 +9436,9 @@
       <c r="F6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="99" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),
-"Anti-Debugging Checks")</f>
-        <v>Anti-Debugging Checks</v>
+      <c r="G6" s="170" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging Checks (MSTG-RESILIENCE-2)")</f>
+        <v>Anti-Debugging Checks (MSTG-RESILIENCE-2)</v>
       </c>
       <c r="H6" s="64"/>
     </row>
@@ -9520,7 +9446,7 @@
       <c r="B7" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="91" t="s">
         <v>334</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -9532,12 +9458,9 @@
       <c r="F7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="99" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),
-"File Integrity Checks")</f>
-        <v>File Integrity Checks</v>
+      <c r="G7" s="170" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
+        <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
       <c r="H7" s="64"/>
     </row>
@@ -9545,7 +9468,7 @@
       <c r="B8" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="91" t="s">
         <v>335</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -9557,7 +9480,7 @@
       <c r="F8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="175" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="64"/>
@@ -9566,7 +9489,7 @@
       <c r="B9" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="91" t="s">
         <v>336</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -9578,7 +9501,7 @@
       <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="96" t="s">
+      <c r="G9" s="176" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="64"/>
@@ -9587,7 +9510,7 @@
       <c r="B10" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="91" t="s">
         <v>337</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -9599,7 +9522,7 @@
       <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="175" t="s">
         <v>81</v>
       </c>
       <c r="H10" s="64"/>
@@ -9608,7 +9531,7 @@
       <c r="B11" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="91" t="s">
         <v>338</v>
       </c>
       <c r="D11" s="32" t="s">
@@ -9620,7 +9543,7 @@
       <c r="F11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="173" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="64"/>
@@ -9629,7 +9552,7 @@
       <c r="B12" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="91" t="s">
         <v>339</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -9641,7 +9564,7 @@
       <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="173" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="64"/>
@@ -9650,7 +9573,7 @@
       <c r="B13" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="91" t="s">
         <v>340</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -9662,7 +9585,7 @@
       <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="176" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="64"/>
@@ -9675,14 +9598,14 @@
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="97"/>
+      <c r="G14" s="169"/>
       <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="91" t="s">
         <v>341</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -9694,12 +9617,9 @@
       <c r="F15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="99" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),
-"Device Binding")</f>
-        <v>Device Binding</v>
+      <c r="G15" s="163" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"Device Binding (MSTG-RESILIENCE-10)")</f>
+        <v>Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
       <c r="H15" s="64"/>
     </row>
@@ -9711,14 +9631,14 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="97"/>
+      <c r="G16" s="169"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="91" t="s">
         <v>342</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -9730,8 +9650,9 @@
       <c r="F17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="96" t="s">
-        <v>81</v>
+      <c r="G17" s="177" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
+        <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
       <c r="H17" s="64"/>
     </row>
@@ -9739,7 +9660,7 @@
       <c r="B18" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="91" t="s">
         <v>343</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -9751,7 +9672,7 @@
       <c r="F18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="96" t="s">
+      <c r="G18" s="173" t="s">
         <v>81</v>
       </c>
       <c r="H18" s="64"/>
@@ -9762,7 +9683,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="84"/>
+      <c r="G19" s="174"/>
       <c r="H19" s="40"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
@@ -9771,7 +9692,7 @@
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="85"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
@@ -9780,7 +9701,7 @@
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="85"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
@@ -9791,7 +9712,7 @@
       <c r="D22" s="42"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="85"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
@@ -9804,46 +9725,46 @@
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="85"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="105"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="75" t="s">
         <v>217</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
-      <c r="G24" s="85"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="105"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="75" t="s">
         <v>218</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="85"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="105"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="75" t="s">
         <v>219</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
-      <c r="G26" s="85"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="41"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
@@ -9852,7 +9773,7 @@
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="85"/>
+      <c r="G27" s="166"/>
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
@@ -9861,7 +9782,7 @@
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="85"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
@@ -9870,7 +9791,7 @@
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="85"/>
+      <c r="G29" s="166"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
@@ -9879,7 +9800,6 @@
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="85"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="41"/>
@@ -9887,7 +9807,6 @@
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
-      <c r="G31" s="85"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="41"/>
@@ -9895,7 +9814,6 @@
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
-      <c r="G32" s="85"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G8">
@@ -9952,7 +9870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -9963,10 +9881,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="157"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
@@ -10139,30 +10057,30 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="107">
+      <c r="C14" s="96">
         <v>43642</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="89" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="111">
-        <v>43684</v>
-      </c>
-      <c r="D15" s="112" t="s">
+      <c r="C15" s="100">
+        <v>43685</v>
+      </c>
+      <c r="D15" s="101" t="s">
         <v>345</v>
       </c>
     </row>

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C942429-BBDD-4948-9DF0-0BC110196AE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DF16E8-3A5C-4382-B6F0-C69F2FCE4A76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -2325,163 +2325,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2535,6 +2378,163 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -3852,48 +3852,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="118"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="134"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="123"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="82" t="s">
@@ -3903,19 +3903,19 @@
       <c r="D10" s="85"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="129"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="87" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="146" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="88" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -3925,19 +3925,19 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="86" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="144" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="128"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="84" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
@@ -3947,67 +3947,67 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="141" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="111"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="114"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="111"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="111"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="111"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="111"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="111"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="13" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
@@ -4024,37 +4024,37 @@
       <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="125" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="111"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="111"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="111"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="13"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="111"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
@@ -4071,37 +4071,37 @@
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="111"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="111"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="111"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="111"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="113"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="140"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
@@ -4111,100 +4111,97 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="107"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="109"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="149"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="106"/>
+      <c r="C40" s="150"/>
       <c r="D40" s="54"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="105" t="s">
+      <c r="B41" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="106"/>
+      <c r="C41" s="150"/>
       <c r="D41" s="54"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="106"/>
+      <c r="C42" s="150"/>
       <c r="D42" s="54"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="127" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="106"/>
+      <c r="C43" s="150"/>
       <c r="D43" s="55"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="106"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="54"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="107"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="109"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="149"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="106"/>
+      <c r="C46" s="150"/>
       <c r="D46" s="54"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="106"/>
+      <c r="C47" s="150"/>
       <c r="D47" s="54"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="106"/>
+      <c r="C48" s="150"/>
       <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="127" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="106"/>
+      <c r="C49" s="150"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="106"/>
+      <c r="C50" s="150"/>
       <c r="D50" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4219,16 +4216,19 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4274,11 +4274,11 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
     </row>
     <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
@@ -4293,16 +4293,16 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="145" t="s">
+      <c r="G6" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
-      <c r="V6" s="148" t="s">
+      <c r="H6" s="169"/>
+      <c r="I6" s="170"/>
+      <c r="V6" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="149"/>
-      <c r="X6" s="150"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="153"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
@@ -4317,18 +4317,18 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="136">
+      <c r="G8" s="154">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="V8" s="136">
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
+      <c r="V8" s="154">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="137"/>
-      <c r="X8" s="138"/>
+      <c r="W8" s="155"/>
+      <c r="X8" s="156"/>
     </row>
     <row r="9" spans="2:24" ht="91.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="22"/>
@@ -4336,12 +4336,12 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="141"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="141"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="159"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="159"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
@@ -4349,12 +4349,12 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="141"/>
-      <c r="V10" s="139"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="141"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="159"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
@@ -4362,19 +4362,19 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="143"/>
-      <c r="X11" s="144"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="162"/>
     </row>
     <row r="12" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
@@ -4398,11 +4398,11 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
@@ -4455,18 +4455,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="132" t="s">
+      <c r="D41" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="132" t="s">
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="134"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="166"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="18" t="s">
@@ -4792,15 +4792,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4840,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="I20" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4858,16 +4858,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
@@ -4900,11 +4900,11 @@
       <c r="G3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
       <c r="K3" s="77" t="s">
         <v>225</v>
       </c>
@@ -4920,8 +4920,8 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
       <c r="J4" s="104"/>
       <c r="K4" s="31"/>
     </row>
@@ -4942,14 +4942,14 @@
         <v>3</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="158" t="str">
+      <c r="H5" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
 "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I5" s="158" t="str">
+      <c r="I5" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),
@@ -4976,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="159" t="str">
+      <c r="H6" s="106" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
@@ -4984,13 +4984,6 @@
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
       <c r="I6" s="95" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
-"Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
-        <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
-      </c>
-      <c r="J6" s="95" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
@@ -5013,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="158" t="str">
+      <c r="H7" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -5041,7 +5034,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="158" t="str">
+      <c r="H8" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
@@ -5069,7 +5062,7 @@
       <c r="G9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="158" t="str">
+      <c r="H9" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#environmental-information"),
@@ -5097,7 +5090,7 @@
       <c r="G10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="158" t="str">
+      <c r="H10" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
@@ -5125,7 +5118,7 @@
       <c r="G11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="158" t="str">
+      <c r="H11" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
@@ -5136,7 +5129,7 @@
 "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="J11" s="158" t="str">
+      <c r="J11" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
@@ -5162,7 +5155,7 @@
       <c r="G12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="158" t="str">
+      <c r="H12" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptographic-policy"),
@@ -5190,7 +5183,7 @@
       <c r="G13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="158" t="str">
+      <c r="H13" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
@@ -5218,7 +5211,7 @@
       <c r="G14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="158" t="str">
+      <c r="H14" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
@@ -5240,7 +5233,7 @@
       <c r="E15" s="35"/>
       <c r="F15" s="47"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="160"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -5262,11 +5255,11 @@
         <v>3</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="161" t="str">
+      <c r="H16" s="108" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I16" s="163" t="str">
+      <c r="I16" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
@@ -5290,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="162" t="str">
+      <c r="H17" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
@@ -5315,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="33"/>
-      <c r="H18" s="163" t="str">
+      <c r="H18" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data-mstg-storage-3"),"Testing Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
         <v>Testing Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
@@ -5340,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="33"/>
-      <c r="H19" s="162" t="str">
+      <c r="H19" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)")</f>
         <v>Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
@@ -5365,7 +5358,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="H20" s="162" t="str">
+      <c r="H20" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields-mstg-storage-5"),"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)")</f>
         <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)</v>
       </c>
@@ -5390,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="33"/>
-      <c r="H21" s="162" t="str">
+      <c r="H21" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
         <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
@@ -5415,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="H22" s="163" t="str">
+      <c r="H22" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)")</f>
         <v>Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
@@ -5440,7 +5433,7 @@
       <c r="G23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="163" t="str">
+      <c r="H23" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
         <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
@@ -5465,7 +5458,7 @@
       <c r="G24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="163" t="str">
+      <c r="H24" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)")</f>
         <v>Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)</v>
       </c>
@@ -5490,7 +5483,7 @@
       <c r="G25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="163" t="str">
+      <c r="H25" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"Checking Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
         <v>Checking Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
@@ -5515,7 +5508,7 @@
       <c r="G26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="163" t="str">
+      <c r="H26" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"Testing the Device-Access-Security Policy (MSTG-STORAGE-11)")</f>
         <v>Testing the Device-Access-Security Policy (MSTG-STORAGE-11)</v>
       </c>
@@ -5543,7 +5536,7 @@
       <c r="G27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="164" t="str">
+      <c r="H27" s="111" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
         <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
@@ -5562,7 +5555,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="47"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="160"/>
+      <c r="H28" s="107"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -5584,11 +5577,11 @@
         <v>3</v>
       </c>
       <c r="G29" s="33"/>
-      <c r="H29" s="163" t="str">
+      <c r="H29" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I29" s="163" t="str">
+      <c r="I29" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
@@ -5612,11 +5605,11 @@
         <v>3</v>
       </c>
       <c r="G30" s="33"/>
-      <c r="H30" s="163" t="str">
+      <c r="H30" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I30" s="162" t="str">
+      <c r="I30" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
@@ -5640,11 +5633,11 @@
         <v>3</v>
       </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="162" t="str">
+      <c r="H31" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I31" s="163" t="str">
+      <c r="I31" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
@@ -5668,11 +5661,11 @@
         <v>3</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="163" t="str">
+      <c r="H32" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I32" s="162" t="str">
+      <c r="I32" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
@@ -5696,7 +5689,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="33"/>
-      <c r="H33" s="163" t="str">
+      <c r="H33" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
@@ -5721,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="163" t="str">
+      <c r="H34" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6"),"Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
         <v>Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
@@ -5740,7 +5733,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="47"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="160"/>
+      <c r="H35" s="107"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -5762,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="33"/>
-      <c r="H36" s="163" t="str">
+      <c r="H36" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
@@ -5793,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="33"/>
-      <c r="H37" s="163" t="str">
+      <c r="H37" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
         <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
@@ -5818,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="33"/>
-      <c r="H38" s="162" t="str">
+      <c r="H38" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
         <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
       </c>
@@ -5843,7 +5836,7 @@
       <c r="E39" s="26"/>
       <c r="F39" s="45"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="163" t="str">
+      <c r="H39" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
         <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
@@ -5869,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="33"/>
-      <c r="H40" s="163" t="str">
+      <c r="H40" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
@@ -5894,7 +5887,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="33"/>
-      <c r="H41" s="163" t="str">
+      <c r="H41" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
@@ -5922,12 +5915,12 @@
       <c r="G42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H42" s="163" t="str">
+      <c r="H42" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
         <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
       <c r="K42" s="64"/>
     </row>
     <row r="43" spans="2:12" ht="29" x14ac:dyDescent="0.35">
@@ -5947,7 +5940,7 @@
       <c r="G43" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="163" t="str">
+      <c r="H43" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"Testing Biometric Authentication (MSTG-AUTH-8)")</f>
         <v>Testing Biometric Authentication (MSTG-AUTH-8)</v>
       </c>
@@ -5972,7 +5965,7 @@
       <c r="G44" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="163" t="str">
+      <c r="H44" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
@@ -5997,7 +5990,7 @@
       <c r="G45" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="163" t="str">
+      <c r="H45" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
@@ -6022,7 +6015,7 @@
       <c r="G46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="165" t="str">
+      <c r="H46" s="112" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
         <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
@@ -6041,7 +6034,7 @@
       <c r="E47" s="35"/>
       <c r="F47" s="47"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="160"/>
+      <c r="H47" s="107"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -6063,7 +6056,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="163" t="str">
+      <c r="H48" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
@@ -6088,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="33"/>
-      <c r="H49" s="163" t="str">
+      <c r="H49" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
@@ -6113,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="33"/>
-      <c r="H50" s="163" t="str">
+      <c r="H50" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification-mstg-network-3"),"Testing Endpoint Identify Verification (MSTG-NETWORK-3)")</f>
         <v>Testing Endpoint Identify Verification (MSTG-NETWORK-3)</v>
       </c>
@@ -6138,11 +6131,11 @@
       <c r="G51" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="163" t="str">
+      <c r="H51" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="163" t="str">
+      <c r="I51" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration settings (MSTG-NETWORK-4)")</f>
         <v>Testing the Network Security Configuration settings (MSTG-NETWORK-4)</v>
       </c>
@@ -6166,7 +6159,7 @@
       <c r="G52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="163" t="str">
+      <c r="H52" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
@@ -6191,7 +6184,7 @@
       <c r="G53" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="163" t="str">
+      <c r="H53" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"Testing the Security Provider (MSTG-NETWORK-6)")</f>
         <v>Testing the Security Provider (MSTG-NETWORK-6)</v>
       </c>
@@ -6210,7 +6203,7 @@
       <c r="E54" s="35"/>
       <c r="F54" s="47"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="160"/>
+      <c r="H54" s="107"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -6232,7 +6225,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="33"/>
-      <c r="H55" s="163" t="str">
+      <c r="H55" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
         <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
@@ -6257,11 +6250,11 @@
         <v>3</v>
       </c>
       <c r="G56" s="33"/>
-      <c r="H56" s="163" t="str">
+      <c r="H56" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-injection-flaws-mstg-platform-2"),"Testing for Injection Flaws (MSTG-PLATFORM-2)")</f>
         <v>Testing for Injection Flaws (MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I56" s="163" t="str">
+      <c r="I56" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-fragment-injection-mstg-platform-2"),"Testing for Fragment Injection (MSTG-PLATFORM-2)")</f>
         <v>Testing for Fragment Injection (MSTG-PLATFORM-2)</v>
       </c>
@@ -6285,7 +6278,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="33"/>
-      <c r="H57" s="163" t="str">
+      <c r="H57" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
         <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
@@ -6310,7 +6303,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="163" t="str">
+      <c r="H58" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),"Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
         <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
@@ -6335,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="163" t="str">
+      <c r="H59" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5"),"Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)")</f>
         <v>Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)</v>
       </c>
@@ -6360,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="163" t="str">
+      <c r="H60" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
         <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
@@ -6385,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="163" t="str">
+      <c r="H61" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
         <v>Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
@@ -6410,7 +6403,7 @@
         <v>3</v>
       </c>
       <c r="G62" s="33"/>
-      <c r="H62" s="163" t="str">
+      <c r="H62" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
         <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
@@ -6429,7 +6422,7 @@
       <c r="E63" s="35"/>
       <c r="F63" s="47"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="160"/>
+      <c r="H63" s="107"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -6451,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="33"/>
-      <c r="H64" s="163" t="str">
+      <c r="H64" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure That the App is Properly Signed (MSTG-CODE-1)")</f>
         <v>Making Sure That the App is Properly Signed (MSTG-CODE-1)</v>
       </c>
@@ -6476,7 +6469,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="33"/>
-      <c r="H65" s="163" t="str">
+      <c r="H65" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2"),"Testing Whether the App is Debuggable (MSTG-CODE-2)")</f>
         <v>Testing Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
@@ -6501,7 +6494,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="163" t="str">
+      <c r="H66" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3"),"Testing for Debugging Symbols (MSTG-CODE-3)")</f>
         <v>Testing for Debugging Symbols (MSTG-CODE-3)</v>
       </c>
@@ -6526,7 +6519,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="33"/>
-      <c r="H67" s="163" t="str">
+      <c r="H67" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4"),"Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
         <v>Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
@@ -6551,7 +6544,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="33"/>
-      <c r="H68" s="165" t="str">
+      <c r="H68" s="112" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
@@ -6576,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="33"/>
-      <c r="H69" s="163" t="str">
+      <c r="H69" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
@@ -6601,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="33"/>
-      <c r="H70" s="163" t="str">
+      <c r="H70" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
@@ -6626,7 +6619,7 @@
         <v>3</v>
       </c>
       <c r="G71" s="33"/>
-      <c r="H71" s="163" t="str">
+      <c r="H71" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
         <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
@@ -6651,7 +6644,7 @@
         <v>3</v>
       </c>
       <c r="G72" s="33"/>
-      <c r="H72" s="163" t="str">
+      <c r="H72" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
         <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
@@ -6793,8 +6786,8 @@
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
       <c r="H82" s="41"/>
-      <c r="I82" s="166"/>
-      <c r="J82" s="166"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="113"/>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
@@ -6805,8 +6798,8 @@
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
-      <c r="I83" s="166"/>
-      <c r="J83" s="166"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
       <c r="K83" s="24"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
@@ -6817,8 +6810,8 @@
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
-      <c r="I84" s="166"/>
-      <c r="J84" s="166"/>
+      <c r="I84" s="113"/>
+      <c r="J84" s="113"/>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
@@ -6828,9 +6821,9 @@
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
-      <c r="H85" s="166"/>
-      <c r="I85" s="166"/>
-      <c r="J85" s="166"/>
+      <c r="H85" s="113"/>
+      <c r="I85" s="113"/>
+      <c r="J85" s="113"/>
       <c r="K85" s="24"/>
     </row>
   </sheetData>
@@ -6878,7 +6871,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="166"/>
+      <c r="G1" s="113"/>
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
@@ -6887,7 +6880,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="166"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
@@ -6906,7 +6899,7 @@
       <c r="F3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="115" t="s">
         <v>347</v>
       </c>
       <c r="H3" s="77" t="s">
@@ -6921,7 +6914,7 @@
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="169"/>
+      <c r="G4" s="116"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -6940,7 +6933,7 @@
       <c r="F5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="170" t="str">
+      <c r="G5" s="117" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1"),"Testing Root Detection (MSTG-RESILIENCE-1)")</f>
         <v>Testing Root Detection (MSTG-RESILIENCE-1)</v>
       </c>
@@ -6962,7 +6955,7 @@
       <c r="F6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="171" t="str">
+      <c r="G6" s="118" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2"),"Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)")</f>
         <v>Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)</v>
       </c>
@@ -6984,7 +6977,7 @@
       <c r="F7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="170" t="str">
+      <c r="G7" s="117" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3"),"Testing File Integrity Checks (MSTG-RESILIENCE-3)")</f>
         <v>Testing File Integrity Checks (MSTG-RESILIENCE-3)</v>
       </c>
@@ -7006,7 +6999,7 @@
       <c r="F8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="163" t="str">
+      <c r="G8" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)")</f>
         <v>Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)</v>
       </c>
@@ -7028,7 +7021,7 @@
       <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="170" t="str">
+      <c r="G9" s="117" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"Testing Emulator Detection (MSTG-RESILIENCE-5)")</f>
         <v>Testing Emulator Detection (MSTG-RESILIENCE-5)</v>
       </c>
@@ -7050,7 +7043,7 @@
       <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="163" t="str">
+      <c r="G10" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks-mstg-resilience-6"),"Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)")</f>
         <v>Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)</v>
       </c>
@@ -7072,7 +7065,7 @@
       <c r="F11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="172" t="s">
+      <c r="G11" s="119" t="s">
         <v>348</v>
       </c>
       <c r="H11" s="64"/>
@@ -7093,7 +7086,7 @@
       <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="173" t="s">
+      <c r="G12" s="120" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="64"/>
@@ -7114,7 +7107,7 @@
       <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="163" t="str">
+      <c r="G13" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
         <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
@@ -7128,7 +7121,7 @@
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="169"/>
+      <c r="G14" s="116"/>
       <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -7147,7 +7140,7 @@
       <c r="F15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="163" t="str">
+      <c r="G15" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10"),"Testing Device Binding (MSTG-RESILIENCE-10)")</f>
         <v>Testing Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
@@ -7161,7 +7154,7 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="169"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -7180,7 +7173,7 @@
       <c r="F17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="163" t="str">
+      <c r="G17" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
         <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
@@ -7202,7 +7195,7 @@
       <c r="F18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="173" t="s">
+      <c r="G18" s="120" t="s">
         <v>348</v>
       </c>
       <c r="H18" s="64"/>
@@ -7213,7 +7206,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="174"/>
+      <c r="G19" s="121"/>
       <c r="H19" s="40"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
@@ -7303,7 +7296,7 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="166"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
@@ -7312,7 +7305,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="166"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
@@ -7321,7 +7314,7 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="166"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="24"/>
     </row>
   </sheetData>
@@ -7339,8 +7332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7400,11 +7393,11 @@
       <c r="G3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
       <c r="K3" s="77" t="s">
         <v>225</v>
       </c>
@@ -7420,8 +7413,8 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
       <c r="J4" s="104"/>
       <c r="K4" s="31"/>
     </row>
@@ -7442,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="158" t="str">
+      <c r="H5" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -7470,21 +7463,14 @@
         <v>3</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="158" t="str">
+      <c r="H6" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="95" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x04h-Testing-Code-Quality.md#cross-site-scripting-flaws-mstg-arch-2-and-mstg-platform-2"),
-"Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
-        <v>Cross-Site Scripting Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
-      </c>
-      <c r="J6" s="163" t="str">
+      <c r="I6" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
@@ -7507,7 +7493,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="158" t="str">
+      <c r="H7" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
@@ -7535,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="158" t="str">
+      <c r="H8" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
@@ -7563,7 +7549,7 @@
       <c r="G9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="158" t="str">
+      <c r="H9" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#environmental-information"),
@@ -7591,7 +7577,7 @@
       <c r="G10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="158" t="str">
+      <c r="H10" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
@@ -7619,7 +7605,7 @@
       <c r="G11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="158" t="str">
+      <c r="H11" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
@@ -7653,7 +7639,7 @@
       <c r="G12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="158" t="str">
+      <c r="H12" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptographic-policy"),
@@ -7681,7 +7667,7 @@
       <c r="G13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="158" t="str">
+      <c r="H13" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
@@ -7709,7 +7695,7 @@
       <c r="G14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="158" t="str">
+      <c r="H14" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
@@ -7731,7 +7717,7 @@
       <c r="E15" s="35"/>
       <c r="F15" s="47"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="160"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -7753,7 +7739,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="163" t="str">
+      <c r="H16" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
@@ -7778,7 +7764,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="163" t="str">
+      <c r="H17" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
@@ -7803,7 +7789,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="33"/>
-      <c r="H18" s="163" t="str">
+      <c r="H18" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3"),"Checking Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
         <v>Checking Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
@@ -7828,7 +7814,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="33"/>
-      <c r="H19" s="163" t="str">
+      <c r="H19" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)")</f>
         <v>Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
@@ -7853,7 +7839,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="33"/>
-      <c r="H20" s="163" t="str">
+      <c r="H20" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5"),"Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)")</f>
         <v>Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)</v>
       </c>
@@ -7878,7 +7864,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="33"/>
-      <c r="H21" s="162" t="str">
+      <c r="H21" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
         <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
@@ -7903,7 +7889,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="33"/>
-      <c r="H22" s="163" t="str">
+      <c r="H22" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)")</f>
         <v>Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
@@ -7928,7 +7914,7 @@
       <c r="G23" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="163" t="str">
+      <c r="H23" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
         <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
@@ -7953,7 +7939,7 @@
       <c r="G24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="163" t="str">
+      <c r="H24" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
         <v>Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)</v>
       </c>
@@ -7978,7 +7964,7 @@
       <c r="G25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="163" t="str">
+      <c r="H25" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
         <v>Testing Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
@@ -8003,7 +7989,7 @@
       <c r="G26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="163" t="str">
+      <c r="H26" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
@@ -8028,7 +8014,7 @@
       <c r="G27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="165" t="str">
+      <c r="H27" s="112" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
         <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
@@ -8047,7 +8033,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="47"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="160"/>
+      <c r="H28" s="107"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -8069,7 +8055,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="33"/>
-      <c r="H29" s="163" t="str">
+      <c r="H29" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
@@ -8094,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="33"/>
-      <c r="H30" s="162" t="str">
+      <c r="H30" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
@@ -8119,7 +8105,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="162" t="str">
+      <c r="H31" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
@@ -8144,7 +8130,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="163" t="str">
+      <c r="H32" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
@@ -8169,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="33"/>
-      <c r="H33" s="163" t="str">
+      <c r="H33" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
@@ -8194,7 +8180,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="163" t="str">
+      <c r="H34" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6")," Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
         <v xml:space="preserve"> Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
@@ -8213,7 +8199,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="47"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="160"/>
+      <c r="H35" s="107"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -8235,15 +8221,15 @@
         <v>3</v>
       </c>
       <c r="G36" s="33"/>
-      <c r="H36" s="163" t="str">
+      <c r="H36" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="I36" s="163" t="str">
+      <c r="I36" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J36" s="163"/>
+      <c r="J36" s="110"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="2:12" ht="29" x14ac:dyDescent="0.35">
@@ -8263,7 +8249,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="33"/>
-      <c r="H37" s="163" t="str">
+      <c r="H37" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
         <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
@@ -8288,15 +8274,15 @@
         <v>3</v>
       </c>
       <c r="G38" s="33"/>
-      <c r="H38" s="163" t="str">
+      <c r="H38" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
         <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
       </c>
-      <c r="I38" s="163" t="str">
+      <c r="I38" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J38" s="163"/>
+      <c r="J38" s="110"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.35">
@@ -8316,7 +8302,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="33"/>
-      <c r="H39" s="163" t="str">
+      <c r="H39" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
         <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
@@ -8338,7 +8324,7 @@
       <c r="E40" s="26"/>
       <c r="F40" s="45"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="163" t="str">
+      <c r="H40" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
@@ -8364,15 +8350,15 @@
         <v>3</v>
       </c>
       <c r="G41" s="33"/>
-      <c r="H41" s="163" t="str">
+      <c r="H41" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="163" t="str">
+      <c r="I41" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
         <v>Dynamic Testing (MSTG-AUTH-6)</v>
       </c>
-      <c r="J41" s="163"/>
+      <c r="J41" s="110"/>
       <c r="K41" s="64"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.35">
@@ -8392,12 +8378,12 @@
       <c r="G42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H42" s="163" t="str">
+      <c r="H42" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
         <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
       <c r="K42" s="64"/>
     </row>
     <row r="43" spans="2:12" ht="29" x14ac:dyDescent="0.35">
@@ -8417,12 +8403,12 @@
       <c r="G43" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="163" t="str">
+      <c r="H43" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
       <c r="K43" s="64"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
@@ -8442,7 +8428,7 @@
       <c r="G44" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="162" t="str">
+      <c r="H44" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
@@ -8467,7 +8453,7 @@
       <c r="G45" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="162" t="str">
+      <c r="H45" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
@@ -8492,7 +8478,7 @@
       <c r="G46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="165" t="str">
+      <c r="H46" s="112" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),
@@ -8514,7 +8500,7 @@
       <c r="E47" s="35"/>
       <c r="F47" s="47"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="160"/>
+      <c r="H47" s="107"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -8536,7 +8522,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="33"/>
-      <c r="H48" s="162" t="str">
+      <c r="H48" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
@@ -8561,7 +8547,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="33"/>
-      <c r="H49" s="162" t="str">
+      <c r="H49" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
@@ -8589,7 +8575,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="33"/>
-      <c r="H50" s="163" t="str">
+      <c r="H50" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
@@ -8614,7 +8600,7 @@
       <c r="G51" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="163" t="str">
+      <c r="H51" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
@@ -8639,7 +8625,7 @@
       <c r="G52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="162" t="str">
+      <c r="H52" s="109" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
@@ -8664,7 +8650,7 @@
       <c r="G53" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="163" t="str">
+      <c r="H53" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),
@@ -8686,7 +8672,7 @@
       <c r="E54" s="35"/>
       <c r="F54" s="47"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="160"/>
+      <c r="H54" s="107"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
@@ -8708,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="33"/>
-      <c r="H55" s="163" t="str">
+      <c r="H55" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
         <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
@@ -8733,7 +8719,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="33"/>
-      <c r="H56" s="163" t="str">
+      <c r="H56" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
@@ -8758,7 +8744,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="33"/>
-      <c r="H57" s="163" t="str">
+      <c r="H57" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
         <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
@@ -8783,7 +8769,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="158" t="str">
+      <c r="H58" s="105" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),
@@ -8811,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="33"/>
-      <c r="H59" s="163" t="str">
+      <c r="H59" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5"),"Testing iOS WebViews (MSTG-PLATFORM-5)")</f>
         <v>Testing iOS WebViews (MSTG-PLATFORM-5)</v>
       </c>
@@ -8836,7 +8822,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="33"/>
-      <c r="H60" s="163" t="str">
+      <c r="H60" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
         <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
@@ -8861,7 +8847,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="163" t="str">
+      <c r="H61" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
         <v>Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
@@ -8886,7 +8872,7 @@
         <v>3</v>
       </c>
       <c r="G62" s="33"/>
-      <c r="H62" s="163" t="str">
+      <c r="H62" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
         <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
@@ -8905,7 +8891,7 @@
       <c r="E63" s="35"/>
       <c r="F63" s="47"/>
       <c r="G63" s="35"/>
-      <c r="H63" s="160"/>
+      <c r="H63" s="107"/>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -8927,7 +8913,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="33"/>
-      <c r="H64" s="163" t="str">
+      <c r="H64" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure that the App Is Properly Signed (MSTG-CODE-1)")</f>
         <v>Making Sure that the App Is Properly Signed (MSTG-CODE-1)</v>
       </c>
@@ -8952,7 +8938,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="33"/>
-      <c r="H65" s="163" t="str">
+      <c r="H65" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2"),"Determining Whether the App is Debuggable (MSTG-CODE-2)")</f>
         <v>Determining Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
@@ -8977,7 +8963,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="163" t="str">
+      <c r="H66" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3"),"Finding Debugging Symbols (MSTG-CODE-3)")</f>
         <v>Finding Debugging Symbols (MSTG-CODE-3)</v>
       </c>
@@ -9002,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="33"/>
-      <c r="H67" s="163" t="str">
+      <c r="H67" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4"),"Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
         <v>Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
@@ -9027,7 +9013,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="33"/>
-      <c r="H68" s="165" t="str">
+      <c r="H68" s="112" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
@@ -9052,7 +9038,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="33"/>
-      <c r="H69" s="163" t="str">
+      <c r="H69" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
@@ -9077,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="33"/>
-      <c r="H70" s="163" t="str">
+      <c r="H70" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
@@ -9102,7 +9088,7 @@
         <v>3</v>
       </c>
       <c r="G71" s="33"/>
-      <c r="H71" s="163" t="str">
+      <c r="H71" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
         <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
@@ -9127,7 +9113,7 @@
         <v>3</v>
       </c>
       <c r="G72" s="33"/>
-      <c r="H72" s="163" t="str">
+      <c r="H72" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
         <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
@@ -9269,8 +9255,8 @@
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
       <c r="H82" s="41"/>
-      <c r="I82" s="166"/>
-      <c r="J82" s="166"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="113"/>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
@@ -9281,8 +9267,8 @@
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
       <c r="H83" s="41"/>
-      <c r="I83" s="166"/>
-      <c r="J83" s="166"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
       <c r="K83" s="24"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
@@ -9293,8 +9279,8 @@
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
       <c r="H84" s="41"/>
-      <c r="I84" s="166"/>
-      <c r="J84" s="166"/>
+      <c r="I84" s="113"/>
+      <c r="J84" s="113"/>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
@@ -9304,9 +9290,9 @@
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
-      <c r="H85" s="166"/>
-      <c r="I85" s="166"/>
-      <c r="J85" s="166"/>
+      <c r="H85" s="113"/>
+      <c r="I85" s="113"/>
+      <c r="J85" s="113"/>
       <c r="K85" s="24"/>
     </row>
   </sheetData>
@@ -9355,11 +9341,11 @@
         <v>189</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="G1" s="166"/>
+      <c r="G1" s="113"/>
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G2" s="166"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
@@ -9378,7 +9364,7 @@
       <c r="F3" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="115" t="s">
         <v>347</v>
       </c>
       <c r="H3" s="77" t="s">
@@ -9395,7 +9381,7 @@
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="169"/>
+      <c r="G4" s="116"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -9414,7 +9400,7 @@
       <c r="F5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="163" t="str">
+      <c r="G5" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"Jailbreak Detection (MSTG-RESILIENCE-1)")</f>
         <v>Jailbreak Detection (MSTG-RESILIENCE-1)</v>
       </c>
@@ -9436,7 +9422,7 @@
       <c r="F6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="170" t="str">
+      <c r="G6" s="117" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging Checks (MSTG-RESILIENCE-2)")</f>
         <v>Anti-Debugging Checks (MSTG-RESILIENCE-2)</v>
       </c>
@@ -9458,7 +9444,7 @@
       <c r="F7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="170" t="str">
+      <c r="G7" s="117" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
         <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
@@ -9480,7 +9466,7 @@
       <c r="F8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="122" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="64"/>
@@ -9501,7 +9487,7 @@
       <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="176" t="s">
+      <c r="G9" s="123" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="64"/>
@@ -9522,7 +9508,7 @@
       <c r="F10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="122" t="s">
         <v>81</v>
       </c>
       <c r="H10" s="64"/>
@@ -9543,7 +9529,7 @@
       <c r="F11" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="173" t="s">
+      <c r="G11" s="120" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="64"/>
@@ -9564,7 +9550,7 @@
       <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="173" t="s">
+      <c r="G12" s="120" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="64"/>
@@ -9585,7 +9571,7 @@
       <c r="F13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="176" t="s">
+      <c r="G13" s="123" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="64"/>
@@ -9598,7 +9584,7 @@
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="169"/>
+      <c r="G14" s="116"/>
       <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -9617,7 +9603,7 @@
       <c r="F15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="163" t="str">
+      <c r="G15" s="110" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"Device Binding (MSTG-RESILIENCE-10)")</f>
         <v>Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
@@ -9631,7 +9617,7 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="169"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -9650,7 +9636,7 @@
       <c r="F17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="177" t="str">
+      <c r="G17" s="124" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
         <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
@@ -9672,7 +9658,7 @@
       <c r="F18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="173" t="s">
+      <c r="G18" s="120" t="s">
         <v>81</v>
       </c>
       <c r="H18" s="64"/>
@@ -9683,7 +9669,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="174"/>
+      <c r="G19" s="121"/>
       <c r="H19" s="40"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
@@ -9773,7 +9759,7 @@
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="166"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
@@ -9782,7 +9768,7 @@
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="166"/>
+      <c r="G28" s="113"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
@@ -9791,7 +9777,7 @@
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="166"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
@@ -9870,7 +9856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -9881,10 +9867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="157"/>
+      <c r="B1" s="177"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pec1be7\git\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DF16E8-3A5C-4382-B6F0-C69F2FCE4A76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="765" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="765" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="MASVS_VERSION">Dashboard!$D$11</definedName>
     <definedName name="MSTG_VERSION">Dashboard!$D$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -1170,11 +1169,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2380,13 +2379,31 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2421,12 +2438,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2445,17 +2456,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2466,33 +2502,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2505,16 +2514,6 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2538,69 +2537,69 @@
     </xf>
   </cellXfs>
   <cellStyles count="63">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Normal 2" xfId="62"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2696,7 +2695,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2898,7 +2897,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918959216"/>
@@ -2951,7 +2950,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918956896"/>
@@ -2998,7 +2997,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3028,7 +3027,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3042,7 +3041,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3238,7 +3237,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920829984"/>
@@ -3291,7 +3290,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920827664"/>
@@ -3338,7 +3337,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3368,7 +3367,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3836,86 +3835,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="129" t="s">
+    <row r="1" spans="2:4" ht="7.95" customHeight="1"/>
+    <row r="2" spans="2:4">
+      <c r="B2" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="134"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-    </row>
-    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="137"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="138" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+    </row>
+    <row r="8" spans="2:4" hidden="1">
+      <c r="B8" s="141"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2">
+      <c r="B9" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="82" t="s">
         <v>191</v>
       </c>
       <c r="C10" s="83"/>
       <c r="D10" s="85"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="145" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="145"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="87" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="146" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="150" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="146"/>
+      <c r="C12" s="150"/>
       <c r="D12" s="88" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -3924,20 +3923,20 @@
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="145" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="145"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="86" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="144" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="84" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
@@ -3946,262 +3945,265 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141" t="s">
+    <row r="15" spans="2:4" ht="40.200000000000003" customHeight="1">
+      <c r="B15" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="125" t="s">
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="127" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="125" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="126"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="125" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="126"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="125" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="126"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="125" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="130" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="126"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="125" t="s">
+    <row r="22" spans="2:4" ht="70.5" customHeight="1">
+      <c r="B22" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="126"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="16.2">
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="125" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="126"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="125" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="126"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="125" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="126"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="125" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="126"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="140"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" ht="16.2">
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4">
       <c r="B32" s="66" t="s">
         <v>201</v>
       </c>
       <c r="C32" s="67"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="125" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="126"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="125" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="126"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="125" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="126"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="125" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="126"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="140"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" ht="16.2">
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="133"/>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="147"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="149"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="127" t="s">
+    <row r="39" spans="2:4" ht="16.2">
+      <c r="B39" s="127"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="129"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="150"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="54"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="127" t="s">
+    <row r="41" spans="2:4">
+      <c r="B41" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="150"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="54"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="127" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="150"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="54"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="127" t="s">
+    <row r="43" spans="2:4">
+      <c r="B43" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="150"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="55"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="127" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="150"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="54"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="147"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="149"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="127" t="s">
+    <row r="45" spans="2:4" ht="16.2">
+      <c r="B45" s="127"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="150"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="54"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="127" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="150"/>
+      <c r="C47" s="126"/>
       <c r="D47" s="54"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="127" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="150"/>
+      <c r="C48" s="126"/>
       <c r="D48" s="54"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="127" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="150"/>
+      <c r="C49" s="126"/>
       <c r="D49" s="55"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="127" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="150"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4216,19 +4218,16 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4237,27 +4236,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A27" zoomScale="88" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="54.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="54.69921875" style="6" customWidth="1"/>
     <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="6"/>
+    <col min="5" max="5" width="4.69921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:24" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:24" ht="15.6" thickBot="1">
       <c r="B2" s="8"/>
       <c r="C2" s="23" t="s">
         <v>68</v>
@@ -4266,209 +4265,209 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="15">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-    </row>
-    <row r="5" spans="2:24" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="15">
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.2" customHeight="1" thickBot="1">
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="2:24" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" ht="19.2" customHeight="1" thickBot="1">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="168" t="s">
+      <c r="G6" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="169"/>
-      <c r="I6" s="170"/>
-      <c r="V6" s="151" t="s">
+      <c r="H6" s="162"/>
+      <c r="I6" s="163"/>
+      <c r="V6" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="152"/>
-      <c r="X6" s="153"/>
-    </row>
-    <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W6" s="165"/>
+      <c r="X6" s="166"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.6" thickBot="1">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.2" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="154">
+      <c r="G8" s="152">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="156"/>
-      <c r="V8" s="154">
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="V8" s="152">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="155"/>
-      <c r="X8" s="156"/>
-    </row>
-    <row r="9" spans="2:24" ht="91.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="153"/>
+      <c r="X8" s="154"/>
+    </row>
+    <row r="9" spans="2:24" ht="91.2" customHeight="1">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="159"/>
-      <c r="V9" s="157"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="159"/>
-    </row>
-    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="157"/>
+    </row>
+    <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
-      <c r="V10" s="157"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="159"/>
-    </row>
-    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="157"/>
+    </row>
+    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="162"/>
-    </row>
-    <row r="12" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G11" s="158"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="160"/>
+    </row>
+    <row r="12" spans="2:24" ht="16.2" customHeight="1">
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+    </row>
+    <row r="13" spans="2:24" ht="14.4">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="14.4">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" ht="15">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.2" customHeight="1">
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+    </row>
+    <row r="17" spans="2:6" ht="14.4">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="14.4">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="C27" s="19"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6">
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6">
       <c r="C32" s="19"/>
     </row>
-    <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="164" t="s">
+    <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
+    <row r="41" spans="3:11" ht="14.4">
+      <c r="D41" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="164" t="s">
+      <c r="E41" s="169"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="166"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I41" s="169"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="170"/>
+    </row>
+    <row r="42" spans="3:11">
       <c r="D42" s="18" t="s">
         <v>73</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:11" ht="14.4">
       <c r="C43" s="12" t="s">
         <v>101</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:11" ht="14.4">
       <c r="C44" s="12" t="s">
         <v>102</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:11" ht="14.4">
       <c r="C45" s="12" t="s">
         <v>103</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:11" ht="14.4">
       <c r="C46" s="12" t="s">
         <v>104</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:11" ht="14.4">
       <c r="C47" s="12" t="s">
         <v>105</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:11" ht="14.4">
       <c r="C48" s="12" t="s">
         <v>106</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" ht="14.4">
       <c r="C49" s="12" t="s">
         <v>107</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" ht="14.4">
       <c r="C50" s="12" t="s">
         <v>108</v>
       </c>
@@ -4792,15 +4791,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4837,27 +4836,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="96.75" style="53" customWidth="1"/>
-    <col min="8" max="8" width="101.58203125" customWidth="1"/>
-    <col min="9" max="9" width="83.58203125" customWidth="1"/>
-    <col min="10" max="10" width="71.25" customWidth="1"/>
-    <col min="11" max="11" width="30.75" customWidth="1"/>
-    <col min="12" max="13" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="96.69921875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="101.59765625" customWidth="1"/>
+    <col min="9" max="9" width="83.59765625" customWidth="1"/>
+    <col min="10" max="10" width="71.19921875" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" customWidth="1"/>
+    <col min="12" max="13" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="171" t="s">
         <v>187</v>
       </c>
@@ -4869,7 +4868,7 @@
       <c r="H1" s="172"/>
       <c r="I1" s="172"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11">
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="51"/>
@@ -4881,7 +4880,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -4925,7 +4924,7 @@
       <c r="J4" s="104"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11">
       <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
@@ -4959,7 +4958,7 @@
       <c r="J5" s="64"/>
       <c r="K5" s="64"/>
     </row>
-    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="30" customHeight="1">
       <c r="B6" s="63" t="s">
         <v>260</v>
       </c>
@@ -4989,7 +4988,7 @@
       </c>
       <c r="K6" s="64"/>
     </row>
-    <row r="7" spans="2:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="30.6" customHeight="1">
       <c r="B7" s="63" t="s">
         <v>261</v>
       </c>
@@ -5017,7 +5016,7 @@
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11">
       <c r="B8" s="63" t="s">
         <v>262</v>
       </c>
@@ -5045,7 +5044,7 @@
       <c r="J8" s="64"/>
       <c r="K8" s="64"/>
     </row>
-    <row r="9" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="28.8">
       <c r="B9" s="63" t="s">
         <v>263</v>
       </c>
@@ -5073,7 +5072,7 @@
       <c r="J9" s="64"/>
       <c r="K9" s="64"/>
     </row>
-    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="63" t="s">
         <v>264</v>
       </c>
@@ -5101,7 +5100,7 @@
       <c r="J10" s="64"/>
       <c r="K10" s="64"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11">
       <c r="B11" s="63" t="s">
         <v>4</v>
       </c>
@@ -5138,7 +5137,7 @@
       </c>
       <c r="K11" s="64"/>
     </row>
-    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="63" t="s">
         <v>265</v>
       </c>
@@ -5166,7 +5165,7 @@
       <c r="J12" s="64"/>
       <c r="K12" s="64"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11">
       <c r="B13" s="63" t="s">
         <v>266</v>
       </c>
@@ -5194,7 +5193,7 @@
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
@@ -5222,7 +5221,7 @@
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
@@ -5238,7 +5237,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="28.8">
       <c r="B16" s="48" t="s">
         <v>7</v>
       </c>
@@ -5266,7 +5265,7 @@
       <c r="J16" s="64"/>
       <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="28.8">
       <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
@@ -5291,7 +5290,7 @@
       <c r="J17" s="64"/>
       <c r="K17" s="64"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
@@ -5316,7 +5315,7 @@
       <c r="J18" s="64"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
@@ -5341,7 +5340,7 @@
       <c r="J19" s="64"/>
       <c r="K19" s="64"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11">
       <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
@@ -5366,7 +5365,7 @@
       <c r="J20" s="64"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11">
       <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
@@ -5391,7 +5390,7 @@
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="28.8">
       <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
@@ -5416,7 +5415,7 @@
       <c r="J22" s="64"/>
       <c r="K22" s="64"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11">
       <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +5440,7 @@
       <c r="J23" s="64"/>
       <c r="K23" s="64"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11">
       <c r="B24" s="48" t="s">
         <v>12</v>
       </c>
@@ -5466,7 +5465,7 @@
       <c r="J24" s="64"/>
       <c r="K24" s="64"/>
     </row>
-    <row r="25" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="33" customHeight="1">
       <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
@@ -5491,7 +5490,7 @@
       <c r="J25" s="64"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="28.8">
       <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
@@ -5519,7 +5518,7 @@
       <c r="J26" s="64"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="28.8">
       <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
@@ -5544,7 +5543,7 @@
       <c r="J27" s="64"/>
       <c r="K27" s="64"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -5560,7 +5559,7 @@
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11">
       <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
@@ -5588,7 +5587,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="31.2">
       <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
@@ -5616,7 +5615,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="2:11" ht="31" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="31.2">
       <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
@@ -5644,7 +5643,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="2:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="28.95" customHeight="1">
       <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
@@ -5672,7 +5671,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12">
       <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
@@ -5697,7 +5696,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12">
       <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
@@ -5722,7 +5721,7 @@
       <c r="J34" s="64"/>
       <c r="K34" s="64"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
@@ -5738,7 +5737,7 @@
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="28.8">
       <c r="B36" s="90" t="s">
         <v>22</v>
       </c>
@@ -5769,7 +5768,7 @@
       </c>
       <c r="K36" s="64"/>
     </row>
-    <row r="37" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="28.8">
       <c r="B37" s="90" t="s">
         <v>44</v>
       </c>
@@ -5794,7 +5793,7 @@
       <c r="J37" s="64"/>
       <c r="K37" s="64"/>
     </row>
-    <row r="38" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="28.8">
       <c r="B38" s="90" t="s">
         <v>45</v>
       </c>
@@ -5823,7 +5822,7 @@
       <c r="K38" s="64"/>
       <c r="L38" s="50"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12">
       <c r="B39" s="90" t="s">
         <v>23</v>
       </c>
@@ -5845,7 +5844,7 @@
       <c r="K39" s="64"/>
       <c r="L39" s="50"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12">
       <c r="B40" s="90" t="s">
         <v>24</v>
       </c>
@@ -5870,7 +5869,7 @@
       <c r="J40" s="64"/>
       <c r="K40" s="64"/>
     </row>
-    <row r="41" spans="2:12" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="31.95" customHeight="1">
       <c r="B41" s="90" t="s">
         <v>46</v>
       </c>
@@ -5898,7 +5897,7 @@
       <c r="J41" s="64"/>
       <c r="K41" s="64"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12">
       <c r="B42" s="90" t="s">
         <v>47</v>
       </c>
@@ -5923,7 +5922,7 @@
       <c r="J42" s="114"/>
       <c r="K42" s="64"/>
     </row>
-    <row r="43" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="28.8">
       <c r="B43" s="90" t="s">
         <v>25</v>
       </c>
@@ -5948,7 +5947,7 @@
       <c r="J43" s="64"/>
       <c r="K43" s="64"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12">
       <c r="B44" s="90" t="s">
         <v>26</v>
       </c>
@@ -5973,7 +5972,7 @@
       <c r="J44" s="64"/>
       <c r="K44" s="64"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12">
       <c r="B45" s="90" t="s">
         <v>27</v>
       </c>
@@ -5998,7 +5997,7 @@
       <c r="J45" s="64"/>
       <c r="K45" s="64"/>
     </row>
-    <row r="46" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="28.8">
       <c r="B46" s="90" t="s">
         <v>93</v>
       </c>
@@ -6023,7 +6022,7 @@
       <c r="J46" s="64"/>
       <c r="K46" s="64"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
@@ -6039,7 +6038,7 @@
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12">
       <c r="B48" s="90" t="s">
         <v>29</v>
       </c>
@@ -6064,7 +6063,7 @@
       <c r="J48" s="64"/>
       <c r="K48" s="64"/>
     </row>
-    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="28.8">
       <c r="B49" s="90" t="s">
         <v>48</v>
       </c>
@@ -6089,7 +6088,7 @@
       <c r="J49" s="64"/>
       <c r="K49" s="64"/>
     </row>
-    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="28.8">
       <c r="B50" s="90" t="s">
         <v>30</v>
       </c>
@@ -6114,7 +6113,7 @@
       <c r="J50" s="95"/>
       <c r="K50" s="64"/>
     </row>
-    <row r="51" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="43.2">
       <c r="B51" s="90" t="s">
         <v>49</v>
       </c>
@@ -6136,13 +6135,13 @@
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)</v>
       </c>
       <c r="I51" s="110" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration settings (MSTG-NETWORK-4)")</f>
-        <v>Testing the Network Security Configuration settings (MSTG-NETWORK-4)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration Settings (MSTG-NETWORK-4)")</f>
+        <v>Testing the Network Security Configuration Settings (MSTG-NETWORK-4)</v>
       </c>
       <c r="J51" s="64"/>
       <c r="K51" s="64"/>
     </row>
-    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="28.8">
       <c r="B52" s="90" t="s">
         <v>31</v>
       </c>
@@ -6167,7 +6166,7 @@
       <c r="J52" s="64"/>
       <c r="K52" s="64"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11">
       <c r="B53" s="90" t="s">
         <v>267</v>
       </c>
@@ -6192,7 +6191,7 @@
       <c r="J53" s="64"/>
       <c r="K53" s="64"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
@@ -6208,7 +6207,7 @@
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11">
       <c r="B55" s="90" t="s">
         <v>50</v>
       </c>
@@ -6233,7 +6232,7 @@
       <c r="J55" s="64"/>
       <c r="K55" s="64"/>
     </row>
-    <row r="56" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="90" t="s">
         <v>51</v>
       </c>
@@ -6261,7 +6260,7 @@
       <c r="J56" s="64"/>
       <c r="K56" s="64"/>
     </row>
-    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" ht="28.8">
       <c r="B57" s="90" t="s">
         <v>52</v>
       </c>
@@ -6286,7 +6285,7 @@
       <c r="J57" s="64"/>
       <c r="K57" s="64"/>
     </row>
-    <row r="58" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="90" t="s">
         <v>53</v>
       </c>
@@ -6311,7 +6310,7 @@
       <c r="J58" s="64"/>
       <c r="K58" s="64"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11">
       <c r="B59" s="90" t="s">
         <v>54</v>
       </c>
@@ -6336,7 +6335,7 @@
       <c r="J59" s="64"/>
       <c r="K59" s="64"/>
     </row>
-    <row r="60" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" ht="28.8">
       <c r="B60" s="90" t="s">
         <v>55</v>
       </c>
@@ -6361,7 +6360,7 @@
       <c r="J60" s="64"/>
       <c r="K60" s="64"/>
     </row>
-    <row r="61" spans="2:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" ht="31.95" customHeight="1">
       <c r="B61" s="90" t="s">
         <v>268</v>
       </c>
@@ -6386,7 +6385,7 @@
       <c r="J61" s="64"/>
       <c r="K61" s="64"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11">
       <c r="B62" s="90" t="s">
         <v>269</v>
       </c>
@@ -6411,7 +6410,7 @@
       <c r="J62" s="64"/>
       <c r="K62" s="64"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
@@ -6427,7 +6426,7 @@
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
     </row>
-    <row r="64" spans="2:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" ht="30.6" customHeight="1">
       <c r="B64" s="90" t="s">
         <v>56</v>
       </c>
@@ -6452,7 +6451,7 @@
       <c r="J64" s="64"/>
       <c r="K64" s="64"/>
     </row>
-    <row r="65" spans="2:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" ht="30.6" customHeight="1">
       <c r="B65" s="90" t="s">
         <v>34</v>
       </c>
@@ -6477,7 +6476,7 @@
       <c r="J65" s="64"/>
       <c r="K65" s="64"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11">
       <c r="B66" s="90" t="s">
         <v>57</v>
       </c>
@@ -6502,7 +6501,7 @@
       <c r="J66" s="64"/>
       <c r="K66" s="64"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11">
       <c r="B67" s="90" t="s">
         <v>58</v>
       </c>
@@ -6527,7 +6526,7 @@
       <c r="J67" s="64"/>
       <c r="K67" s="64"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11">
       <c r="B68" s="90" t="s">
         <v>59</v>
       </c>
@@ -6552,7 +6551,7 @@
       <c r="J68" s="64"/>
       <c r="K68" s="64"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11">
       <c r="B69" s="90" t="s">
         <v>35</v>
       </c>
@@ -6577,7 +6576,7 @@
       <c r="J69" s="64"/>
       <c r="K69" s="64"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11">
       <c r="B70" s="90" t="s">
         <v>36</v>
       </c>
@@ -6602,7 +6601,7 @@
       <c r="J70" s="64"/>
       <c r="K70" s="64"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11">
       <c r="B71" s="90" t="s">
         <v>37</v>
       </c>
@@ -6627,7 +6626,7 @@
       <c r="J71" s="64"/>
       <c r="K71" s="64"/>
     </row>
-    <row r="72" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="28.8">
       <c r="B72" s="90" t="s">
         <v>95</v>
       </c>
@@ -6652,7 +6651,7 @@
       <c r="J72" s="64"/>
       <c r="K72" s="64"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11">
       <c r="B73" s="37"/>
       <c r="C73" s="39"/>
       <c r="D73" s="38"/>
@@ -6664,7 +6663,7 @@
       <c r="J73" s="40"/>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="42"/>
@@ -6676,7 +6675,7 @@
       <c r="J74" s="41"/>
       <c r="K74" s="41"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="49"/>
@@ -6688,7 +6687,7 @@
       <c r="J75" s="41"/>
       <c r="K75" s="41"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="42"/>
@@ -6700,7 +6699,7 @@
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11">
       <c r="B77" s="73" t="s">
         <v>215</v>
       </c>
@@ -6714,7 +6713,7 @@
       <c r="J77" s="41"/>
       <c r="K77" s="41"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11">
       <c r="B78" s="74" t="s">
         <v>220</v>
       </c>
@@ -6730,7 +6729,7 @@
       <c r="J78" s="41"/>
       <c r="K78" s="41"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11">
       <c r="B79" s="43" t="s">
         <v>71</v>
       </c>
@@ -6746,7 +6745,7 @@
       <c r="J79" s="41"/>
       <c r="K79" s="41"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11">
       <c r="B80" s="43" t="s">
         <v>72</v>
       </c>
@@ -6762,7 +6761,7 @@
       <c r="J80" s="41"/>
       <c r="K80" s="41"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11">
       <c r="B81" s="43" t="s">
         <v>64</v>
       </c>
@@ -6778,7 +6777,7 @@
       <c r="J81" s="41"/>
       <c r="K81" s="41"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11">
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
       <c r="D82" s="42"/>
@@ -6790,7 +6789,7 @@
       <c r="J82" s="113"/>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:11">
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
@@ -6802,7 +6801,7 @@
       <c r="J83" s="113"/>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:11">
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
       <c r="D84" s="42"/>
@@ -6814,7 +6813,7 @@
       <c r="J84" s="113"/>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:11">
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="52"/>
@@ -6833,10 +6832,10 @@
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G34 G16:G27 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G34 G16:G27 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6846,24 +6845,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="93.25" customWidth="1"/>
-    <col min="7" max="7" width="69.25" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" customWidth="1"/>
+    <col min="4" max="4" width="93.19921875" customWidth="1"/>
+    <col min="7" max="7" width="69.19921875" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="7" t="s">
         <v>186</v>
       </c>
@@ -6874,7 +6873,7 @@
       <c r="G1" s="113"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8">
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -6883,7 +6882,7 @@
       <c r="G2" s="113"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8">
       <c r="B3" s="71" t="s">
         <v>120</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8">
       <c r="B4" s="34"/>
       <c r="C4" s="47"/>
       <c r="D4" s="70" t="s">
@@ -6917,7 +6916,7 @@
       <c r="G4" s="116"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="63" t="s">
         <v>250</v>
       </c>
@@ -6939,7 +6938,7 @@
       </c>
       <c r="H5" s="64"/>
     </row>
-    <row r="6" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="31.95" customHeight="1">
       <c r="B6" s="63" t="s">
         <v>251</v>
       </c>
@@ -6961,7 +6960,7 @@
       </c>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8">
       <c r="B7" s="63" t="s">
         <v>252</v>
       </c>
@@ -6983,7 +6982,7 @@
       </c>
       <c r="H7" s="64"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8">
       <c r="B8" s="63" t="s">
         <v>253</v>
       </c>
@@ -7005,7 +7004,7 @@
       </c>
       <c r="H8" s="64"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8">
       <c r="B9" s="63" t="s">
         <v>254</v>
       </c>
@@ -7027,7 +7026,7 @@
       </c>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8">
       <c r="B10" s="63" t="s">
         <v>255</v>
       </c>
@@ -7049,7 +7048,7 @@
       </c>
       <c r="H10" s="64"/>
     </row>
-    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="63" t="s">
         <v>256</v>
       </c>
@@ -7070,7 +7069,7 @@
       </c>
       <c r="H11" s="64"/>
     </row>
-    <row r="12" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="31.95" customHeight="1">
       <c r="B12" s="63" t="s">
         <v>257</v>
       </c>
@@ -7091,7 +7090,7 @@
       </c>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="28.8">
       <c r="B13" s="63" t="s">
         <v>97</v>
       </c>
@@ -7113,7 +7112,7 @@
       </c>
       <c r="H13" s="64"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8">
       <c r="B14" s="34"/>
       <c r="C14" s="47"/>
       <c r="D14" s="70" t="s">
@@ -7124,7 +7123,7 @@
       <c r="G14" s="116"/>
       <c r="H14" s="36"/>
     </row>
-    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="63" t="s">
         <v>60</v>
       </c>
@@ -7146,7 +7145,7 @@
       </c>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8">
       <c r="B16" s="34"/>
       <c r="C16" s="47"/>
       <c r="D16" s="70" t="s">
@@ -7157,7 +7156,7 @@
       <c r="G16" s="116"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="63" t="s">
         <v>258</v>
       </c>
@@ -7179,7 +7178,7 @@
       </c>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="72">
       <c r="B18" s="63" t="s">
         <v>259</v>
       </c>
@@ -7200,7 +7199,7 @@
       </c>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8">
       <c r="B19" s="37"/>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
@@ -7209,7 +7208,7 @@
       <c r="G19" s="121"/>
       <c r="H19" s="40"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -7218,7 +7217,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -7227,7 +7226,7 @@
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8">
       <c r="B22" s="73" t="s">
         <v>215</v>
       </c>
@@ -7238,7 +7237,7 @@
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8">
       <c r="B23" s="74" t="s">
         <v>220</v>
       </c>
@@ -7251,7 +7250,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8">
       <c r="B24" s="43" t="s">
         <v>71</v>
       </c>
@@ -7264,7 +7263,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8">
       <c r="B25" s="43" t="s">
         <v>72</v>
       </c>
@@ -7277,7 +7276,7 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8">
       <c r="B26" s="43" t="s">
         <v>64</v>
       </c>
@@ -7290,7 +7289,7 @@
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -7299,7 +7298,7 @@
       <c r="G27" s="113"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -7308,7 +7307,7 @@
       <c r="G28" s="113"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -7319,7 +7318,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F18 F15 F5:F13" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F18 F15 F5:F13">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7329,26 +7328,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L85"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="97.25" customWidth="1"/>
-    <col min="8" max="8" width="91.58203125" customWidth="1"/>
-    <col min="9" max="10" width="75.4140625" customWidth="1"/>
-    <col min="11" max="11" width="30.75" customWidth="1"/>
-    <col min="12" max="13" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" customWidth="1"/>
+    <col min="4" max="4" width="97.19921875" customWidth="1"/>
+    <col min="8" max="8" width="91.59765625" customWidth="1"/>
+    <col min="9" max="10" width="75.3984375" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" customWidth="1"/>
+    <col min="12" max="13" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="72" t="s">
         <v>188</v>
       </c>
@@ -7362,7 +7361,7 @@
       <c r="J1" s="103"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11">
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -7374,7 +7373,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -7418,7 +7417,7 @@
       <c r="J4" s="104"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11">
       <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
@@ -7446,7 +7445,7 @@
       <c r="J5" s="64"/>
       <c r="K5" s="64"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11">
       <c r="B6" s="63" t="s">
         <v>260</v>
       </c>
@@ -7476,7 +7475,7 @@
       </c>
       <c r="K6" s="64"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11">
       <c r="B7" s="63" t="s">
         <v>261</v>
       </c>
@@ -7504,7 +7503,7 @@
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11">
       <c r="B8" s="63" t="s">
         <v>262</v>
       </c>
@@ -7532,7 +7531,7 @@
       <c r="J8" s="64"/>
       <c r="K8" s="64"/>
     </row>
-    <row r="9" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="28.8">
       <c r="B9" s="63" t="s">
         <v>263</v>
       </c>
@@ -7560,7 +7559,7 @@
       <c r="J9" s="64"/>
       <c r="K9" s="64"/>
     </row>
-    <row r="10" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="63" t="s">
         <v>264</v>
       </c>
@@ -7588,7 +7587,7 @@
       <c r="J10" s="64"/>
       <c r="K10" s="64"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11">
       <c r="B11" s="63" t="s">
         <v>4</v>
       </c>
@@ -7622,7 +7621,7 @@
       <c r="J11" s="95"/>
       <c r="K11" s="64"/>
     </row>
-    <row r="12" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="63" t="s">
         <v>265</v>
       </c>
@@ -7650,7 +7649,7 @@
       <c r="J12" s="64"/>
       <c r="K12" s="64"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11">
       <c r="B13" s="63" t="s">
         <v>266</v>
       </c>
@@ -7678,7 +7677,7 @@
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11">
       <c r="B14" s="63" t="s">
         <v>5</v>
       </c>
@@ -7706,7 +7705,7 @@
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11">
       <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
@@ -7722,7 +7721,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="28.8">
       <c r="B16" s="48" t="s">
         <v>7</v>
       </c>
@@ -7747,7 +7746,7 @@
       <c r="J16" s="64"/>
       <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="28.8">
       <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
@@ -7772,7 +7771,7 @@
       <c r="J17" s="64"/>
       <c r="K17" s="64"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11">
       <c r="B18" s="48" t="s">
         <v>40</v>
       </c>
@@ -7797,7 +7796,7 @@
       <c r="J18" s="64"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
@@ -7822,7 +7821,7 @@
       <c r="J19" s="64"/>
       <c r="K19" s="64"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11">
       <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
@@ -7847,7 +7846,7 @@
       <c r="J20" s="64"/>
       <c r="K20" s="64"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11">
       <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
@@ -7872,7 +7871,7 @@
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="28.8">
       <c r="B22" s="48" t="s">
         <v>10</v>
       </c>
@@ -7897,7 +7896,7 @@
       <c r="J22" s="64"/>
       <c r="K22" s="64"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11">
       <c r="B23" s="48" t="s">
         <v>11</v>
       </c>
@@ -7922,7 +7921,7 @@
       <c r="J23" s="64"/>
       <c r="K23" s="64"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11">
       <c r="B24" s="48" t="s">
         <v>12</v>
       </c>
@@ -7947,7 +7946,7 @@
       <c r="J24" s="64"/>
       <c r="K24" s="64"/>
     </row>
-    <row r="25" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11">
       <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
@@ -7972,7 +7971,7 @@
       <c r="J25" s="64"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="28.8">
       <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
@@ -7997,7 +7996,7 @@
       <c r="J26" s="64"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="28.8">
       <c r="B27" s="48" t="s">
         <v>13</v>
       </c>
@@ -8022,7 +8021,7 @@
       <c r="J27" s="64"/>
       <c r="K27" s="64"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -8038,7 +8037,7 @@
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11">
       <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
@@ -8063,7 +8062,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11">
       <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
@@ -8088,7 +8087,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="28.8">
       <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
@@ -8113,7 +8112,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11">
       <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
@@ -8138,7 +8137,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12">
       <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
@@ -8163,7 +8162,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12">
       <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
@@ -8188,7 +8187,7 @@
       <c r="J34" s="64"/>
       <c r="K34" s="64"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12">
       <c r="B35" s="34" t="s">
         <v>21</v>
       </c>
@@ -8204,7 +8203,7 @@
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="28.8">
       <c r="B36" s="90" t="s">
         <v>22</v>
       </c>
@@ -8232,7 +8231,7 @@
       <c r="J36" s="110"/>
       <c r="K36" s="64"/>
     </row>
-    <row r="37" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="28.8">
       <c r="B37" s="90" t="s">
         <v>44</v>
       </c>
@@ -8257,7 +8256,7 @@
       <c r="J37" s="64"/>
       <c r="K37" s="64"/>
     </row>
-    <row r="38" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="28.8">
       <c r="B38" s="90" t="s">
         <v>45</v>
       </c>
@@ -8285,7 +8284,7 @@
       <c r="J38" s="110"/>
       <c r="K38" s="64"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12">
       <c r="B39" s="90" t="s">
         <v>23</v>
       </c>
@@ -8311,7 +8310,7 @@
       <c r="K39" s="64"/>
       <c r="L39" s="50"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12">
       <c r="B40" s="90" t="s">
         <v>24</v>
       </c>
@@ -8333,7 +8332,7 @@
       <c r="K40" s="64"/>
       <c r="L40" s="50"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12">
       <c r="B41" s="90" t="s">
         <v>46</v>
       </c>
@@ -8361,7 +8360,7 @@
       <c r="J41" s="110"/>
       <c r="K41" s="64"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12">
       <c r="B42" s="90" t="s">
         <v>47</v>
       </c>
@@ -8386,7 +8385,7 @@
       <c r="J42" s="114"/>
       <c r="K42" s="64"/>
     </row>
-    <row r="43" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="28.8">
       <c r="B43" s="90" t="s">
         <v>25</v>
       </c>
@@ -8411,7 +8410,7 @@
       <c r="J43" s="110"/>
       <c r="K43" s="64"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12">
       <c r="B44" s="90" t="s">
         <v>26</v>
       </c>
@@ -8436,7 +8435,7 @@
       <c r="J44" s="64"/>
       <c r="K44" s="64"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12">
       <c r="B45" s="90" t="s">
         <v>27</v>
       </c>
@@ -8461,7 +8460,7 @@
       <c r="J45" s="64"/>
       <c r="K45" s="64"/>
     </row>
-    <row r="46" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="28.8">
       <c r="B46" s="90" t="s">
         <v>93</v>
       </c>
@@ -8489,7 +8488,7 @@
       <c r="J46" s="64"/>
       <c r="K46" s="64"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12">
       <c r="B47" s="34" t="s">
         <v>28</v>
       </c>
@@ -8505,7 +8504,7 @@
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12">
       <c r="B48" s="90" t="s">
         <v>29</v>
       </c>
@@ -8530,7 +8529,7 @@
       <c r="J48" s="95"/>
       <c r="K48" s="64"/>
     </row>
-    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="28.8">
       <c r="B49" s="90" t="s">
         <v>48</v>
       </c>
@@ -8558,7 +8557,7 @@
       <c r="J49" s="95"/>
       <c r="K49" s="64"/>
     </row>
-    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="28.8">
       <c r="B50" s="90" t="s">
         <v>30</v>
       </c>
@@ -8583,7 +8582,7 @@
       <c r="J50" s="64"/>
       <c r="K50" s="64"/>
     </row>
-    <row r="51" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="28.8">
       <c r="B51" s="90" t="s">
         <v>49</v>
       </c>
@@ -8608,7 +8607,7 @@
       <c r="J51" s="64"/>
       <c r="K51" s="64"/>
     </row>
-    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="28.8">
       <c r="B52" s="90" t="s">
         <v>31</v>
       </c>
@@ -8633,7 +8632,7 @@
       <c r="J52" s="64"/>
       <c r="K52" s="64"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11">
       <c r="B53" s="90" t="s">
         <v>267</v>
       </c>
@@ -8661,7 +8660,7 @@
       <c r="J53" s="64"/>
       <c r="K53" s="64"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11">
       <c r="B54" s="34" t="s">
         <v>32</v>
       </c>
@@ -8677,7 +8676,7 @@
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11">
       <c r="B55" s="90" t="s">
         <v>50</v>
       </c>
@@ -8702,7 +8701,7 @@
       <c r="J55" s="64"/>
       <c r="K55" s="64"/>
     </row>
-    <row r="56" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="90" t="s">
         <v>51</v>
       </c>
@@ -8727,7 +8726,7 @@
       <c r="J56" s="64"/>
       <c r="K56" s="64"/>
     </row>
-    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" ht="28.8">
       <c r="B57" s="90" t="s">
         <v>52</v>
       </c>
@@ -8752,7 +8751,7 @@
       <c r="J57" s="64"/>
       <c r="K57" s="64"/>
     </row>
-    <row r="58" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="90" t="s">
         <v>53</v>
       </c>
@@ -8780,7 +8779,7 @@
       <c r="J58" s="64"/>
       <c r="K58" s="64"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11">
       <c r="B59" s="90" t="s">
         <v>54</v>
       </c>
@@ -8805,7 +8804,7 @@
       <c r="J59" s="64"/>
       <c r="K59" s="64"/>
     </row>
-    <row r="60" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" ht="28.8">
       <c r="B60" s="90" t="s">
         <v>55</v>
       </c>
@@ -8830,7 +8829,7 @@
       <c r="J60" s="64"/>
       <c r="K60" s="64"/>
     </row>
-    <row r="61" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11">
       <c r="B61" s="90" t="s">
         <v>268</v>
       </c>
@@ -8855,7 +8854,7 @@
       <c r="J61" s="64"/>
       <c r="K61" s="64"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11">
       <c r="B62" s="90" t="s">
         <v>269</v>
       </c>
@@ -8880,7 +8879,7 @@
       <c r="J62" s="64"/>
       <c r="K62" s="64"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11">
       <c r="B63" s="34" t="s">
         <v>33</v>
       </c>
@@ -8896,7 +8895,7 @@
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11">
       <c r="B64" s="90" t="s">
         <v>56</v>
       </c>
@@ -8921,7 +8920,7 @@
       <c r="J64" s="64"/>
       <c r="K64" s="64"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11">
       <c r="B65" s="90" t="s">
         <v>34</v>
       </c>
@@ -8946,7 +8945,7 @@
       <c r="J65" s="64"/>
       <c r="K65" s="64"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11">
       <c r="B66" s="90" t="s">
         <v>57</v>
       </c>
@@ -8971,7 +8970,7 @@
       <c r="J66" s="64"/>
       <c r="K66" s="64"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11">
       <c r="B67" s="90" t="s">
         <v>58</v>
       </c>
@@ -8996,7 +8995,7 @@
       <c r="J67" s="64"/>
       <c r="K67" s="64"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11">
       <c r="B68" s="90" t="s">
         <v>59</v>
       </c>
@@ -9021,7 +9020,7 @@
       <c r="J68" s="64"/>
       <c r="K68" s="64"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11">
       <c r="B69" s="90" t="s">
         <v>35</v>
       </c>
@@ -9046,7 +9045,7 @@
       <c r="J69" s="64"/>
       <c r="K69" s="64"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11">
       <c r="B70" s="90" t="s">
         <v>36</v>
       </c>
@@ -9071,7 +9070,7 @@
       <c r="J70" s="64"/>
       <c r="K70" s="64"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11">
       <c r="B71" s="90" t="s">
         <v>37</v>
       </c>
@@ -9096,7 +9095,7 @@
       <c r="J71" s="64"/>
       <c r="K71" s="64"/>
     </row>
-    <row r="72" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="28.8">
       <c r="B72" s="90" t="s">
         <v>95</v>
       </c>
@@ -9121,7 +9120,7 @@
       <c r="J72" s="64"/>
       <c r="K72" s="64"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11">
       <c r="B73" s="37"/>
       <c r="C73" s="39"/>
       <c r="D73" s="38"/>
@@ -9133,7 +9132,7 @@
       <c r="J73" s="40"/>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
@@ -9145,7 +9144,7 @@
       <c r="J74" s="41"/>
       <c r="K74" s="41"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
       <c r="D75" s="41"/>
@@ -9157,7 +9156,7 @@
       <c r="J75" s="41"/>
       <c r="K75" s="41"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="41"/>
@@ -9169,7 +9168,7 @@
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11">
       <c r="B77" s="73" t="s">
         <v>215</v>
       </c>
@@ -9183,7 +9182,7 @@
       <c r="J77" s="41"/>
       <c r="K77" s="41"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11">
       <c r="B78" s="74" t="s">
         <v>220</v>
       </c>
@@ -9199,7 +9198,7 @@
       <c r="J78" s="41"/>
       <c r="K78" s="41"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11">
       <c r="B79" s="43" t="s">
         <v>71</v>
       </c>
@@ -9215,7 +9214,7 @@
       <c r="J79" s="41"/>
       <c r="K79" s="41"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11">
       <c r="B80" s="43" t="s">
         <v>72</v>
       </c>
@@ -9231,7 +9230,7 @@
       <c r="J80" s="41"/>
       <c r="K80" s="41"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11">
       <c r="B81" s="43" t="s">
         <v>64</v>
       </c>
@@ -9247,7 +9246,7 @@
       <c r="J81" s="41"/>
       <c r="K81" s="41"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11">
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
@@ -9259,7 +9258,7 @@
       <c r="J82" s="113"/>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:11">
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
@@ -9271,7 +9270,7 @@
       <c r="J83" s="113"/>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:11">
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -9283,7 +9282,7 @@
       <c r="J84" s="113"/>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:11">
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -9306,10 +9305,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G1048576 I74:K1048576">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G29:G34 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G27 G29:G34 G36:G46 G48:G53 G64:G72 G5:G14 G55:G62">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9319,24 +9318,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="99.75" customWidth="1"/>
-    <col min="7" max="7" width="61.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
+    <col min="4" max="4" width="99.69921875" customWidth="1"/>
+    <col min="7" max="7" width="61.796875" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="7" t="s">
         <v>189</v>
       </c>
@@ -9344,11 +9343,11 @@
       <c r="G1" s="113"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8">
       <c r="G2" s="113"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8">
       <c r="B4" s="34" t="s">
         <v>120</v>
       </c>
@@ -9384,7 +9383,7 @@
       <c r="G4" s="116"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="63" t="s">
         <v>250</v>
       </c>
@@ -9406,7 +9405,7 @@
       </c>
       <c r="H5" s="64"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8">
       <c r="B6" s="63" t="s">
         <v>251</v>
       </c>
@@ -9428,7 +9427,7 @@
       </c>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8">
       <c r="B7" s="63" t="s">
         <v>252</v>
       </c>
@@ -9450,7 +9449,7 @@
       </c>
       <c r="H7" s="64"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8">
       <c r="B8" s="63" t="s">
         <v>253</v>
       </c>
@@ -9471,7 +9470,7 @@
       </c>
       <c r="H8" s="64"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8">
       <c r="B9" s="63" t="s">
         <v>254</v>
       </c>
@@ -9492,7 +9491,7 @@
       </c>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8">
       <c r="B10" s="63" t="s">
         <v>255</v>
       </c>
@@ -9513,7 +9512,7 @@
       </c>
       <c r="H10" s="64"/>
     </row>
-    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="63" t="s">
         <v>256</v>
       </c>
@@ -9534,7 +9533,7 @@
       </c>
       <c r="H11" s="64"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8">
       <c r="B12" s="63" t="s">
         <v>257</v>
       </c>
@@ -9555,7 +9554,7 @@
       </c>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8">
       <c r="B13" s="63" t="s">
         <v>97</v>
       </c>
@@ -9576,7 +9575,7 @@
       </c>
       <c r="H13" s="64"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8">
       <c r="B14" s="34"/>
       <c r="C14" s="47"/>
       <c r="D14" s="70" t="s">
@@ -9587,7 +9586,7 @@
       <c r="G14" s="116"/>
       <c r="H14" s="36"/>
     </row>
-    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="63" t="s">
         <v>60</v>
       </c>
@@ -9609,7 +9608,7 @@
       </c>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8">
       <c r="B16" s="34"/>
       <c r="C16" s="47"/>
       <c r="D16" s="70" t="s">
@@ -9620,7 +9619,7 @@
       <c r="G16" s="116"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="63" t="s">
         <v>258</v>
       </c>
@@ -9642,7 +9641,7 @@
       </c>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="63" t="s">
         <v>259</v>
       </c>
@@ -9663,7 +9662,7 @@
       </c>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8">
       <c r="B19" s="37"/>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
@@ -9672,7 +9671,7 @@
       <c r="G19" s="121"/>
       <c r="H19" s="40"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8">
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -9681,7 +9680,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
@@ -9690,7 +9689,7 @@
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8">
       <c r="B22" s="73" t="s">
         <v>215</v>
       </c>
@@ -9701,7 +9700,7 @@
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8">
       <c r="B23" s="74" t="s">
         <v>220</v>
       </c>
@@ -9714,7 +9713,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8">
       <c r="B24" s="43" t="s">
         <v>71</v>
       </c>
@@ -9727,7 +9726,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8">
       <c r="B25" s="43" t="s">
         <v>72</v>
       </c>
@@ -9740,7 +9739,7 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8">
       <c r="B26" s="43" t="s">
         <v>64</v>
       </c>
@@ -9753,7 +9752,7 @@
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8">
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
@@ -9762,7 +9761,7 @@
       <c r="G27" s="113"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8">
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
@@ -9771,7 +9770,7 @@
       <c r="G28" s="113"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8">
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
@@ -9780,21 +9779,21 @@
       <c r="G29" s="113"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8">
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8">
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8">
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
@@ -9843,7 +9842,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F17:F18 F5:F13" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F17:F18 F5:F13">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9853,20 +9852,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.75" customWidth="1"/>
+    <col min="1" max="1" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="177" t="s">
         <v>61</v>
       </c>
@@ -9874,7 +9873,7 @@
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="59" t="s">
         <v>83</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="57" t="s">
         <v>62</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="56" t="s">
         <v>63</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="56" t="s">
         <v>79</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="56" t="s">
         <v>80</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="56" t="s">
         <v>63</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="56" t="s">
         <v>80</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="56" t="s">
         <v>63</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
         <v>63</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="56" t="s">
         <v>63</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="56" t="s">
         <v>214</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="81" t="s">
         <v>232</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="98" t="s">
         <v>232</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="46.8">
       <c r="A15" s="102" t="s">
         <v>232</v>
       </c>
